--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA301D43-B3DD-0340-A69D-CFEDCD656D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CAB8E0-B13C-1E48-B3D6-9F2010720569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,14 +457,16 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CAB8E0-B13C-1E48-B3D6-9F2010720569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DE909B-47F4-5149-B52D-60F37F1A6E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
     <t>74</t>
   </si>
   <si>
-    <t>70</t>
+    <t>97</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DE909B-47F4-5149-B52D-60F37F1A6E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0345BDC-4818-B446-851D-932DC389DCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Berci Pusztai</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>97</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>101</t>
   </si>
 </sst>
 </file>
@@ -454,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -567,6 +573,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="+vDK7Fx/WFIFt5rDS+UX2zJxPh55lmVqb2P31uxGry0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="xUpxGApiPF7qIGvVRV+5ognS6LD5pwbjpVWK2GtqqNM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Season</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>93</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Ákos Szevtnik</t>
+  </si>
+  <si>
+    <t>71</t>
   </si>
 </sst>
 </file>
@@ -645,16 +654,16 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="1"/>
@@ -681,10 +690,18 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349C2E1B-E8EE-F642-9160-97DCDE722B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Results" sheetId="1" r:id="rId4"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="xUpxGApiPF7qIGvVRV+5ognS6LD5pwbjpVWK2GtqqNM="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Season</t>
   </si>
@@ -96,25 +105,22 @@
     <t>8</t>
   </si>
   <si>
-    <t>Ákos Szevtnik</t>
-  </si>
-  <si>
     <t>71</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -124,37 +130,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -344,28 +356,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.0"/>
-    <col customWidth="1" min="2" max="2" width="6.33"/>
-    <col customWidth="1" min="3" max="3" width="15.11"/>
-    <col customWidth="1" min="4" max="4" width="6.11"/>
-    <col customWidth="1" min="5" max="6" width="10.78"/>
-    <col customWidth="1" min="7" max="26" width="10.56"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +415,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -437,7 +451,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -473,7 +487,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -509,7 +523,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -545,7 +559,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -581,7 +595,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -617,7 +631,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -653,7 +667,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -689,18 +703,18 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -725,7 +739,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -753,7 +767,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -781,7 +795,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -809,7 +823,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -837,7 +851,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -865,7 +879,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -893,7 +907,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -921,7 +935,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -949,7 +963,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -977,7 +991,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1005,7 +1019,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1033,7 +1047,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1061,7 +1075,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1089,7 +1103,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1117,7 +1131,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1145,7 +1159,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1173,7 +1187,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1201,7 +1215,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1229,7 +1243,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1257,7 +1271,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1285,7 +1299,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1313,7 +1327,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1341,7 +1355,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1369,7 +1383,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1397,7 +1411,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1425,7 +1439,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1453,7 +1467,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1481,7 +1495,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1509,7 +1523,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1537,7 +1551,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1565,7 +1579,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1593,7 +1607,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1621,7 +1635,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1649,7 +1663,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1677,7 +1691,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1705,7 +1719,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1733,7 +1747,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1761,7 +1775,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1789,7 +1803,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1817,7 +1831,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1845,7 +1859,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1873,7 +1887,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1901,7 +1915,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1929,7 +1943,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1957,7 +1971,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1985,7 +1999,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2013,7 +2027,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2041,7 +2055,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2069,7 +2083,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2097,7 +2111,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2125,7 +2139,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2153,7 +2167,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2181,7 +2195,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2209,7 +2223,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2237,7 +2251,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2265,7 +2279,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2293,7 +2307,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2321,7 +2335,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2349,7 +2363,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2377,7 +2391,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2405,7 +2419,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2433,7 +2447,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2461,7 +2475,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2489,7 +2503,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2517,7 +2531,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2545,7 +2559,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2573,7 +2587,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2601,7 +2615,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2629,7 +2643,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2657,7 +2671,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2685,7 +2699,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2713,7 +2727,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2741,7 +2755,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2769,7 +2783,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2797,7 +2811,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2825,7 +2839,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2853,7 +2867,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2881,7 +2895,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2909,7 +2923,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2937,7 +2951,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2965,7 +2979,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2993,7 +3007,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3021,7 +3035,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3049,7 +3063,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3077,7 +3091,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3105,7 +3119,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3133,7 +3147,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3161,7 +3175,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3189,7 +3203,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3217,7 +3231,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3245,7 +3259,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3273,7 +3287,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3301,7 +3315,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3329,7 +3343,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3357,7 +3371,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3385,7 +3399,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3413,7 +3427,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3441,7 +3455,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3469,7 +3483,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3497,7 +3511,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3525,7 +3539,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3553,7 +3567,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3581,7 +3595,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3609,7 +3623,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3637,7 +3651,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3665,7 +3679,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3693,7 +3707,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3721,7 +3735,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3749,7 +3763,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3777,7 +3791,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3805,7 +3819,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3833,7 +3847,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3861,7 +3875,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3889,7 +3903,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3917,7 +3931,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3945,7 +3959,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3973,7 +3987,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4001,7 +4015,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4029,7 +4043,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4057,7 +4071,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4085,7 +4099,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4113,7 +4127,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4141,7 +4155,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4169,7 +4183,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4197,7 +4211,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4225,7 +4239,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4253,7 +4267,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4281,7 +4295,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4309,7 +4323,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4337,7 +4351,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4365,7 +4379,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4393,7 +4407,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4421,7 +4435,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4449,7 +4463,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4477,7 +4491,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4505,7 +4519,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4533,7 +4547,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4561,7 +4575,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4589,7 +4603,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4617,7 +4631,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4645,7 +4659,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4673,7 +4687,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4701,7 +4715,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4729,7 +4743,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4757,7 +4771,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4785,7 +4799,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4813,7 +4827,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4841,7 +4855,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4869,7 +4883,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4897,7 +4911,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4925,7 +4939,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4953,7 +4967,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4981,7 +4995,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5009,7 +5023,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5037,7 +5051,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5065,7 +5079,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5093,7 +5107,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5121,7 +5135,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5149,7 +5163,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5177,7 +5191,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5205,7 +5219,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5233,7 +5247,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5261,7 +5275,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5289,7 +5303,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5317,7 +5331,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5345,7 +5359,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5373,7 +5387,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5401,7 +5415,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5429,7 +5443,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5457,7 +5471,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5485,7 +5499,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5513,7 +5527,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5541,7 +5555,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5569,7 +5583,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5597,7 +5611,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5625,7 +5639,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5653,7 +5667,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5681,7 +5695,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5709,7 +5723,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5737,7 +5751,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5765,7 +5779,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5793,7 +5807,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5821,7 +5835,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5849,7 +5863,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5877,7 +5891,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5905,7 +5919,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5933,7 +5947,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5961,7 +5975,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5989,7 +6003,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6017,7 +6031,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6045,7 +6059,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6073,7 +6087,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6101,7 +6115,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6129,7 +6143,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6157,7 +6171,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6185,7 +6199,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6213,7 +6227,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6241,7 +6255,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6269,7 +6283,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6297,7 +6311,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6325,7 +6339,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6353,7 +6367,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6381,7 +6395,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6409,7 +6423,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6437,7 +6451,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6465,7 +6479,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6493,7 +6507,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6521,7 +6535,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6549,7 +6563,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6577,7 +6591,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6605,7 +6619,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6633,7 +6647,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6661,7 +6675,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6689,7 +6703,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6717,7 +6731,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6745,7 +6759,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6773,7 +6787,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6801,7 +6815,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6829,7 +6843,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6857,7 +6871,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6885,7 +6899,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6913,7 +6927,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6941,7 +6955,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6969,7 +6983,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6997,7 +7011,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7025,7 +7039,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7053,7 +7067,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7081,7 +7095,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7109,7 +7123,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7137,7 +7151,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7165,7 +7179,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7193,7 +7207,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7221,7 +7235,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7249,7 +7263,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7277,7 +7291,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7305,7 +7319,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -7333,7 +7347,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -7361,7 +7375,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7389,7 +7403,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -7417,7 +7431,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -7445,7 +7459,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -7473,7 +7487,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -7501,7 +7515,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -7529,7 +7543,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -7557,7 +7571,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -7585,7 +7599,7 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -7613,7 +7627,7 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -7641,7 +7655,7 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -7669,7 +7683,7 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -7697,7 +7711,7 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -7725,7 +7739,7 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -7753,7 +7767,7 @@
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -7781,7 +7795,7 @@
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -7809,7 +7823,7 @@
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -7837,7 +7851,7 @@
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -7865,7 +7879,7 @@
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -7893,7 +7907,7 @@
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -7921,7 +7935,7 @@
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -7949,7 +7963,7 @@
       <c r="Y268" s="1"/>
       <c r="Z268" s="1"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -7977,7 +7991,7 @@
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -8005,7 +8019,7 @@
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -8033,7 +8047,7 @@
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -8061,7 +8075,7 @@
       <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -8089,7 +8103,7 @@
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -8117,7 +8131,7 @@
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -8145,7 +8159,7 @@
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -8173,7 +8187,7 @@
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -8201,7 +8215,7 @@
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -8229,7 +8243,7 @@
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -8257,7 +8271,7 @@
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -8285,7 +8299,7 @@
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -8313,7 +8327,7 @@
       <c r="Y281" s="1"/>
       <c r="Z281" s="1"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -8341,7 +8355,7 @@
       <c r="Y282" s="1"/>
       <c r="Z282" s="1"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -8369,7 +8383,7 @@
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8397,7 +8411,7 @@
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -8425,7 +8439,7 @@
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -8453,7 +8467,7 @@
       <c r="Y286" s="1"/>
       <c r="Z286" s="1"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -8481,7 +8495,7 @@
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -8509,7 +8523,7 @@
       <c r="Y288" s="1"/>
       <c r="Z288" s="1"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -8537,7 +8551,7 @@
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -8565,7 +8579,7 @@
       <c r="Y290" s="1"/>
       <c r="Z290" s="1"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -8593,7 +8607,7 @@
       <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -8621,7 +8635,7 @@
       <c r="Y292" s="1"/>
       <c r="Z292" s="1"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -8649,7 +8663,7 @@
       <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -8677,7 +8691,7 @@
       <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -8705,7 +8719,7 @@
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -8733,7 +8747,7 @@
       <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -8761,7 +8775,7 @@
       <c r="Y297" s="1"/>
       <c r="Z297" s="1"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -8789,7 +8803,7 @@
       <c r="Y298" s="1"/>
       <c r="Z298" s="1"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -8817,7 +8831,7 @@
       <c r="Y299" s="1"/>
       <c r="Z299" s="1"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -8845,7 +8859,7 @@
       <c r="Y300" s="1"/>
       <c r="Z300" s="1"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -8873,7 +8887,7 @@
       <c r="Y301" s="1"/>
       <c r="Z301" s="1"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -8901,7 +8915,7 @@
       <c r="Y302" s="1"/>
       <c r="Z302" s="1"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -8929,7 +8943,7 @@
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -8957,7 +8971,7 @@
       <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -8985,7 +8999,7 @@
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9013,7 +9027,7 @@
       <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -9041,7 +9055,7 @@
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -9069,7 +9083,7 @@
       <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -9097,7 +9111,7 @@
       <c r="Y309" s="1"/>
       <c r="Z309" s="1"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -9125,7 +9139,7 @@
       <c r="Y310" s="1"/>
       <c r="Z310" s="1"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -9153,7 +9167,7 @@
       <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -9181,7 +9195,7 @@
       <c r="Y312" s="1"/>
       <c r="Z312" s="1"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -9209,7 +9223,7 @@
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -9237,7 +9251,7 @@
       <c r="Y314" s="1"/>
       <c r="Z314" s="1"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -9265,7 +9279,7 @@
       <c r="Y315" s="1"/>
       <c r="Z315" s="1"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -9293,7 +9307,7 @@
       <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -9321,7 +9335,7 @@
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -9349,7 +9363,7 @@
       <c r="Y318" s="1"/>
       <c r="Z318" s="1"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -9377,7 +9391,7 @@
       <c r="Y319" s="1"/>
       <c r="Z319" s="1"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -9405,7 +9419,7 @@
       <c r="Y320" s="1"/>
       <c r="Z320" s="1"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9433,7 +9447,7 @@
       <c r="Y321" s="1"/>
       <c r="Z321" s="1"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9461,7 +9475,7 @@
       <c r="Y322" s="1"/>
       <c r="Z322" s="1"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9489,7 +9503,7 @@
       <c r="Y323" s="1"/>
       <c r="Z323" s="1"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9517,7 +9531,7 @@
       <c r="Y324" s="1"/>
       <c r="Z324" s="1"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -9545,7 +9559,7 @@
       <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -9573,7 +9587,7 @@
       <c r="Y326" s="1"/>
       <c r="Z326" s="1"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -9601,7 +9615,7 @@
       <c r="Y327" s="1"/>
       <c r="Z327" s="1"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -9629,7 +9643,7 @@
       <c r="Y328" s="1"/>
       <c r="Z328" s="1"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -9657,7 +9671,7 @@
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -9685,7 +9699,7 @@
       <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -9713,7 +9727,7 @@
       <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -9741,7 +9755,7 @@
       <c r="Y332" s="1"/>
       <c r="Z332" s="1"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -9769,7 +9783,7 @@
       <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -9797,7 +9811,7 @@
       <c r="Y334" s="1"/>
       <c r="Z334" s="1"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -9825,7 +9839,7 @@
       <c r="Y335" s="1"/>
       <c r="Z335" s="1"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -9853,7 +9867,7 @@
       <c r="Y336" s="1"/>
       <c r="Z336" s="1"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -9881,7 +9895,7 @@
       <c r="Y337" s="1"/>
       <c r="Z337" s="1"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -9909,7 +9923,7 @@
       <c r="Y338" s="1"/>
       <c r="Z338" s="1"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -9937,7 +9951,7 @@
       <c r="Y339" s="1"/>
       <c r="Z339" s="1"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -9965,7 +9979,7 @@
       <c r="Y340" s="1"/>
       <c r="Z340" s="1"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -9993,7 +10007,7 @@
       <c r="Y341" s="1"/>
       <c r="Z341" s="1"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10021,7 +10035,7 @@
       <c r="Y342" s="1"/>
       <c r="Z342" s="1"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10049,7 +10063,7 @@
       <c r="Y343" s="1"/>
       <c r="Z343" s="1"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10077,7 +10091,7 @@
       <c r="Y344" s="1"/>
       <c r="Z344" s="1"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10105,7 +10119,7 @@
       <c r="Y345" s="1"/>
       <c r="Z345" s="1"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10133,7 +10147,7 @@
       <c r="Y346" s="1"/>
       <c r="Z346" s="1"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10161,7 +10175,7 @@
       <c r="Y347" s="1"/>
       <c r="Z347" s="1"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10189,7 +10203,7 @@
       <c r="Y348" s="1"/>
       <c r="Z348" s="1"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10217,7 +10231,7 @@
       <c r="Y349" s="1"/>
       <c r="Z349" s="1"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10245,7 +10259,7 @@
       <c r="Y350" s="1"/>
       <c r="Z350" s="1"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10273,7 +10287,7 @@
       <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -10301,7 +10315,7 @@
       <c r="Y352" s="1"/>
       <c r="Z352" s="1"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -10329,7 +10343,7 @@
       <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -10357,7 +10371,7 @@
       <c r="Y354" s="1"/>
       <c r="Z354" s="1"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -10385,7 +10399,7 @@
       <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -10413,7 +10427,7 @@
       <c r="Y356" s="1"/>
       <c r="Z356" s="1"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -10441,7 +10455,7 @@
       <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -10469,7 +10483,7 @@
       <c r="Y358" s="1"/>
       <c r="Z358" s="1"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -10497,7 +10511,7 @@
       <c r="Y359" s="1"/>
       <c r="Z359" s="1"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -10525,7 +10539,7 @@
       <c r="Y360" s="1"/>
       <c r="Z360" s="1"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -10553,7 +10567,7 @@
       <c r="Y361" s="1"/>
       <c r="Z361" s="1"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -10581,7 +10595,7 @@
       <c r="Y362" s="1"/>
       <c r="Z362" s="1"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -10609,7 +10623,7 @@
       <c r="Y363" s="1"/>
       <c r="Z363" s="1"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -10637,7 +10651,7 @@
       <c r="Y364" s="1"/>
       <c r="Z364" s="1"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -10665,7 +10679,7 @@
       <c r="Y365" s="1"/>
       <c r="Z365" s="1"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -10693,7 +10707,7 @@
       <c r="Y366" s="1"/>
       <c r="Z366" s="1"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -10721,7 +10735,7 @@
       <c r="Y367" s="1"/>
       <c r="Z367" s="1"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -10749,7 +10763,7 @@
       <c r="Y368" s="1"/>
       <c r="Z368" s="1"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -10777,7 +10791,7 @@
       <c r="Y369" s="1"/>
       <c r="Z369" s="1"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -10805,7 +10819,7 @@
       <c r="Y370" s="1"/>
       <c r="Z370" s="1"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -10833,7 +10847,7 @@
       <c r="Y371" s="1"/>
       <c r="Z371" s="1"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -10861,7 +10875,7 @@
       <c r="Y372" s="1"/>
       <c r="Z372" s="1"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -10889,7 +10903,7 @@
       <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -10917,7 +10931,7 @@
       <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -10945,7 +10959,7 @@
       <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -10973,7 +10987,7 @@
       <c r="Y376" s="1"/>
       <c r="Z376" s="1"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11001,7 +11015,7 @@
       <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11029,7 +11043,7 @@
       <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11057,7 +11071,7 @@
       <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11085,7 +11099,7 @@
       <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -11113,7 +11127,7 @@
       <c r="Y381" s="1"/>
       <c r="Z381" s="1"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -11141,7 +11155,7 @@
       <c r="Y382" s="1"/>
       <c r="Z382" s="1"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -11169,7 +11183,7 @@
       <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -11197,7 +11211,7 @@
       <c r="Y384" s="1"/>
       <c r="Z384" s="1"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -11225,7 +11239,7 @@
       <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -11253,7 +11267,7 @@
       <c r="Y386" s="1"/>
       <c r="Z386" s="1"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -11281,7 +11295,7 @@
       <c r="Y387" s="1"/>
       <c r="Z387" s="1"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -11309,7 +11323,7 @@
       <c r="Y388" s="1"/>
       <c r="Z388" s="1"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -11337,7 +11351,7 @@
       <c r="Y389" s="1"/>
       <c r="Z389" s="1"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11365,7 +11379,7 @@
       <c r="Y390" s="1"/>
       <c r="Z390" s="1"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -11393,7 +11407,7 @@
       <c r="Y391" s="1"/>
       <c r="Z391" s="1"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -11421,7 +11435,7 @@
       <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -11449,7 +11463,7 @@
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -11477,7 +11491,7 @@
       <c r="Y394" s="1"/>
       <c r="Z394" s="1"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -11505,7 +11519,7 @@
       <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -11533,7 +11547,7 @@
       <c r="Y396" s="1"/>
       <c r="Z396" s="1"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -11561,7 +11575,7 @@
       <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -11589,7 +11603,7 @@
       <c r="Y398" s="1"/>
       <c r="Z398" s="1"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -11617,7 +11631,7 @@
       <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -11645,7 +11659,7 @@
       <c r="Y400" s="1"/>
       <c r="Z400" s="1"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -11673,7 +11687,7 @@
       <c r="Y401" s="1"/>
       <c r="Z401" s="1"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -11701,7 +11715,7 @@
       <c r="Y402" s="1"/>
       <c r="Z402" s="1"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -11729,7 +11743,7 @@
       <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -11757,7 +11771,7 @@
       <c r="Y404" s="1"/>
       <c r="Z404" s="1"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -11785,7 +11799,7 @@
       <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -11813,7 +11827,7 @@
       <c r="Y406" s="1"/>
       <c r="Z406" s="1"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -11841,7 +11855,7 @@
       <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -11869,7 +11883,7 @@
       <c r="Y408" s="1"/>
       <c r="Z408" s="1"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -11897,7 +11911,7 @@
       <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -11925,7 +11939,7 @@
       <c r="Y410" s="1"/>
       <c r="Z410" s="1"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -11953,7 +11967,7 @@
       <c r="Y411" s="1"/>
       <c r="Z411" s="1"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -11981,7 +11995,7 @@
       <c r="Y412" s="1"/>
       <c r="Z412" s="1"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -12009,7 +12023,7 @@
       <c r="Y413" s="1"/>
       <c r="Z413" s="1"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -12037,7 +12051,7 @@
       <c r="Y414" s="1"/>
       <c r="Z414" s="1"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -12065,7 +12079,7 @@
       <c r="Y415" s="1"/>
       <c r="Z415" s="1"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -12093,7 +12107,7 @@
       <c r="Y416" s="1"/>
       <c r="Z416" s="1"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -12121,7 +12135,7 @@
       <c r="Y417" s="1"/>
       <c r="Z417" s="1"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -12149,7 +12163,7 @@
       <c r="Y418" s="1"/>
       <c r="Z418" s="1"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -12177,7 +12191,7 @@
       <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -12205,7 +12219,7 @@
       <c r="Y420" s="1"/>
       <c r="Z420" s="1"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -12233,7 +12247,7 @@
       <c r="Y421" s="1"/>
       <c r="Z421" s="1"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -12261,7 +12275,7 @@
       <c r="Y422" s="1"/>
       <c r="Z422" s="1"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -12289,7 +12303,7 @@
       <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -12317,7 +12331,7 @@
       <c r="Y424" s="1"/>
       <c r="Z424" s="1"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -12345,7 +12359,7 @@
       <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -12373,7 +12387,7 @@
       <c r="Y426" s="1"/>
       <c r="Z426" s="1"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -12401,7 +12415,7 @@
       <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -12429,7 +12443,7 @@
       <c r="Y428" s="1"/>
       <c r="Z428" s="1"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -12457,7 +12471,7 @@
       <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -12485,7 +12499,7 @@
       <c r="Y430" s="1"/>
       <c r="Z430" s="1"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -12513,7 +12527,7 @@
       <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -12541,7 +12555,7 @@
       <c r="Y432" s="1"/>
       <c r="Z432" s="1"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -12569,7 +12583,7 @@
       <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -12597,7 +12611,7 @@
       <c r="Y434" s="1"/>
       <c r="Z434" s="1"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -12625,7 +12639,7 @@
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -12653,7 +12667,7 @@
       <c r="Y436" s="1"/>
       <c r="Z436" s="1"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -12681,7 +12695,7 @@
       <c r="Y437" s="1"/>
       <c r="Z437" s="1"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -12709,7 +12723,7 @@
       <c r="Y438" s="1"/>
       <c r="Z438" s="1"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -12737,7 +12751,7 @@
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -12765,7 +12779,7 @@
       <c r="Y440" s="1"/>
       <c r="Z440" s="1"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -12793,7 +12807,7 @@
       <c r="Y441" s="1"/>
       <c r="Z441" s="1"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -12821,7 +12835,7 @@
       <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -12849,7 +12863,7 @@
       <c r="Y443" s="1"/>
       <c r="Z443" s="1"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -12877,7 +12891,7 @@
       <c r="Y444" s="1"/>
       <c r="Z444" s="1"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -12905,7 +12919,7 @@
       <c r="Y445" s="1"/>
       <c r="Z445" s="1"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -12933,7 +12947,7 @@
       <c r="Y446" s="1"/>
       <c r="Z446" s="1"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -12961,7 +12975,7 @@
       <c r="Y447" s="1"/>
       <c r="Z447" s="1"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -12989,7 +13003,7 @@
       <c r="Y448" s="1"/>
       <c r="Z448" s="1"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -13017,7 +13031,7 @@
       <c r="Y449" s="1"/>
       <c r="Z449" s="1"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -13045,7 +13059,7 @@
       <c r="Y450" s="1"/>
       <c r="Z450" s="1"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -13073,7 +13087,7 @@
       <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -13101,7 +13115,7 @@
       <c r="Y452" s="1"/>
       <c r="Z452" s="1"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -13129,7 +13143,7 @@
       <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -13157,7 +13171,7 @@
       <c r="Y454" s="1"/>
       <c r="Z454" s="1"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -13185,7 +13199,7 @@
       <c r="Y455" s="1"/>
       <c r="Z455" s="1"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -13213,7 +13227,7 @@
       <c r="Y456" s="1"/>
       <c r="Z456" s="1"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -13241,7 +13255,7 @@
       <c r="Y457" s="1"/>
       <c r="Z457" s="1"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -13269,7 +13283,7 @@
       <c r="Y458" s="1"/>
       <c r="Z458" s="1"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -13297,7 +13311,7 @@
       <c r="Y459" s="1"/>
       <c r="Z459" s="1"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -13325,7 +13339,7 @@
       <c r="Y460" s="1"/>
       <c r="Z460" s="1"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -13353,7 +13367,7 @@
       <c r="Y461" s="1"/>
       <c r="Z461" s="1"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -13381,7 +13395,7 @@
       <c r="Y462" s="1"/>
       <c r="Z462" s="1"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -13409,7 +13423,7 @@
       <c r="Y463" s="1"/>
       <c r="Z463" s="1"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -13437,7 +13451,7 @@
       <c r="Y464" s="1"/>
       <c r="Z464" s="1"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -13465,7 +13479,7 @@
       <c r="Y465" s="1"/>
       <c r="Z465" s="1"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -13493,7 +13507,7 @@
       <c r="Y466" s="1"/>
       <c r="Z466" s="1"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -13521,7 +13535,7 @@
       <c r="Y467" s="1"/>
       <c r="Z467" s="1"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -13549,7 +13563,7 @@
       <c r="Y468" s="1"/>
       <c r="Z468" s="1"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -13577,7 +13591,7 @@
       <c r="Y469" s="1"/>
       <c r="Z469" s="1"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -13605,7 +13619,7 @@
       <c r="Y470" s="1"/>
       <c r="Z470" s="1"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -13633,7 +13647,7 @@
       <c r="Y471" s="1"/>
       <c r="Z471" s="1"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -13661,7 +13675,7 @@
       <c r="Y472" s="1"/>
       <c r="Z472" s="1"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -13689,7 +13703,7 @@
       <c r="Y473" s="1"/>
       <c r="Z473" s="1"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -13717,7 +13731,7 @@
       <c r="Y474" s="1"/>
       <c r="Z474" s="1"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -13745,7 +13759,7 @@
       <c r="Y475" s="1"/>
       <c r="Z475" s="1"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -13773,7 +13787,7 @@
       <c r="Y476" s="1"/>
       <c r="Z476" s="1"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -13801,7 +13815,7 @@
       <c r="Y477" s="1"/>
       <c r="Z477" s="1"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -13829,7 +13843,7 @@
       <c r="Y478" s="1"/>
       <c r="Z478" s="1"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -13857,7 +13871,7 @@
       <c r="Y479" s="1"/>
       <c r="Z479" s="1"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -13885,7 +13899,7 @@
       <c r="Y480" s="1"/>
       <c r="Z480" s="1"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -13913,7 +13927,7 @@
       <c r="Y481" s="1"/>
       <c r="Z481" s="1"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -13941,7 +13955,7 @@
       <c r="Y482" s="1"/>
       <c r="Z482" s="1"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -13969,7 +13983,7 @@
       <c r="Y483" s="1"/>
       <c r="Z483" s="1"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -13997,7 +14011,7 @@
       <c r="Y484" s="1"/>
       <c r="Z484" s="1"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -14025,7 +14039,7 @@
       <c r="Y485" s="1"/>
       <c r="Z485" s="1"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -14053,7 +14067,7 @@
       <c r="Y486" s="1"/>
       <c r="Z486" s="1"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -14081,7 +14095,7 @@
       <c r="Y487" s="1"/>
       <c r="Z487" s="1"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -14109,7 +14123,7 @@
       <c r="Y488" s="1"/>
       <c r="Z488" s="1"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -14137,7 +14151,7 @@
       <c r="Y489" s="1"/>
       <c r="Z489" s="1"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -14165,7 +14179,7 @@
       <c r="Y490" s="1"/>
       <c r="Z490" s="1"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -14193,7 +14207,7 @@
       <c r="Y491" s="1"/>
       <c r="Z491" s="1"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -14221,7 +14235,7 @@
       <c r="Y492" s="1"/>
       <c r="Z492" s="1"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -14249,7 +14263,7 @@
       <c r="Y493" s="1"/>
       <c r="Z493" s="1"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -14277,7 +14291,7 @@
       <c r="Y494" s="1"/>
       <c r="Z494" s="1"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -14305,7 +14319,7 @@
       <c r="Y495" s="1"/>
       <c r="Z495" s="1"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -14333,7 +14347,7 @@
       <c r="Y496" s="1"/>
       <c r="Z496" s="1"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -14361,7 +14375,7 @@
       <c r="Y497" s="1"/>
       <c r="Z497" s="1"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -14389,7 +14403,7 @@
       <c r="Y498" s="1"/>
       <c r="Z498" s="1"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -14417,7 +14431,7 @@
       <c r="Y499" s="1"/>
       <c r="Z499" s="1"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -14445,7 +14459,7 @@
       <c r="Y500" s="1"/>
       <c r="Z500" s="1"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -14473,7 +14487,7 @@
       <c r="Y501" s="1"/>
       <c r="Z501" s="1"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -14501,7 +14515,7 @@
       <c r="Y502" s="1"/>
       <c r="Z502" s="1"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -14529,7 +14543,7 @@
       <c r="Y503" s="1"/>
       <c r="Z503" s="1"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -14557,7 +14571,7 @@
       <c r="Y504" s="1"/>
       <c r="Z504" s="1"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -14585,7 +14599,7 @@
       <c r="Y505" s="1"/>
       <c r="Z505" s="1"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -14613,7 +14627,7 @@
       <c r="Y506" s="1"/>
       <c r="Z506" s="1"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -14641,7 +14655,7 @@
       <c r="Y507" s="1"/>
       <c r="Z507" s="1"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -14669,7 +14683,7 @@
       <c r="Y508" s="1"/>
       <c r="Z508" s="1"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -14697,7 +14711,7 @@
       <c r="Y509" s="1"/>
       <c r="Z509" s="1"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -14725,7 +14739,7 @@
       <c r="Y510" s="1"/>
       <c r="Z510" s="1"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -14753,7 +14767,7 @@
       <c r="Y511" s="1"/>
       <c r="Z511" s="1"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -14781,7 +14795,7 @@
       <c r="Y512" s="1"/>
       <c r="Z512" s="1"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -14809,7 +14823,7 @@
       <c r="Y513" s="1"/>
       <c r="Z513" s="1"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -14837,7 +14851,7 @@
       <c r="Y514" s="1"/>
       <c r="Z514" s="1"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -14865,7 +14879,7 @@
       <c r="Y515" s="1"/>
       <c r="Z515" s="1"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -14893,7 +14907,7 @@
       <c r="Y516" s="1"/>
       <c r="Z516" s="1"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -14921,7 +14935,7 @@
       <c r="Y517" s="1"/>
       <c r="Z517" s="1"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -14949,7 +14963,7 @@
       <c r="Y518" s="1"/>
       <c r="Z518" s="1"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -14977,7 +14991,7 @@
       <c r="Y519" s="1"/>
       <c r="Z519" s="1"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -15005,7 +15019,7 @@
       <c r="Y520" s="1"/>
       <c r="Z520" s="1"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -15033,7 +15047,7 @@
       <c r="Y521" s="1"/>
       <c r="Z521" s="1"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -15061,7 +15075,7 @@
       <c r="Y522" s="1"/>
       <c r="Z522" s="1"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -15089,7 +15103,7 @@
       <c r="Y523" s="1"/>
       <c r="Z523" s="1"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -15117,7 +15131,7 @@
       <c r="Y524" s="1"/>
       <c r="Z524" s="1"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -15145,7 +15159,7 @@
       <c r="Y525" s="1"/>
       <c r="Z525" s="1"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -15173,7 +15187,7 @@
       <c r="Y526" s="1"/>
       <c r="Z526" s="1"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -15201,7 +15215,7 @@
       <c r="Y527" s="1"/>
       <c r="Z527" s="1"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -15229,7 +15243,7 @@
       <c r="Y528" s="1"/>
       <c r="Z528" s="1"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -15257,7 +15271,7 @@
       <c r="Y529" s="1"/>
       <c r="Z529" s="1"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -15285,7 +15299,7 @@
       <c r="Y530" s="1"/>
       <c r="Z530" s="1"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -15313,7 +15327,7 @@
       <c r="Y531" s="1"/>
       <c r="Z531" s="1"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -15341,7 +15355,7 @@
       <c r="Y532" s="1"/>
       <c r="Z532" s="1"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -15369,7 +15383,7 @@
       <c r="Y533" s="1"/>
       <c r="Z533" s="1"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -15397,7 +15411,7 @@
       <c r="Y534" s="1"/>
       <c r="Z534" s="1"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -15425,7 +15439,7 @@
       <c r="Y535" s="1"/>
       <c r="Z535" s="1"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -15453,7 +15467,7 @@
       <c r="Y536" s="1"/>
       <c r="Z536" s="1"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -15481,7 +15495,7 @@
       <c r="Y537" s="1"/>
       <c r="Z537" s="1"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -15509,7 +15523,7 @@
       <c r="Y538" s="1"/>
       <c r="Z538" s="1"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -15537,7 +15551,7 @@
       <c r="Y539" s="1"/>
       <c r="Z539" s="1"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -15565,7 +15579,7 @@
       <c r="Y540" s="1"/>
       <c r="Z540" s="1"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -15593,7 +15607,7 @@
       <c r="Y541" s="1"/>
       <c r="Z541" s="1"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -15621,7 +15635,7 @@
       <c r="Y542" s="1"/>
       <c r="Z542" s="1"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -15649,7 +15663,7 @@
       <c r="Y543" s="1"/>
       <c r="Z543" s="1"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -15677,7 +15691,7 @@
       <c r="Y544" s="1"/>
       <c r="Z544" s="1"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -15705,7 +15719,7 @@
       <c r="Y545" s="1"/>
       <c r="Z545" s="1"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -15733,7 +15747,7 @@
       <c r="Y546" s="1"/>
       <c r="Z546" s="1"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -15761,7 +15775,7 @@
       <c r="Y547" s="1"/>
       <c r="Z547" s="1"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -15789,7 +15803,7 @@
       <c r="Y548" s="1"/>
       <c r="Z548" s="1"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -15817,7 +15831,7 @@
       <c r="Y549" s="1"/>
       <c r="Z549" s="1"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -15845,7 +15859,7 @@
       <c r="Y550" s="1"/>
       <c r="Z550" s="1"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -15873,7 +15887,7 @@
       <c r="Y551" s="1"/>
       <c r="Z551" s="1"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -15901,7 +15915,7 @@
       <c r="Y552" s="1"/>
       <c r="Z552" s="1"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -15929,7 +15943,7 @@
       <c r="Y553" s="1"/>
       <c r="Z553" s="1"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -15957,7 +15971,7 @@
       <c r="Y554" s="1"/>
       <c r="Z554" s="1"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -15985,7 +15999,7 @@
       <c r="Y555" s="1"/>
       <c r="Z555" s="1"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -16013,7 +16027,7 @@
       <c r="Y556" s="1"/>
       <c r="Z556" s="1"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -16041,7 +16055,7 @@
       <c r="Y557" s="1"/>
       <c r="Z557" s="1"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -16069,7 +16083,7 @@
       <c r="Y558" s="1"/>
       <c r="Z558" s="1"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -16097,7 +16111,7 @@
       <c r="Y559" s="1"/>
       <c r="Z559" s="1"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -16125,7 +16139,7 @@
       <c r="Y560" s="1"/>
       <c r="Z560" s="1"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -16153,7 +16167,7 @@
       <c r="Y561" s="1"/>
       <c r="Z561" s="1"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -16181,7 +16195,7 @@
       <c r="Y562" s="1"/>
       <c r="Z562" s="1"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -16209,7 +16223,7 @@
       <c r="Y563" s="1"/>
       <c r="Z563" s="1"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -16237,7 +16251,7 @@
       <c r="Y564" s="1"/>
       <c r="Z564" s="1"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -16265,7 +16279,7 @@
       <c r="Y565" s="1"/>
       <c r="Z565" s="1"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -16293,7 +16307,7 @@
       <c r="Y566" s="1"/>
       <c r="Z566" s="1"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -16321,7 +16335,7 @@
       <c r="Y567" s="1"/>
       <c r="Z567" s="1"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -16349,7 +16363,7 @@
       <c r="Y568" s="1"/>
       <c r="Z568" s="1"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -16377,7 +16391,7 @@
       <c r="Y569" s="1"/>
       <c r="Z569" s="1"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -16405,7 +16419,7 @@
       <c r="Y570" s="1"/>
       <c r="Z570" s="1"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -16433,7 +16447,7 @@
       <c r="Y571" s="1"/>
       <c r="Z571" s="1"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -16461,7 +16475,7 @@
       <c r="Y572" s="1"/>
       <c r="Z572" s="1"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -16489,7 +16503,7 @@
       <c r="Y573" s="1"/>
       <c r="Z573" s="1"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -16517,7 +16531,7 @@
       <c r="Y574" s="1"/>
       <c r="Z574" s="1"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -16545,7 +16559,7 @@
       <c r="Y575" s="1"/>
       <c r="Z575" s="1"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -16573,7 +16587,7 @@
       <c r="Y576" s="1"/>
       <c r="Z576" s="1"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -16601,7 +16615,7 @@
       <c r="Y577" s="1"/>
       <c r="Z577" s="1"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -16629,7 +16643,7 @@
       <c r="Y578" s="1"/>
       <c r="Z578" s="1"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -16657,7 +16671,7 @@
       <c r="Y579" s="1"/>
       <c r="Z579" s="1"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -16685,7 +16699,7 @@
       <c r="Y580" s="1"/>
       <c r="Z580" s="1"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -16713,7 +16727,7 @@
       <c r="Y581" s="1"/>
       <c r="Z581" s="1"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -16741,7 +16755,7 @@
       <c r="Y582" s="1"/>
       <c r="Z582" s="1"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -16769,7 +16783,7 @@
       <c r="Y583" s="1"/>
       <c r="Z583" s="1"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -16797,7 +16811,7 @@
       <c r="Y584" s="1"/>
       <c r="Z584" s="1"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -16825,7 +16839,7 @@
       <c r="Y585" s="1"/>
       <c r="Z585" s="1"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -16853,7 +16867,7 @@
       <c r="Y586" s="1"/>
       <c r="Z586" s="1"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -16881,7 +16895,7 @@
       <c r="Y587" s="1"/>
       <c r="Z587" s="1"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -16909,7 +16923,7 @@
       <c r="Y588" s="1"/>
       <c r="Z588" s="1"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -16937,7 +16951,7 @@
       <c r="Y589" s="1"/>
       <c r="Z589" s="1"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -16965,7 +16979,7 @@
       <c r="Y590" s="1"/>
       <c r="Z590" s="1"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -16993,7 +17007,7 @@
       <c r="Y591" s="1"/>
       <c r="Z591" s="1"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -17021,7 +17035,7 @@
       <c r="Y592" s="1"/>
       <c r="Z592" s="1"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -17049,7 +17063,7 @@
       <c r="Y593" s="1"/>
       <c r="Z593" s="1"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -17077,7 +17091,7 @@
       <c r="Y594" s="1"/>
       <c r="Z594" s="1"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -17105,7 +17119,7 @@
       <c r="Y595" s="1"/>
       <c r="Z595" s="1"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -17133,7 +17147,7 @@
       <c r="Y596" s="1"/>
       <c r="Z596" s="1"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -17161,7 +17175,7 @@
       <c r="Y597" s="1"/>
       <c r="Z597" s="1"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -17189,7 +17203,7 @@
       <c r="Y598" s="1"/>
       <c r="Z598" s="1"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -17217,7 +17231,7 @@
       <c r="Y599" s="1"/>
       <c r="Z599" s="1"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -17245,7 +17259,7 @@
       <c r="Y600" s="1"/>
       <c r="Z600" s="1"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -17273,7 +17287,7 @@
       <c r="Y601" s="1"/>
       <c r="Z601" s="1"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -17301,7 +17315,7 @@
       <c r="Y602" s="1"/>
       <c r="Z602" s="1"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -17329,7 +17343,7 @@
       <c r="Y603" s="1"/>
       <c r="Z603" s="1"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -17357,7 +17371,7 @@
       <c r="Y604" s="1"/>
       <c r="Z604" s="1"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -17385,7 +17399,7 @@
       <c r="Y605" s="1"/>
       <c r="Z605" s="1"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -17413,7 +17427,7 @@
       <c r="Y606" s="1"/>
       <c r="Z606" s="1"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -17441,7 +17455,7 @@
       <c r="Y607" s="1"/>
       <c r="Z607" s="1"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -17469,7 +17483,7 @@
       <c r="Y608" s="1"/>
       <c r="Z608" s="1"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -17497,7 +17511,7 @@
       <c r="Y609" s="1"/>
       <c r="Z609" s="1"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -17525,7 +17539,7 @@
       <c r="Y610" s="1"/>
       <c r="Z610" s="1"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -17553,7 +17567,7 @@
       <c r="Y611" s="1"/>
       <c r="Z611" s="1"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -17581,7 +17595,7 @@
       <c r="Y612" s="1"/>
       <c r="Z612" s="1"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -17609,7 +17623,7 @@
       <c r="Y613" s="1"/>
       <c r="Z613" s="1"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -17637,7 +17651,7 @@
       <c r="Y614" s="1"/>
       <c r="Z614" s="1"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -17665,7 +17679,7 @@
       <c r="Y615" s="1"/>
       <c r="Z615" s="1"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -17693,7 +17707,7 @@
       <c r="Y616" s="1"/>
       <c r="Z616" s="1"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -17721,7 +17735,7 @@
       <c r="Y617" s="1"/>
       <c r="Z617" s="1"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -17749,7 +17763,7 @@
       <c r="Y618" s="1"/>
       <c r="Z618" s="1"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -17777,7 +17791,7 @@
       <c r="Y619" s="1"/>
       <c r="Z619" s="1"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -17805,7 +17819,7 @@
       <c r="Y620" s="1"/>
       <c r="Z620" s="1"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -17833,7 +17847,7 @@
       <c r="Y621" s="1"/>
       <c r="Z621" s="1"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -17861,7 +17875,7 @@
       <c r="Y622" s="1"/>
       <c r="Z622" s="1"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -17889,7 +17903,7 @@
       <c r="Y623" s="1"/>
       <c r="Z623" s="1"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -17917,7 +17931,7 @@
       <c r="Y624" s="1"/>
       <c r="Z624" s="1"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -17945,7 +17959,7 @@
       <c r="Y625" s="1"/>
       <c r="Z625" s="1"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -17973,7 +17987,7 @@
       <c r="Y626" s="1"/>
       <c r="Z626" s="1"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -18001,7 +18015,7 @@
       <c r="Y627" s="1"/>
       <c r="Z627" s="1"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -18029,7 +18043,7 @@
       <c r="Y628" s="1"/>
       <c r="Z628" s="1"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -18057,7 +18071,7 @@
       <c r="Y629" s="1"/>
       <c r="Z629" s="1"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -18085,7 +18099,7 @@
       <c r="Y630" s="1"/>
       <c r="Z630" s="1"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -18113,7 +18127,7 @@
       <c r="Y631" s="1"/>
       <c r="Z631" s="1"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -18141,7 +18155,7 @@
       <c r="Y632" s="1"/>
       <c r="Z632" s="1"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -18169,7 +18183,7 @@
       <c r="Y633" s="1"/>
       <c r="Z633" s="1"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -18197,7 +18211,7 @@
       <c r="Y634" s="1"/>
       <c r="Z634" s="1"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -18225,7 +18239,7 @@
       <c r="Y635" s="1"/>
       <c r="Z635" s="1"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -18253,7 +18267,7 @@
       <c r="Y636" s="1"/>
       <c r="Z636" s="1"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -18281,7 +18295,7 @@
       <c r="Y637" s="1"/>
       <c r="Z637" s="1"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -18309,7 +18323,7 @@
       <c r="Y638" s="1"/>
       <c r="Z638" s="1"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -18337,7 +18351,7 @@
       <c r="Y639" s="1"/>
       <c r="Z639" s="1"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -18365,7 +18379,7 @@
       <c r="Y640" s="1"/>
       <c r="Z640" s="1"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -18393,7 +18407,7 @@
       <c r="Y641" s="1"/>
       <c r="Z641" s="1"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -18421,7 +18435,7 @@
       <c r="Y642" s="1"/>
       <c r="Z642" s="1"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -18449,7 +18463,7 @@
       <c r="Y643" s="1"/>
       <c r="Z643" s="1"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -18477,7 +18491,7 @@
       <c r="Y644" s="1"/>
       <c r="Z644" s="1"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -18505,7 +18519,7 @@
       <c r="Y645" s="1"/>
       <c r="Z645" s="1"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -18533,7 +18547,7 @@
       <c r="Y646" s="1"/>
       <c r="Z646" s="1"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -18561,7 +18575,7 @@
       <c r="Y647" s="1"/>
       <c r="Z647" s="1"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -18589,7 +18603,7 @@
       <c r="Y648" s="1"/>
       <c r="Z648" s="1"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -18617,7 +18631,7 @@
       <c r="Y649" s="1"/>
       <c r="Z649" s="1"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -18645,7 +18659,7 @@
       <c r="Y650" s="1"/>
       <c r="Z650" s="1"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -18673,7 +18687,7 @@
       <c r="Y651" s="1"/>
       <c r="Z651" s="1"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -18701,7 +18715,7 @@
       <c r="Y652" s="1"/>
       <c r="Z652" s="1"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -18729,7 +18743,7 @@
       <c r="Y653" s="1"/>
       <c r="Z653" s="1"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -18757,7 +18771,7 @@
       <c r="Y654" s="1"/>
       <c r="Z654" s="1"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -18785,7 +18799,7 @@
       <c r="Y655" s="1"/>
       <c r="Z655" s="1"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -18813,7 +18827,7 @@
       <c r="Y656" s="1"/>
       <c r="Z656" s="1"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -18841,7 +18855,7 @@
       <c r="Y657" s="1"/>
       <c r="Z657" s="1"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -18869,7 +18883,7 @@
       <c r="Y658" s="1"/>
       <c r="Z658" s="1"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -18897,7 +18911,7 @@
       <c r="Y659" s="1"/>
       <c r="Z659" s="1"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -18925,7 +18939,7 @@
       <c r="Y660" s="1"/>
       <c r="Z660" s="1"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -18953,7 +18967,7 @@
       <c r="Y661" s="1"/>
       <c r="Z661" s="1"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -18981,7 +18995,7 @@
       <c r="Y662" s="1"/>
       <c r="Z662" s="1"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -19009,7 +19023,7 @@
       <c r="Y663" s="1"/>
       <c r="Z663" s="1"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -19037,7 +19051,7 @@
       <c r="Y664" s="1"/>
       <c r="Z664" s="1"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -19065,7 +19079,7 @@
       <c r="Y665" s="1"/>
       <c r="Z665" s="1"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -19093,7 +19107,7 @@
       <c r="Y666" s="1"/>
       <c r="Z666" s="1"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -19121,7 +19135,7 @@
       <c r="Y667" s="1"/>
       <c r="Z667" s="1"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -19149,7 +19163,7 @@
       <c r="Y668" s="1"/>
       <c r="Z668" s="1"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -19177,7 +19191,7 @@
       <c r="Y669" s="1"/>
       <c r="Z669" s="1"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -19205,7 +19219,7 @@
       <c r="Y670" s="1"/>
       <c r="Z670" s="1"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -19233,7 +19247,7 @@
       <c r="Y671" s="1"/>
       <c r="Z671" s="1"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -19261,7 +19275,7 @@
       <c r="Y672" s="1"/>
       <c r="Z672" s="1"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -19289,7 +19303,7 @@
       <c r="Y673" s="1"/>
       <c r="Z673" s="1"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -19317,7 +19331,7 @@
       <c r="Y674" s="1"/>
       <c r="Z674" s="1"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -19345,7 +19359,7 @@
       <c r="Y675" s="1"/>
       <c r="Z675" s="1"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -19373,7 +19387,7 @@
       <c r="Y676" s="1"/>
       <c r="Z676" s="1"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -19401,7 +19415,7 @@
       <c r="Y677" s="1"/>
       <c r="Z677" s="1"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -19429,7 +19443,7 @@
       <c r="Y678" s="1"/>
       <c r="Z678" s="1"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -19457,7 +19471,7 @@
       <c r="Y679" s="1"/>
       <c r="Z679" s="1"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -19485,7 +19499,7 @@
       <c r="Y680" s="1"/>
       <c r="Z680" s="1"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -19513,7 +19527,7 @@
       <c r="Y681" s="1"/>
       <c r="Z681" s="1"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -19541,7 +19555,7 @@
       <c r="Y682" s="1"/>
       <c r="Z682" s="1"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -19569,7 +19583,7 @@
       <c r="Y683" s="1"/>
       <c r="Z683" s="1"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -19597,7 +19611,7 @@
       <c r="Y684" s="1"/>
       <c r="Z684" s="1"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -19625,7 +19639,7 @@
       <c r="Y685" s="1"/>
       <c r="Z685" s="1"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -19653,7 +19667,7 @@
       <c r="Y686" s="1"/>
       <c r="Z686" s="1"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -19681,7 +19695,7 @@
       <c r="Y687" s="1"/>
       <c r="Z687" s="1"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -19709,7 +19723,7 @@
       <c r="Y688" s="1"/>
       <c r="Z688" s="1"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -19737,7 +19751,7 @@
       <c r="Y689" s="1"/>
       <c r="Z689" s="1"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -19765,7 +19779,7 @@
       <c r="Y690" s="1"/>
       <c r="Z690" s="1"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -19793,7 +19807,7 @@
       <c r="Y691" s="1"/>
       <c r="Z691" s="1"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -19821,7 +19835,7 @@
       <c r="Y692" s="1"/>
       <c r="Z692" s="1"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -19849,7 +19863,7 @@
       <c r="Y693" s="1"/>
       <c r="Z693" s="1"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -19877,7 +19891,7 @@
       <c r="Y694" s="1"/>
       <c r="Z694" s="1"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -19905,7 +19919,7 @@
       <c r="Y695" s="1"/>
       <c r="Z695" s="1"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -19933,7 +19947,7 @@
       <c r="Y696" s="1"/>
       <c r="Z696" s="1"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -19961,7 +19975,7 @@
       <c r="Y697" s="1"/>
       <c r="Z697" s="1"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -19989,7 +20003,7 @@
       <c r="Y698" s="1"/>
       <c r="Z698" s="1"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -20017,7 +20031,7 @@
       <c r="Y699" s="1"/>
       <c r="Z699" s="1"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -20045,7 +20059,7 @@
       <c r="Y700" s="1"/>
       <c r="Z700" s="1"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -20073,7 +20087,7 @@
       <c r="Y701" s="1"/>
       <c r="Z701" s="1"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -20101,7 +20115,7 @@
       <c r="Y702" s="1"/>
       <c r="Z702" s="1"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -20129,7 +20143,7 @@
       <c r="Y703" s="1"/>
       <c r="Z703" s="1"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -20157,7 +20171,7 @@
       <c r="Y704" s="1"/>
       <c r="Z704" s="1"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -20185,7 +20199,7 @@
       <c r="Y705" s="1"/>
       <c r="Z705" s="1"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -20213,7 +20227,7 @@
       <c r="Y706" s="1"/>
       <c r="Z706" s="1"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -20241,7 +20255,7 @@
       <c r="Y707" s="1"/>
       <c r="Z707" s="1"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -20269,7 +20283,7 @@
       <c r="Y708" s="1"/>
       <c r="Z708" s="1"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -20297,7 +20311,7 @@
       <c r="Y709" s="1"/>
       <c r="Z709" s="1"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -20325,7 +20339,7 @@
       <c r="Y710" s="1"/>
       <c r="Z710" s="1"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -20353,7 +20367,7 @@
       <c r="Y711" s="1"/>
       <c r="Z711" s="1"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -20381,7 +20395,7 @@
       <c r="Y712" s="1"/>
       <c r="Z712" s="1"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -20409,7 +20423,7 @@
       <c r="Y713" s="1"/>
       <c r="Z713" s="1"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -20437,7 +20451,7 @@
       <c r="Y714" s="1"/>
       <c r="Z714" s="1"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -20465,7 +20479,7 @@
       <c r="Y715" s="1"/>
       <c r="Z715" s="1"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -20493,7 +20507,7 @@
       <c r="Y716" s="1"/>
       <c r="Z716" s="1"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -20521,7 +20535,7 @@
       <c r="Y717" s="1"/>
       <c r="Z717" s="1"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -20549,7 +20563,7 @@
       <c r="Y718" s="1"/>
       <c r="Z718" s="1"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -20577,7 +20591,7 @@
       <c r="Y719" s="1"/>
       <c r="Z719" s="1"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -20605,7 +20619,7 @@
       <c r="Y720" s="1"/>
       <c r="Z720" s="1"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -20633,7 +20647,7 @@
       <c r="Y721" s="1"/>
       <c r="Z721" s="1"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -20661,7 +20675,7 @@
       <c r="Y722" s="1"/>
       <c r="Z722" s="1"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -20689,7 +20703,7 @@
       <c r="Y723" s="1"/>
       <c r="Z723" s="1"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -20717,7 +20731,7 @@
       <c r="Y724" s="1"/>
       <c r="Z724" s="1"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -20745,7 +20759,7 @@
       <c r="Y725" s="1"/>
       <c r="Z725" s="1"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -20773,7 +20787,7 @@
       <c r="Y726" s="1"/>
       <c r="Z726" s="1"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -20801,7 +20815,7 @@
       <c r="Y727" s="1"/>
       <c r="Z727" s="1"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -20829,7 +20843,7 @@
       <c r="Y728" s="1"/>
       <c r="Z728" s="1"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -20857,7 +20871,7 @@
       <c r="Y729" s="1"/>
       <c r="Z729" s="1"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -20885,7 +20899,7 @@
       <c r="Y730" s="1"/>
       <c r="Z730" s="1"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -20913,7 +20927,7 @@
       <c r="Y731" s="1"/>
       <c r="Z731" s="1"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -20941,7 +20955,7 @@
       <c r="Y732" s="1"/>
       <c r="Z732" s="1"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -20969,7 +20983,7 @@
       <c r="Y733" s="1"/>
       <c r="Z733" s="1"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -20997,7 +21011,7 @@
       <c r="Y734" s="1"/>
       <c r="Z734" s="1"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -21025,7 +21039,7 @@
       <c r="Y735" s="1"/>
       <c r="Z735" s="1"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -21053,7 +21067,7 @@
       <c r="Y736" s="1"/>
       <c r="Z736" s="1"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -21081,7 +21095,7 @@
       <c r="Y737" s="1"/>
       <c r="Z737" s="1"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -21109,7 +21123,7 @@
       <c r="Y738" s="1"/>
       <c r="Z738" s="1"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -21137,7 +21151,7 @@
       <c r="Y739" s="1"/>
       <c r="Z739" s="1"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -21165,7 +21179,7 @@
       <c r="Y740" s="1"/>
       <c r="Z740" s="1"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -21193,7 +21207,7 @@
       <c r="Y741" s="1"/>
       <c r="Z741" s="1"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -21221,7 +21235,7 @@
       <c r="Y742" s="1"/>
       <c r="Z742" s="1"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -21249,7 +21263,7 @@
       <c r="Y743" s="1"/>
       <c r="Z743" s="1"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -21277,7 +21291,7 @@
       <c r="Y744" s="1"/>
       <c r="Z744" s="1"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -21305,7 +21319,7 @@
       <c r="Y745" s="1"/>
       <c r="Z745" s="1"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -21333,7 +21347,7 @@
       <c r="Y746" s="1"/>
       <c r="Z746" s="1"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -21361,7 +21375,7 @@
       <c r="Y747" s="1"/>
       <c r="Z747" s="1"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -21389,7 +21403,7 @@
       <c r="Y748" s="1"/>
       <c r="Z748" s="1"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -21417,7 +21431,7 @@
       <c r="Y749" s="1"/>
       <c r="Z749" s="1"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -21445,7 +21459,7 @@
       <c r="Y750" s="1"/>
       <c r="Z750" s="1"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -21473,7 +21487,7 @@
       <c r="Y751" s="1"/>
       <c r="Z751" s="1"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -21501,7 +21515,7 @@
       <c r="Y752" s="1"/>
       <c r="Z752" s="1"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -21529,7 +21543,7 @@
       <c r="Y753" s="1"/>
       <c r="Z753" s="1"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -21557,7 +21571,7 @@
       <c r="Y754" s="1"/>
       <c r="Z754" s="1"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -21585,7 +21599,7 @@
       <c r="Y755" s="1"/>
       <c r="Z755" s="1"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -21613,7 +21627,7 @@
       <c r="Y756" s="1"/>
       <c r="Z756" s="1"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -21641,7 +21655,7 @@
       <c r="Y757" s="1"/>
       <c r="Z757" s="1"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -21669,7 +21683,7 @@
       <c r="Y758" s="1"/>
       <c r="Z758" s="1"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -21697,7 +21711,7 @@
       <c r="Y759" s="1"/>
       <c r="Z759" s="1"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -21725,7 +21739,7 @@
       <c r="Y760" s="1"/>
       <c r="Z760" s="1"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -21753,7 +21767,7 @@
       <c r="Y761" s="1"/>
       <c r="Z761" s="1"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -21781,7 +21795,7 @@
       <c r="Y762" s="1"/>
       <c r="Z762" s="1"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -21809,7 +21823,7 @@
       <c r="Y763" s="1"/>
       <c r="Z763" s="1"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -21837,7 +21851,7 @@
       <c r="Y764" s="1"/>
       <c r="Z764" s="1"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -21865,7 +21879,7 @@
       <c r="Y765" s="1"/>
       <c r="Z765" s="1"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -21893,7 +21907,7 @@
       <c r="Y766" s="1"/>
       <c r="Z766" s="1"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -21921,7 +21935,7 @@
       <c r="Y767" s="1"/>
       <c r="Z767" s="1"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -21949,7 +21963,7 @@
       <c r="Y768" s="1"/>
       <c r="Z768" s="1"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -21977,7 +21991,7 @@
       <c r="Y769" s="1"/>
       <c r="Z769" s="1"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -22005,7 +22019,7 @@
       <c r="Y770" s="1"/>
       <c r="Z770" s="1"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -22033,7 +22047,7 @@
       <c r="Y771" s="1"/>
       <c r="Z771" s="1"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -22061,7 +22075,7 @@
       <c r="Y772" s="1"/>
       <c r="Z772" s="1"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -22089,7 +22103,7 @@
       <c r="Y773" s="1"/>
       <c r="Z773" s="1"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -22117,7 +22131,7 @@
       <c r="Y774" s="1"/>
       <c r="Z774" s="1"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -22145,7 +22159,7 @@
       <c r="Y775" s="1"/>
       <c r="Z775" s="1"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -22173,7 +22187,7 @@
       <c r="Y776" s="1"/>
       <c r="Z776" s="1"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -22201,7 +22215,7 @@
       <c r="Y777" s="1"/>
       <c r="Z777" s="1"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -22229,7 +22243,7 @@
       <c r="Y778" s="1"/>
       <c r="Z778" s="1"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -22257,7 +22271,7 @@
       <c r="Y779" s="1"/>
       <c r="Z779" s="1"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -22285,7 +22299,7 @@
       <c r="Y780" s="1"/>
       <c r="Z780" s="1"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -22313,7 +22327,7 @@
       <c r="Y781" s="1"/>
       <c r="Z781" s="1"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -22341,7 +22355,7 @@
       <c r="Y782" s="1"/>
       <c r="Z782" s="1"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -22369,7 +22383,7 @@
       <c r="Y783" s="1"/>
       <c r="Z783" s="1"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -22397,7 +22411,7 @@
       <c r="Y784" s="1"/>
       <c r="Z784" s="1"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -22425,7 +22439,7 @@
       <c r="Y785" s="1"/>
       <c r="Z785" s="1"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -22453,7 +22467,7 @@
       <c r="Y786" s="1"/>
       <c r="Z786" s="1"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -22481,7 +22495,7 @@
       <c r="Y787" s="1"/>
       <c r="Z787" s="1"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -22509,7 +22523,7 @@
       <c r="Y788" s="1"/>
       <c r="Z788" s="1"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -22537,7 +22551,7 @@
       <c r="Y789" s="1"/>
       <c r="Z789" s="1"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -22565,7 +22579,7 @@
       <c r="Y790" s="1"/>
       <c r="Z790" s="1"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -22593,7 +22607,7 @@
       <c r="Y791" s="1"/>
       <c r="Z791" s="1"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -22621,7 +22635,7 @@
       <c r="Y792" s="1"/>
       <c r="Z792" s="1"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -22649,7 +22663,7 @@
       <c r="Y793" s="1"/>
       <c r="Z793" s="1"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -22677,7 +22691,7 @@
       <c r="Y794" s="1"/>
       <c r="Z794" s="1"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -22705,7 +22719,7 @@
       <c r="Y795" s="1"/>
       <c r="Z795" s="1"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -22733,7 +22747,7 @@
       <c r="Y796" s="1"/>
       <c r="Z796" s="1"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -22761,7 +22775,7 @@
       <c r="Y797" s="1"/>
       <c r="Z797" s="1"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -22789,7 +22803,7 @@
       <c r="Y798" s="1"/>
       <c r="Z798" s="1"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -22817,7 +22831,7 @@
       <c r="Y799" s="1"/>
       <c r="Z799" s="1"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -22845,7 +22859,7 @@
       <c r="Y800" s="1"/>
       <c r="Z800" s="1"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -22873,7 +22887,7 @@
       <c r="Y801" s="1"/>
       <c r="Z801" s="1"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -22901,7 +22915,7 @@
       <c r="Y802" s="1"/>
       <c r="Z802" s="1"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -22929,7 +22943,7 @@
       <c r="Y803" s="1"/>
       <c r="Z803" s="1"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -22957,7 +22971,7 @@
       <c r="Y804" s="1"/>
       <c r="Z804" s="1"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -22985,7 +22999,7 @@
       <c r="Y805" s="1"/>
       <c r="Z805" s="1"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -23013,7 +23027,7 @@
       <c r="Y806" s="1"/>
       <c r="Z806" s="1"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -23041,7 +23055,7 @@
       <c r="Y807" s="1"/>
       <c r="Z807" s="1"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -23069,7 +23083,7 @@
       <c r="Y808" s="1"/>
       <c r="Z808" s="1"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -23097,7 +23111,7 @@
       <c r="Y809" s="1"/>
       <c r="Z809" s="1"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -23125,7 +23139,7 @@
       <c r="Y810" s="1"/>
       <c r="Z810" s="1"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -23153,7 +23167,7 @@
       <c r="Y811" s="1"/>
       <c r="Z811" s="1"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -23181,7 +23195,7 @@
       <c r="Y812" s="1"/>
       <c r="Z812" s="1"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -23209,7 +23223,7 @@
       <c r="Y813" s="1"/>
       <c r="Z813" s="1"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -23237,7 +23251,7 @@
       <c r="Y814" s="1"/>
       <c r="Z814" s="1"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -23265,7 +23279,7 @@
       <c r="Y815" s="1"/>
       <c r="Z815" s="1"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -23293,7 +23307,7 @@
       <c r="Y816" s="1"/>
       <c r="Z816" s="1"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -23321,7 +23335,7 @@
       <c r="Y817" s="1"/>
       <c r="Z817" s="1"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -23349,7 +23363,7 @@
       <c r="Y818" s="1"/>
       <c r="Z818" s="1"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -23377,7 +23391,7 @@
       <c r="Y819" s="1"/>
       <c r="Z819" s="1"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -23405,7 +23419,7 @@
       <c r="Y820" s="1"/>
       <c r="Z820" s="1"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -23433,7 +23447,7 @@
       <c r="Y821" s="1"/>
       <c r="Z821" s="1"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -23461,7 +23475,7 @@
       <c r="Y822" s="1"/>
       <c r="Z822" s="1"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -23489,7 +23503,7 @@
       <c r="Y823" s="1"/>
       <c r="Z823" s="1"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -23517,7 +23531,7 @@
       <c r="Y824" s="1"/>
       <c r="Z824" s="1"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -23545,7 +23559,7 @@
       <c r="Y825" s="1"/>
       <c r="Z825" s="1"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -23573,7 +23587,7 @@
       <c r="Y826" s="1"/>
       <c r="Z826" s="1"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -23601,7 +23615,7 @@
       <c r="Y827" s="1"/>
       <c r="Z827" s="1"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -23629,7 +23643,7 @@
       <c r="Y828" s="1"/>
       <c r="Z828" s="1"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -23657,7 +23671,7 @@
       <c r="Y829" s="1"/>
       <c r="Z829" s="1"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -23685,7 +23699,7 @@
       <c r="Y830" s="1"/>
       <c r="Z830" s="1"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -23713,7 +23727,7 @@
       <c r="Y831" s="1"/>
       <c r="Z831" s="1"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -23741,7 +23755,7 @@
       <c r="Y832" s="1"/>
       <c r="Z832" s="1"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -23769,7 +23783,7 @@
       <c r="Y833" s="1"/>
       <c r="Z833" s="1"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -23797,7 +23811,7 @@
       <c r="Y834" s="1"/>
       <c r="Z834" s="1"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -23825,7 +23839,7 @@
       <c r="Y835" s="1"/>
       <c r="Z835" s="1"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -23853,7 +23867,7 @@
       <c r="Y836" s="1"/>
       <c r="Z836" s="1"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -23881,7 +23895,7 @@
       <c r="Y837" s="1"/>
       <c r="Z837" s="1"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -23909,7 +23923,7 @@
       <c r="Y838" s="1"/>
       <c r="Z838" s="1"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -23937,7 +23951,7 @@
       <c r="Y839" s="1"/>
       <c r="Z839" s="1"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -23965,7 +23979,7 @@
       <c r="Y840" s="1"/>
       <c r="Z840" s="1"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -23993,7 +24007,7 @@
       <c r="Y841" s="1"/>
       <c r="Z841" s="1"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -24021,7 +24035,7 @@
       <c r="Y842" s="1"/>
       <c r="Z842" s="1"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -24049,7 +24063,7 @@
       <c r="Y843" s="1"/>
       <c r="Z843" s="1"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -24077,7 +24091,7 @@
       <c r="Y844" s="1"/>
       <c r="Z844" s="1"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -24105,7 +24119,7 @@
       <c r="Y845" s="1"/>
       <c r="Z845" s="1"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -24133,7 +24147,7 @@
       <c r="Y846" s="1"/>
       <c r="Z846" s="1"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -24161,7 +24175,7 @@
       <c r="Y847" s="1"/>
       <c r="Z847" s="1"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -24189,7 +24203,7 @@
       <c r="Y848" s="1"/>
       <c r="Z848" s="1"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -24217,7 +24231,7 @@
       <c r="Y849" s="1"/>
       <c r="Z849" s="1"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -24245,7 +24259,7 @@
       <c r="Y850" s="1"/>
       <c r="Z850" s="1"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -24273,7 +24287,7 @@
       <c r="Y851" s="1"/>
       <c r="Z851" s="1"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -24301,7 +24315,7 @@
       <c r="Y852" s="1"/>
       <c r="Z852" s="1"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -24329,7 +24343,7 @@
       <c r="Y853" s="1"/>
       <c r="Z853" s="1"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -24357,7 +24371,7 @@
       <c r="Y854" s="1"/>
       <c r="Z854" s="1"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -24385,7 +24399,7 @@
       <c r="Y855" s="1"/>
       <c r="Z855" s="1"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -24413,7 +24427,7 @@
       <c r="Y856" s="1"/>
       <c r="Z856" s="1"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -24441,7 +24455,7 @@
       <c r="Y857" s="1"/>
       <c r="Z857" s="1"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -24469,7 +24483,7 @@
       <c r="Y858" s="1"/>
       <c r="Z858" s="1"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -24497,7 +24511,7 @@
       <c r="Y859" s="1"/>
       <c r="Z859" s="1"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -24525,7 +24539,7 @@
       <c r="Y860" s="1"/>
       <c r="Z860" s="1"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -24553,7 +24567,7 @@
       <c r="Y861" s="1"/>
       <c r="Z861" s="1"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -24581,7 +24595,7 @@
       <c r="Y862" s="1"/>
       <c r="Z862" s="1"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -24609,7 +24623,7 @@
       <c r="Y863" s="1"/>
       <c r="Z863" s="1"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -24637,7 +24651,7 @@
       <c r="Y864" s="1"/>
       <c r="Z864" s="1"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -24665,7 +24679,7 @@
       <c r="Y865" s="1"/>
       <c r="Z865" s="1"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -24693,7 +24707,7 @@
       <c r="Y866" s="1"/>
       <c r="Z866" s="1"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -24721,7 +24735,7 @@
       <c r="Y867" s="1"/>
       <c r="Z867" s="1"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -24749,7 +24763,7 @@
       <c r="Y868" s="1"/>
       <c r="Z868" s="1"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -24777,7 +24791,7 @@
       <c r="Y869" s="1"/>
       <c r="Z869" s="1"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -24805,7 +24819,7 @@
       <c r="Y870" s="1"/>
       <c r="Z870" s="1"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -24833,7 +24847,7 @@
       <c r="Y871" s="1"/>
       <c r="Z871" s="1"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -24861,7 +24875,7 @@
       <c r="Y872" s="1"/>
       <c r="Z872" s="1"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -24889,7 +24903,7 @@
       <c r="Y873" s="1"/>
       <c r="Z873" s="1"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -24917,7 +24931,7 @@
       <c r="Y874" s="1"/>
       <c r="Z874" s="1"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -24945,7 +24959,7 @@
       <c r="Y875" s="1"/>
       <c r="Z875" s="1"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -24973,7 +24987,7 @@
       <c r="Y876" s="1"/>
       <c r="Z876" s="1"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -25001,7 +25015,7 @@
       <c r="Y877" s="1"/>
       <c r="Z877" s="1"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -25029,7 +25043,7 @@
       <c r="Y878" s="1"/>
       <c r="Z878" s="1"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -25057,7 +25071,7 @@
       <c r="Y879" s="1"/>
       <c r="Z879" s="1"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -25085,7 +25099,7 @@
       <c r="Y880" s="1"/>
       <c r="Z880" s="1"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -25113,7 +25127,7 @@
       <c r="Y881" s="1"/>
       <c r="Z881" s="1"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -25141,7 +25155,7 @@
       <c r="Y882" s="1"/>
       <c r="Z882" s="1"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -25169,7 +25183,7 @@
       <c r="Y883" s="1"/>
       <c r="Z883" s="1"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -25197,7 +25211,7 @@
       <c r="Y884" s="1"/>
       <c r="Z884" s="1"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -25225,7 +25239,7 @@
       <c r="Y885" s="1"/>
       <c r="Z885" s="1"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -25253,7 +25267,7 @@
       <c r="Y886" s="1"/>
       <c r="Z886" s="1"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -25281,7 +25295,7 @@
       <c r="Y887" s="1"/>
       <c r="Z887" s="1"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -25309,7 +25323,7 @@
       <c r="Y888" s="1"/>
       <c r="Z888" s="1"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -25337,7 +25351,7 @@
       <c r="Y889" s="1"/>
       <c r="Z889" s="1"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -25365,7 +25379,7 @@
       <c r="Y890" s="1"/>
       <c r="Z890" s="1"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -25393,7 +25407,7 @@
       <c r="Y891" s="1"/>
       <c r="Z891" s="1"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -25421,7 +25435,7 @@
       <c r="Y892" s="1"/>
       <c r="Z892" s="1"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -25449,7 +25463,7 @@
       <c r="Y893" s="1"/>
       <c r="Z893" s="1"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -25477,7 +25491,7 @@
       <c r="Y894" s="1"/>
       <c r="Z894" s="1"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -25505,7 +25519,7 @@
       <c r="Y895" s="1"/>
       <c r="Z895" s="1"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -25533,7 +25547,7 @@
       <c r="Y896" s="1"/>
       <c r="Z896" s="1"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -25561,7 +25575,7 @@
       <c r="Y897" s="1"/>
       <c r="Z897" s="1"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -25589,7 +25603,7 @@
       <c r="Y898" s="1"/>
       <c r="Z898" s="1"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -25617,7 +25631,7 @@
       <c r="Y899" s="1"/>
       <c r="Z899" s="1"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -25645,7 +25659,7 @@
       <c r="Y900" s="1"/>
       <c r="Z900" s="1"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -25673,7 +25687,7 @@
       <c r="Y901" s="1"/>
       <c r="Z901" s="1"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -25701,7 +25715,7 @@
       <c r="Y902" s="1"/>
       <c r="Z902" s="1"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -25729,7 +25743,7 @@
       <c r="Y903" s="1"/>
       <c r="Z903" s="1"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -25757,7 +25771,7 @@
       <c r="Y904" s="1"/>
       <c r="Z904" s="1"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -25785,7 +25799,7 @@
       <c r="Y905" s="1"/>
       <c r="Z905" s="1"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -25813,7 +25827,7 @@
       <c r="Y906" s="1"/>
       <c r="Z906" s="1"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -25841,7 +25855,7 @@
       <c r="Y907" s="1"/>
       <c r="Z907" s="1"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -25869,7 +25883,7 @@
       <c r="Y908" s="1"/>
       <c r="Z908" s="1"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -25897,7 +25911,7 @@
       <c r="Y909" s="1"/>
       <c r="Z909" s="1"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -25925,7 +25939,7 @@
       <c r="Y910" s="1"/>
       <c r="Z910" s="1"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -25953,7 +25967,7 @@
       <c r="Y911" s="1"/>
       <c r="Z911" s="1"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -25981,7 +25995,7 @@
       <c r="Y912" s="1"/>
       <c r="Z912" s="1"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -26009,7 +26023,7 @@
       <c r="Y913" s="1"/>
       <c r="Z913" s="1"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -26037,7 +26051,7 @@
       <c r="Y914" s="1"/>
       <c r="Z914" s="1"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -26065,7 +26079,7 @@
       <c r="Y915" s="1"/>
       <c r="Z915" s="1"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -26093,7 +26107,7 @@
       <c r="Y916" s="1"/>
       <c r="Z916" s="1"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -26121,7 +26135,7 @@
       <c r="Y917" s="1"/>
       <c r="Z917" s="1"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -26149,7 +26163,7 @@
       <c r="Y918" s="1"/>
       <c r="Z918" s="1"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -26177,7 +26191,7 @@
       <c r="Y919" s="1"/>
       <c r="Z919" s="1"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -26205,7 +26219,7 @@
       <c r="Y920" s="1"/>
       <c r="Z920" s="1"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -26233,7 +26247,7 @@
       <c r="Y921" s="1"/>
       <c r="Z921" s="1"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -26261,7 +26275,7 @@
       <c r="Y922" s="1"/>
       <c r="Z922" s="1"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -26289,7 +26303,7 @@
       <c r="Y923" s="1"/>
       <c r="Z923" s="1"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -26317,7 +26331,7 @@
       <c r="Y924" s="1"/>
       <c r="Z924" s="1"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -26345,7 +26359,7 @@
       <c r="Y925" s="1"/>
       <c r="Z925" s="1"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -26373,7 +26387,7 @@
       <c r="Y926" s="1"/>
       <c r="Z926" s="1"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -26401,7 +26415,7 @@
       <c r="Y927" s="1"/>
       <c r="Z927" s="1"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -26429,7 +26443,7 @@
       <c r="Y928" s="1"/>
       <c r="Z928" s="1"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -26457,7 +26471,7 @@
       <c r="Y929" s="1"/>
       <c r="Z929" s="1"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -26485,7 +26499,7 @@
       <c r="Y930" s="1"/>
       <c r="Z930" s="1"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -26513,7 +26527,7 @@
       <c r="Y931" s="1"/>
       <c r="Z931" s="1"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -26541,7 +26555,7 @@
       <c r="Y932" s="1"/>
       <c r="Z932" s="1"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -26569,7 +26583,7 @@
       <c r="Y933" s="1"/>
       <c r="Z933" s="1"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -26597,7 +26611,7 @@
       <c r="Y934" s="1"/>
       <c r="Z934" s="1"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -26625,7 +26639,7 @@
       <c r="Y935" s="1"/>
       <c r="Z935" s="1"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -26653,7 +26667,7 @@
       <c r="Y936" s="1"/>
       <c r="Z936" s="1"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -26681,7 +26695,7 @@
       <c r="Y937" s="1"/>
       <c r="Z937" s="1"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -26709,7 +26723,7 @@
       <c r="Y938" s="1"/>
       <c r="Z938" s="1"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -26737,7 +26751,7 @@
       <c r="Y939" s="1"/>
       <c r="Z939" s="1"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -26765,7 +26779,7 @@
       <c r="Y940" s="1"/>
       <c r="Z940" s="1"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -26793,7 +26807,7 @@
       <c r="Y941" s="1"/>
       <c r="Z941" s="1"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -26821,7 +26835,7 @@
       <c r="Y942" s="1"/>
       <c r="Z942" s="1"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -26849,7 +26863,7 @@
       <c r="Y943" s="1"/>
       <c r="Z943" s="1"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -26877,7 +26891,7 @@
       <c r="Y944" s="1"/>
       <c r="Z944" s="1"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -26905,7 +26919,7 @@
       <c r="Y945" s="1"/>
       <c r="Z945" s="1"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -26933,7 +26947,7 @@
       <c r="Y946" s="1"/>
       <c r="Z946" s="1"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -26961,7 +26975,7 @@
       <c r="Y947" s="1"/>
       <c r="Z947" s="1"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -26989,7 +27003,7 @@
       <c r="Y948" s="1"/>
       <c r="Z948" s="1"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -27017,7 +27031,7 @@
       <c r="Y949" s="1"/>
       <c r="Z949" s="1"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -27045,7 +27059,7 @@
       <c r="Y950" s="1"/>
       <c r="Z950" s="1"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -27073,7 +27087,7 @@
       <c r="Y951" s="1"/>
       <c r="Z951" s="1"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -27101,7 +27115,7 @@
       <c r="Y952" s="1"/>
       <c r="Z952" s="1"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -27129,7 +27143,7 @@
       <c r="Y953" s="1"/>
       <c r="Z953" s="1"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -27157,7 +27171,7 @@
       <c r="Y954" s="1"/>
       <c r="Z954" s="1"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -27185,7 +27199,7 @@
       <c r="Y955" s="1"/>
       <c r="Z955" s="1"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -27213,7 +27227,7 @@
       <c r="Y956" s="1"/>
       <c r="Z956" s="1"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -27241,7 +27255,7 @@
       <c r="Y957" s="1"/>
       <c r="Z957" s="1"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -27269,7 +27283,7 @@
       <c r="Y958" s="1"/>
       <c r="Z958" s="1"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -27297,7 +27311,7 @@
       <c r="Y959" s="1"/>
       <c r="Z959" s="1"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -27325,7 +27339,7 @@
       <c r="Y960" s="1"/>
       <c r="Z960" s="1"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -27353,7 +27367,7 @@
       <c r="Y961" s="1"/>
       <c r="Z961" s="1"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -27381,7 +27395,7 @@
       <c r="Y962" s="1"/>
       <c r="Z962" s="1"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -27409,7 +27423,7 @@
       <c r="Y963" s="1"/>
       <c r="Z963" s="1"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -27437,7 +27451,7 @@
       <c r="Y964" s="1"/>
       <c r="Z964" s="1"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -27465,7 +27479,7 @@
       <c r="Y965" s="1"/>
       <c r="Z965" s="1"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -27493,7 +27507,7 @@
       <c r="Y966" s="1"/>
       <c r="Z966" s="1"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -27521,7 +27535,7 @@
       <c r="Y967" s="1"/>
       <c r="Z967" s="1"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -27549,7 +27563,7 @@
       <c r="Y968" s="1"/>
       <c r="Z968" s="1"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -27577,7 +27591,7 @@
       <c r="Y969" s="1"/>
       <c r="Z969" s="1"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -27605,7 +27619,7 @@
       <c r="Y970" s="1"/>
       <c r="Z970" s="1"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -27633,7 +27647,7 @@
       <c r="Y971" s="1"/>
       <c r="Z971" s="1"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -27661,7 +27675,7 @@
       <c r="Y972" s="1"/>
       <c r="Z972" s="1"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -27689,7 +27703,7 @@
       <c r="Y973" s="1"/>
       <c r="Z973" s="1"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -27717,7 +27731,7 @@
       <c r="Y974" s="1"/>
       <c r="Z974" s="1"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -27745,7 +27759,7 @@
       <c r="Y975" s="1"/>
       <c r="Z975" s="1"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -27773,7 +27787,7 @@
       <c r="Y976" s="1"/>
       <c r="Z976" s="1"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -27801,7 +27815,7 @@
       <c r="Y977" s="1"/>
       <c r="Z977" s="1"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -27829,7 +27843,7 @@
       <c r="Y978" s="1"/>
       <c r="Z978" s="1"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -27857,7 +27871,7 @@
       <c r="Y979" s="1"/>
       <c r="Z979" s="1"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -27885,7 +27899,7 @@
       <c r="Y980" s="1"/>
       <c r="Z980" s="1"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -27913,7 +27927,7 @@
       <c r="Y981" s="1"/>
       <c r="Z981" s="1"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -27941,7 +27955,7 @@
       <c r="Y982" s="1"/>
       <c r="Z982" s="1"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -27969,7 +27983,7 @@
       <c r="Y983" s="1"/>
       <c r="Z983" s="1"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -27997,7 +28011,7 @@
       <c r="Y984" s="1"/>
       <c r="Z984" s="1"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -28025,7 +28039,7 @@
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -28053,7 +28067,7 @@
       <c r="Y986" s="1"/>
       <c r="Z986" s="1"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -28081,7 +28095,7 @@
       <c r="Y987" s="1"/>
       <c r="Z987" s="1"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -28109,7 +28123,7 @@
       <c r="Y988" s="1"/>
       <c r="Z988" s="1"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -28137,7 +28151,7 @@
       <c r="Y989" s="1"/>
       <c r="Z989" s="1"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -28165,7 +28179,7 @@
       <c r="Y990" s="1"/>
       <c r="Z990" s="1"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -28193,7 +28207,7 @@
       <c r="Y991" s="1"/>
       <c r="Z991" s="1"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -28221,7 +28235,7 @@
       <c r="Y992" s="1"/>
       <c r="Z992" s="1"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -28249,7 +28263,7 @@
       <c r="Y993" s="1"/>
       <c r="Z993" s="1"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -28277,7 +28291,7 @@
       <c r="Y994" s="1"/>
       <c r="Z994" s="1"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -28305,7 +28319,7 @@
       <c r="Y995" s="1"/>
       <c r="Z995" s="1"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -28333,7 +28347,7 @@
       <c r="Y996" s="1"/>
       <c r="Z996" s="1"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -28361,7 +28375,7 @@
       <c r="Y997" s="1"/>
       <c r="Z997" s="1"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -28389,7 +28403,7 @@
       <c r="Y998" s="1"/>
       <c r="Z998" s="1"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -28417,7 +28431,7 @@
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
@@ -28446,9 +28460,7 @@
       <c r="Z1000" s="1"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\R\darts-statistics\bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349C2E1B-E8EE-F642-9160-97DCDE722B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC648644-D3B7-43C2-A338-E5BC00A97F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Season</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>71</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>105</t>
   </si>
 </sst>
 </file>
@@ -366,20 +372,20 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="6.125" customWidth="1"/>
+    <col min="5" max="6" width="10.875" customWidth="1"/>
     <col min="7" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +421,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -451,7 +457,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -487,7 +493,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -523,7 +529,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -559,7 +565,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -595,7 +601,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -631,7 +637,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -667,7 +673,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -703,7 +709,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,11 +745,19 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -767,7 +781,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -795,7 +809,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -823,7 +837,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -851,7 +865,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -879,7 +893,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -907,7 +921,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -935,7 +949,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -963,7 +977,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -991,7 +1005,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1019,7 +1033,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1047,7 +1061,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1075,7 +1089,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1103,7 +1117,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1131,7 +1145,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1159,7 +1173,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1187,7 +1201,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1215,7 +1229,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1243,7 +1257,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1271,7 +1285,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1299,7 +1313,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1327,7 +1341,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1355,7 +1369,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1383,7 +1397,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1411,7 +1425,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1439,7 +1453,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1467,7 +1481,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1495,7 +1509,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1523,7 +1537,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1551,7 +1565,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1579,7 +1593,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1607,7 +1621,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1635,7 +1649,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1663,7 +1677,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1691,7 +1705,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1719,7 +1733,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1747,7 +1761,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1775,7 +1789,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1803,7 +1817,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1831,7 +1845,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1859,7 +1873,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1887,7 +1901,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1915,7 +1929,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1943,7 +1957,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1971,7 +1985,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1999,7 +2013,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2027,7 +2041,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2055,7 +2069,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2083,7 +2097,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2111,7 +2125,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2139,7 +2153,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2167,7 +2181,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2195,7 +2209,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2223,7 +2237,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2251,7 +2265,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2279,7 +2293,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2307,7 +2321,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2335,7 +2349,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2363,7 +2377,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2391,7 +2405,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2419,7 +2433,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2447,7 +2461,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2475,7 +2489,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2503,7 +2517,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2531,7 +2545,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2559,7 +2573,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2587,7 +2601,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2615,7 +2629,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2643,7 +2657,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2671,7 +2685,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2699,7 +2713,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2727,7 +2741,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2755,7 +2769,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2783,7 +2797,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2811,7 +2825,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2839,7 +2853,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2867,7 +2881,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2895,7 +2909,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2923,7 +2937,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2951,7 +2965,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2979,7 +2993,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3007,7 +3021,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3035,7 +3049,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3063,7 +3077,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3091,7 +3105,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3119,7 +3133,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3147,7 +3161,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3175,7 +3189,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3203,7 +3217,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3231,7 +3245,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3259,7 +3273,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3287,7 +3301,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3315,7 +3329,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3343,7 +3357,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3371,7 +3385,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3399,7 +3413,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3427,7 +3441,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3455,7 +3469,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3483,7 +3497,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3511,7 +3525,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3539,7 +3553,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3567,7 +3581,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3595,7 +3609,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3623,7 +3637,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3651,7 +3665,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3679,7 +3693,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3707,7 +3721,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3735,7 +3749,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3763,7 +3777,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3791,7 +3805,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3819,7 +3833,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3847,7 +3861,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3875,7 +3889,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3903,7 +3917,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3931,7 +3945,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3959,7 +3973,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3987,7 +4001,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4015,7 +4029,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4043,7 +4057,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4071,7 +4085,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4099,7 +4113,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4127,7 +4141,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4155,7 +4169,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4183,7 +4197,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4211,7 +4225,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4239,7 +4253,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4267,7 +4281,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4295,7 +4309,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4323,7 +4337,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4351,7 +4365,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4379,7 +4393,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4407,7 +4421,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4435,7 +4449,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4463,7 +4477,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4491,7 +4505,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4519,7 +4533,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4547,7 +4561,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4575,7 +4589,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4603,7 +4617,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4631,7 +4645,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4659,7 +4673,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4687,7 +4701,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4715,7 +4729,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4743,7 +4757,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4771,7 +4785,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4799,7 +4813,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4827,7 +4841,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4855,7 +4869,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4883,7 +4897,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4911,7 +4925,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4939,7 +4953,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4967,7 +4981,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4995,7 +5009,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5023,7 +5037,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5051,7 +5065,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5079,7 +5093,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5107,7 +5121,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5135,7 +5149,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5163,7 +5177,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5191,7 +5205,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5219,7 +5233,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5247,7 +5261,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5275,7 +5289,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5303,7 +5317,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5331,7 +5345,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5359,7 +5373,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5387,7 +5401,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5415,7 +5429,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5443,7 +5457,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5471,7 +5485,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5499,7 +5513,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5527,7 +5541,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5555,7 +5569,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5583,7 +5597,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5611,7 +5625,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5639,7 +5653,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5667,7 +5681,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5695,7 +5709,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5723,7 +5737,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5751,7 +5765,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5779,7 +5793,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5807,7 +5821,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5835,7 +5849,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5863,7 +5877,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5891,7 +5905,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5919,7 +5933,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5947,7 +5961,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5975,7 +5989,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6003,7 +6017,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6031,7 +6045,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6059,7 +6073,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6087,7 +6101,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6115,7 +6129,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6143,7 +6157,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6171,7 +6185,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6199,7 +6213,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6227,7 +6241,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6255,7 +6269,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6283,7 +6297,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6311,7 +6325,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6339,7 +6353,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6367,7 +6381,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6395,7 +6409,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6423,7 +6437,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6451,7 +6465,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6479,7 +6493,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6507,7 +6521,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6535,7 +6549,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6563,7 +6577,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6591,7 +6605,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6619,7 +6633,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6647,7 +6661,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6675,7 +6689,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6703,7 +6717,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6731,7 +6745,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6759,7 +6773,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6787,7 +6801,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6815,7 +6829,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6843,7 +6857,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6871,7 +6885,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6899,7 +6913,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6927,7 +6941,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6955,7 +6969,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6983,7 +6997,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7011,7 +7025,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7039,7 +7053,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7067,7 +7081,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7095,7 +7109,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7123,7 +7137,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7151,7 +7165,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7179,7 +7193,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7207,7 +7221,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7235,7 +7249,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7263,7 +7277,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7291,7 +7305,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7319,7 +7333,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -7347,7 +7361,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -7375,7 +7389,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7403,7 +7417,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -7431,7 +7445,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -7459,7 +7473,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -7487,7 +7501,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -7515,7 +7529,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -7543,7 +7557,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -7571,7 +7585,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -7599,7 +7613,7 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -7627,7 +7641,7 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -7655,7 +7669,7 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -7683,7 +7697,7 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -7711,7 +7725,7 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -7739,7 +7753,7 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -7767,7 +7781,7 @@
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
     </row>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -7795,7 +7809,7 @@
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
     </row>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -7823,7 +7837,7 @@
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
     </row>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -7851,7 +7865,7 @@
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
     </row>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -7879,7 +7893,7 @@
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
     </row>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -7907,7 +7921,7 @@
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
     </row>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -7935,7 +7949,7 @@
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
     </row>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -7963,7 +7977,7 @@
       <c r="Y268" s="1"/>
       <c r="Z268" s="1"/>
     </row>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -7991,7 +8005,7 @@
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
     </row>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -8019,7 +8033,7 @@
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
     </row>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -8047,7 +8061,7 @@
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
     </row>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -8075,7 +8089,7 @@
       <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
     </row>
-    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -8103,7 +8117,7 @@
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
     </row>
-    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -8131,7 +8145,7 @@
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
     </row>
-    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -8159,7 +8173,7 @@
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
     </row>
-    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -8187,7 +8201,7 @@
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
     </row>
-    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -8215,7 +8229,7 @@
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
     </row>
-    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -8243,7 +8257,7 @@
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
     </row>
-    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -8271,7 +8285,7 @@
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
     </row>
-    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -8299,7 +8313,7 @@
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
     </row>
-    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -8327,7 +8341,7 @@
       <c r="Y281" s="1"/>
       <c r="Z281" s="1"/>
     </row>
-    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -8355,7 +8369,7 @@
       <c r="Y282" s="1"/>
       <c r="Z282" s="1"/>
     </row>
-    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -8383,7 +8397,7 @@
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
     </row>
-    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8411,7 +8425,7 @@
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
     </row>
-    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -8439,7 +8453,7 @@
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
     </row>
-    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -8467,7 +8481,7 @@
       <c r="Y286" s="1"/>
       <c r="Z286" s="1"/>
     </row>
-    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -8495,7 +8509,7 @@
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
     </row>
-    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -8523,7 +8537,7 @@
       <c r="Y288" s="1"/>
       <c r="Z288" s="1"/>
     </row>
-    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -8551,7 +8565,7 @@
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
     </row>
-    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -8579,7 +8593,7 @@
       <c r="Y290" s="1"/>
       <c r="Z290" s="1"/>
     </row>
-    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -8607,7 +8621,7 @@
       <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
     </row>
-    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -8635,7 +8649,7 @@
       <c r="Y292" s="1"/>
       <c r="Z292" s="1"/>
     </row>
-    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -8663,7 +8677,7 @@
       <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
     </row>
-    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -8691,7 +8705,7 @@
       <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
     </row>
-    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -8719,7 +8733,7 @@
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
     </row>
-    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -8747,7 +8761,7 @@
       <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
     </row>
-    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -8775,7 +8789,7 @@
       <c r="Y297" s="1"/>
       <c r="Z297" s="1"/>
     </row>
-    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -8803,7 +8817,7 @@
       <c r="Y298" s="1"/>
       <c r="Z298" s="1"/>
     </row>
-    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -8831,7 +8845,7 @@
       <c r="Y299" s="1"/>
       <c r="Z299" s="1"/>
     </row>
-    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -8859,7 +8873,7 @@
       <c r="Y300" s="1"/>
       <c r="Z300" s="1"/>
     </row>
-    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -8887,7 +8901,7 @@
       <c r="Y301" s="1"/>
       <c r="Z301" s="1"/>
     </row>
-    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -8915,7 +8929,7 @@
       <c r="Y302" s="1"/>
       <c r="Z302" s="1"/>
     </row>
-    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -8943,7 +8957,7 @@
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
     </row>
-    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -8971,7 +8985,7 @@
       <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
     </row>
-    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -8999,7 +9013,7 @@
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
     </row>
-    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9027,7 +9041,7 @@
       <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
     </row>
-    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -9055,7 +9069,7 @@
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
     </row>
-    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -9083,7 +9097,7 @@
       <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
     </row>
-    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -9111,7 +9125,7 @@
       <c r="Y309" s="1"/>
       <c r="Z309" s="1"/>
     </row>
-    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -9139,7 +9153,7 @@
       <c r="Y310" s="1"/>
       <c r="Z310" s="1"/>
     </row>
-    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -9167,7 +9181,7 @@
       <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
     </row>
-    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -9195,7 +9209,7 @@
       <c r="Y312" s="1"/>
       <c r="Z312" s="1"/>
     </row>
-    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -9223,7 +9237,7 @@
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
     </row>
-    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -9251,7 +9265,7 @@
       <c r="Y314" s="1"/>
       <c r="Z314" s="1"/>
     </row>
-    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -9279,7 +9293,7 @@
       <c r="Y315" s="1"/>
       <c r="Z315" s="1"/>
     </row>
-    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -9307,7 +9321,7 @@
       <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
     </row>
-    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -9335,7 +9349,7 @@
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
     </row>
-    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -9363,7 +9377,7 @@
       <c r="Y318" s="1"/>
       <c r="Z318" s="1"/>
     </row>
-    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -9391,7 +9405,7 @@
       <c r="Y319" s="1"/>
       <c r="Z319" s="1"/>
     </row>
-    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -9419,7 +9433,7 @@
       <c r="Y320" s="1"/>
       <c r="Z320" s="1"/>
     </row>
-    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9447,7 +9461,7 @@
       <c r="Y321" s="1"/>
       <c r="Z321" s="1"/>
     </row>
-    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9475,7 +9489,7 @@
       <c r="Y322" s="1"/>
       <c r="Z322" s="1"/>
     </row>
-    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9503,7 +9517,7 @@
       <c r="Y323" s="1"/>
       <c r="Z323" s="1"/>
     </row>
-    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9531,7 +9545,7 @@
       <c r="Y324" s="1"/>
       <c r="Z324" s="1"/>
     </row>
-    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -9559,7 +9573,7 @@
       <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
     </row>
-    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -9587,7 +9601,7 @@
       <c r="Y326" s="1"/>
       <c r="Z326" s="1"/>
     </row>
-    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -9615,7 +9629,7 @@
       <c r="Y327" s="1"/>
       <c r="Z327" s="1"/>
     </row>
-    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -9643,7 +9657,7 @@
       <c r="Y328" s="1"/>
       <c r="Z328" s="1"/>
     </row>
-    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -9671,7 +9685,7 @@
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
     </row>
-    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -9699,7 +9713,7 @@
       <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
     </row>
-    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -9727,7 +9741,7 @@
       <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
     </row>
-    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -9755,7 +9769,7 @@
       <c r="Y332" s="1"/>
       <c r="Z332" s="1"/>
     </row>
-    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -9783,7 +9797,7 @@
       <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
     </row>
-    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -9811,7 +9825,7 @@
       <c r="Y334" s="1"/>
       <c r="Z334" s="1"/>
     </row>
-    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -9839,7 +9853,7 @@
       <c r="Y335" s="1"/>
       <c r="Z335" s="1"/>
     </row>
-    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -9867,7 +9881,7 @@
       <c r="Y336" s="1"/>
       <c r="Z336" s="1"/>
     </row>
-    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -9895,7 +9909,7 @@
       <c r="Y337" s="1"/>
       <c r="Z337" s="1"/>
     </row>
-    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -9923,7 +9937,7 @@
       <c r="Y338" s="1"/>
       <c r="Z338" s="1"/>
     </row>
-    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -9951,7 +9965,7 @@
       <c r="Y339" s="1"/>
       <c r="Z339" s="1"/>
     </row>
-    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -9979,7 +9993,7 @@
       <c r="Y340" s="1"/>
       <c r="Z340" s="1"/>
     </row>
-    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10007,7 +10021,7 @@
       <c r="Y341" s="1"/>
       <c r="Z341" s="1"/>
     </row>
-    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10035,7 +10049,7 @@
       <c r="Y342" s="1"/>
       <c r="Z342" s="1"/>
     </row>
-    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10063,7 +10077,7 @@
       <c r="Y343" s="1"/>
       <c r="Z343" s="1"/>
     </row>
-    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10091,7 +10105,7 @@
       <c r="Y344" s="1"/>
       <c r="Z344" s="1"/>
     </row>
-    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10119,7 +10133,7 @@
       <c r="Y345" s="1"/>
       <c r="Z345" s="1"/>
     </row>
-    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10147,7 +10161,7 @@
       <c r="Y346" s="1"/>
       <c r="Z346" s="1"/>
     </row>
-    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10175,7 +10189,7 @@
       <c r="Y347" s="1"/>
       <c r="Z347" s="1"/>
     </row>
-    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10203,7 +10217,7 @@
       <c r="Y348" s="1"/>
       <c r="Z348" s="1"/>
     </row>
-    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10231,7 +10245,7 @@
       <c r="Y349" s="1"/>
       <c r="Z349" s="1"/>
     </row>
-    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10259,7 +10273,7 @@
       <c r="Y350" s="1"/>
       <c r="Z350" s="1"/>
     </row>
-    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10287,7 +10301,7 @@
       <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
     </row>
-    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -10315,7 +10329,7 @@
       <c r="Y352" s="1"/>
       <c r="Z352" s="1"/>
     </row>
-    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -10343,7 +10357,7 @@
       <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
     </row>
-    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -10371,7 +10385,7 @@
       <c r="Y354" s="1"/>
       <c r="Z354" s="1"/>
     </row>
-    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -10399,7 +10413,7 @@
       <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
     </row>
-    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -10427,7 +10441,7 @@
       <c r="Y356" s="1"/>
       <c r="Z356" s="1"/>
     </row>
-    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -10455,7 +10469,7 @@
       <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
     </row>
-    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -10483,7 +10497,7 @@
       <c r="Y358" s="1"/>
       <c r="Z358" s="1"/>
     </row>
-    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -10511,7 +10525,7 @@
       <c r="Y359" s="1"/>
       <c r="Z359" s="1"/>
     </row>
-    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -10539,7 +10553,7 @@
       <c r="Y360" s="1"/>
       <c r="Z360" s="1"/>
     </row>
-    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -10567,7 +10581,7 @@
       <c r="Y361" s="1"/>
       <c r="Z361" s="1"/>
     </row>
-    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -10595,7 +10609,7 @@
       <c r="Y362" s="1"/>
       <c r="Z362" s="1"/>
     </row>
-    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -10623,7 +10637,7 @@
       <c r="Y363" s="1"/>
       <c r="Z363" s="1"/>
     </row>
-    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -10651,7 +10665,7 @@
       <c r="Y364" s="1"/>
       <c r="Z364" s="1"/>
     </row>
-    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -10679,7 +10693,7 @@
       <c r="Y365" s="1"/>
       <c r="Z365" s="1"/>
     </row>
-    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -10707,7 +10721,7 @@
       <c r="Y366" s="1"/>
       <c r="Z366" s="1"/>
     </row>
-    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -10735,7 +10749,7 @@
       <c r="Y367" s="1"/>
       <c r="Z367" s="1"/>
     </row>
-    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -10763,7 +10777,7 @@
       <c r="Y368" s="1"/>
       <c r="Z368" s="1"/>
     </row>
-    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -10791,7 +10805,7 @@
       <c r="Y369" s="1"/>
       <c r="Z369" s="1"/>
     </row>
-    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -10819,7 +10833,7 @@
       <c r="Y370" s="1"/>
       <c r="Z370" s="1"/>
     </row>
-    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -10847,7 +10861,7 @@
       <c r="Y371" s="1"/>
       <c r="Z371" s="1"/>
     </row>
-    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -10875,7 +10889,7 @@
       <c r="Y372" s="1"/>
       <c r="Z372" s="1"/>
     </row>
-    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -10903,7 +10917,7 @@
       <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
     </row>
-    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -10931,7 +10945,7 @@
       <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
     </row>
-    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -10959,7 +10973,7 @@
       <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
     </row>
-    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -10987,7 +11001,7 @@
       <c r="Y376" s="1"/>
       <c r="Z376" s="1"/>
     </row>
-    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11015,7 +11029,7 @@
       <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
     </row>
-    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11043,7 +11057,7 @@
       <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
     </row>
-    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11071,7 +11085,7 @@
       <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
     </row>
-    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11099,7 +11113,7 @@
       <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
     </row>
-    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -11127,7 +11141,7 @@
       <c r="Y381" s="1"/>
       <c r="Z381" s="1"/>
     </row>
-    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -11155,7 +11169,7 @@
       <c r="Y382" s="1"/>
       <c r="Z382" s="1"/>
     </row>
-    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -11183,7 +11197,7 @@
       <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
     </row>
-    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -11211,7 +11225,7 @@
       <c r="Y384" s="1"/>
       <c r="Z384" s="1"/>
     </row>
-    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -11239,7 +11253,7 @@
       <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
     </row>
-    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -11267,7 +11281,7 @@
       <c r="Y386" s="1"/>
       <c r="Z386" s="1"/>
     </row>
-    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -11295,7 +11309,7 @@
       <c r="Y387" s="1"/>
       <c r="Z387" s="1"/>
     </row>
-    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -11323,7 +11337,7 @@
       <c r="Y388" s="1"/>
       <c r="Z388" s="1"/>
     </row>
-    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -11351,7 +11365,7 @@
       <c r="Y389" s="1"/>
       <c r="Z389" s="1"/>
     </row>
-    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11379,7 +11393,7 @@
       <c r="Y390" s="1"/>
       <c r="Z390" s="1"/>
     </row>
-    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -11407,7 +11421,7 @@
       <c r="Y391" s="1"/>
       <c r="Z391" s="1"/>
     </row>
-    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -11435,7 +11449,7 @@
       <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
     </row>
-    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -11463,7 +11477,7 @@
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
     </row>
-    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -11491,7 +11505,7 @@
       <c r="Y394" s="1"/>
       <c r="Z394" s="1"/>
     </row>
-    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -11519,7 +11533,7 @@
       <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
     </row>
-    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -11547,7 +11561,7 @@
       <c r="Y396" s="1"/>
       <c r="Z396" s="1"/>
     </row>
-    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -11575,7 +11589,7 @@
       <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
     </row>
-    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -11603,7 +11617,7 @@
       <c r="Y398" s="1"/>
       <c r="Z398" s="1"/>
     </row>
-    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -11631,7 +11645,7 @@
       <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
     </row>
-    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -11659,7 +11673,7 @@
       <c r="Y400" s="1"/>
       <c r="Z400" s="1"/>
     </row>
-    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -11687,7 +11701,7 @@
       <c r="Y401" s="1"/>
       <c r="Z401" s="1"/>
     </row>
-    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -11715,7 +11729,7 @@
       <c r="Y402" s="1"/>
       <c r="Z402" s="1"/>
     </row>
-    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -11743,7 +11757,7 @@
       <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
     </row>
-    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -11771,7 +11785,7 @@
       <c r="Y404" s="1"/>
       <c r="Z404" s="1"/>
     </row>
-    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -11799,7 +11813,7 @@
       <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
     </row>
-    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -11827,7 +11841,7 @@
       <c r="Y406" s="1"/>
       <c r="Z406" s="1"/>
     </row>
-    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -11855,7 +11869,7 @@
       <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
     </row>
-    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -11883,7 +11897,7 @@
       <c r="Y408" s="1"/>
       <c r="Z408" s="1"/>
     </row>
-    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -11911,7 +11925,7 @@
       <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
     </row>
-    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -11939,7 +11953,7 @@
       <c r="Y410" s="1"/>
       <c r="Z410" s="1"/>
     </row>
-    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -11967,7 +11981,7 @@
       <c r="Y411" s="1"/>
       <c r="Z411" s="1"/>
     </row>
-    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -11995,7 +12009,7 @@
       <c r="Y412" s="1"/>
       <c r="Z412" s="1"/>
     </row>
-    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -12023,7 +12037,7 @@
       <c r="Y413" s="1"/>
       <c r="Z413" s="1"/>
     </row>
-    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -12051,7 +12065,7 @@
       <c r="Y414" s="1"/>
       <c r="Z414" s="1"/>
     </row>
-    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -12079,7 +12093,7 @@
       <c r="Y415" s="1"/>
       <c r="Z415" s="1"/>
     </row>
-    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -12107,7 +12121,7 @@
       <c r="Y416" s="1"/>
       <c r="Z416" s="1"/>
     </row>
-    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -12135,7 +12149,7 @@
       <c r="Y417" s="1"/>
       <c r="Z417" s="1"/>
     </row>
-    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -12163,7 +12177,7 @@
       <c r="Y418" s="1"/>
       <c r="Z418" s="1"/>
     </row>
-    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -12191,7 +12205,7 @@
       <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
     </row>
-    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -12219,7 +12233,7 @@
       <c r="Y420" s="1"/>
       <c r="Z420" s="1"/>
     </row>
-    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -12247,7 +12261,7 @@
       <c r="Y421" s="1"/>
       <c r="Z421" s="1"/>
     </row>
-    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -12275,7 +12289,7 @@
       <c r="Y422" s="1"/>
       <c r="Z422" s="1"/>
     </row>
-    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -12303,7 +12317,7 @@
       <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
     </row>
-    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -12331,7 +12345,7 @@
       <c r="Y424" s="1"/>
       <c r="Z424" s="1"/>
     </row>
-    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -12359,7 +12373,7 @@
       <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
     </row>
-    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -12387,7 +12401,7 @@
       <c r="Y426" s="1"/>
       <c r="Z426" s="1"/>
     </row>
-    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -12415,7 +12429,7 @@
       <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
     </row>
-    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -12443,7 +12457,7 @@
       <c r="Y428" s="1"/>
       <c r="Z428" s="1"/>
     </row>
-    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -12471,7 +12485,7 @@
       <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
     </row>
-    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -12499,7 +12513,7 @@
       <c r="Y430" s="1"/>
       <c r="Z430" s="1"/>
     </row>
-    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -12527,7 +12541,7 @@
       <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
     </row>
-    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -12555,7 +12569,7 @@
       <c r="Y432" s="1"/>
       <c r="Z432" s="1"/>
     </row>
-    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -12583,7 +12597,7 @@
       <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
     </row>
-    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -12611,7 +12625,7 @@
       <c r="Y434" s="1"/>
       <c r="Z434" s="1"/>
     </row>
-    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -12639,7 +12653,7 @@
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
     </row>
-    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -12667,7 +12681,7 @@
       <c r="Y436" s="1"/>
       <c r="Z436" s="1"/>
     </row>
-    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -12695,7 +12709,7 @@
       <c r="Y437" s="1"/>
       <c r="Z437" s="1"/>
     </row>
-    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -12723,7 +12737,7 @@
       <c r="Y438" s="1"/>
       <c r="Z438" s="1"/>
     </row>
-    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -12751,7 +12765,7 @@
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
     </row>
-    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -12779,7 +12793,7 @@
       <c r="Y440" s="1"/>
       <c r="Z440" s="1"/>
     </row>
-    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -12807,7 +12821,7 @@
       <c r="Y441" s="1"/>
       <c r="Z441" s="1"/>
     </row>
-    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -12835,7 +12849,7 @@
       <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
     </row>
-    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -12863,7 +12877,7 @@
       <c r="Y443" s="1"/>
       <c r="Z443" s="1"/>
     </row>
-    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -12891,7 +12905,7 @@
       <c r="Y444" s="1"/>
       <c r="Z444" s="1"/>
     </row>
-    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -12919,7 +12933,7 @@
       <c r="Y445" s="1"/>
       <c r="Z445" s="1"/>
     </row>
-    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -12947,7 +12961,7 @@
       <c r="Y446" s="1"/>
       <c r="Z446" s="1"/>
     </row>
-    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -12975,7 +12989,7 @@
       <c r="Y447" s="1"/>
       <c r="Z447" s="1"/>
     </row>
-    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -13003,7 +13017,7 @@
       <c r="Y448" s="1"/>
       <c r="Z448" s="1"/>
     </row>
-    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -13031,7 +13045,7 @@
       <c r="Y449" s="1"/>
       <c r="Z449" s="1"/>
     </row>
-    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -13059,7 +13073,7 @@
       <c r="Y450" s="1"/>
       <c r="Z450" s="1"/>
     </row>
-    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -13087,7 +13101,7 @@
       <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
     </row>
-    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -13115,7 +13129,7 @@
       <c r="Y452" s="1"/>
       <c r="Z452" s="1"/>
     </row>
-    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -13143,7 +13157,7 @@
       <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
     </row>
-    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -13171,7 +13185,7 @@
       <c r="Y454" s="1"/>
       <c r="Z454" s="1"/>
     </row>
-    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -13199,7 +13213,7 @@
       <c r="Y455" s="1"/>
       <c r="Z455" s="1"/>
     </row>
-    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -13227,7 +13241,7 @@
       <c r="Y456" s="1"/>
       <c r="Z456" s="1"/>
     </row>
-    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -13255,7 +13269,7 @@
       <c r="Y457" s="1"/>
       <c r="Z457" s="1"/>
     </row>
-    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -13283,7 +13297,7 @@
       <c r="Y458" s="1"/>
       <c r="Z458" s="1"/>
     </row>
-    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -13311,7 +13325,7 @@
       <c r="Y459" s="1"/>
       <c r="Z459" s="1"/>
     </row>
-    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -13339,7 +13353,7 @@
       <c r="Y460" s="1"/>
       <c r="Z460" s="1"/>
     </row>
-    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -13367,7 +13381,7 @@
       <c r="Y461" s="1"/>
       <c r="Z461" s="1"/>
     </row>
-    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -13395,7 +13409,7 @@
       <c r="Y462" s="1"/>
       <c r="Z462" s="1"/>
     </row>
-    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -13423,7 +13437,7 @@
       <c r="Y463" s="1"/>
       <c r="Z463" s="1"/>
     </row>
-    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -13451,7 +13465,7 @@
       <c r="Y464" s="1"/>
       <c r="Z464" s="1"/>
     </row>
-    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -13479,7 +13493,7 @@
       <c r="Y465" s="1"/>
       <c r="Z465" s="1"/>
     </row>
-    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -13507,7 +13521,7 @@
       <c r="Y466" s="1"/>
       <c r="Z466" s="1"/>
     </row>
-    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -13535,7 +13549,7 @@
       <c r="Y467" s="1"/>
       <c r="Z467" s="1"/>
     </row>
-    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -13563,7 +13577,7 @@
       <c r="Y468" s="1"/>
       <c r="Z468" s="1"/>
     </row>
-    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -13591,7 +13605,7 @@
       <c r="Y469" s="1"/>
       <c r="Z469" s="1"/>
     </row>
-    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -13619,7 +13633,7 @@
       <c r="Y470" s="1"/>
       <c r="Z470" s="1"/>
     </row>
-    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -13647,7 +13661,7 @@
       <c r="Y471" s="1"/>
       <c r="Z471" s="1"/>
     </row>
-    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -13675,7 +13689,7 @@
       <c r="Y472" s="1"/>
       <c r="Z472" s="1"/>
     </row>
-    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -13703,7 +13717,7 @@
       <c r="Y473" s="1"/>
       <c r="Z473" s="1"/>
     </row>
-    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -13731,7 +13745,7 @@
       <c r="Y474" s="1"/>
       <c r="Z474" s="1"/>
     </row>
-    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -13759,7 +13773,7 @@
       <c r="Y475" s="1"/>
       <c r="Z475" s="1"/>
     </row>
-    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -13787,7 +13801,7 @@
       <c r="Y476" s="1"/>
       <c r="Z476" s="1"/>
     </row>
-    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -13815,7 +13829,7 @@
       <c r="Y477" s="1"/>
       <c r="Z477" s="1"/>
     </row>
-    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -13843,7 +13857,7 @@
       <c r="Y478" s="1"/>
       <c r="Z478" s="1"/>
     </row>
-    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -13871,7 +13885,7 @@
       <c r="Y479" s="1"/>
       <c r="Z479" s="1"/>
     </row>
-    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -13899,7 +13913,7 @@
       <c r="Y480" s="1"/>
       <c r="Z480" s="1"/>
     </row>
-    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -13927,7 +13941,7 @@
       <c r="Y481" s="1"/>
       <c r="Z481" s="1"/>
     </row>
-    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -13955,7 +13969,7 @@
       <c r="Y482" s="1"/>
       <c r="Z482" s="1"/>
     </row>
-    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -13983,7 +13997,7 @@
       <c r="Y483" s="1"/>
       <c r="Z483" s="1"/>
     </row>
-    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -14011,7 +14025,7 @@
       <c r="Y484" s="1"/>
       <c r="Z484" s="1"/>
     </row>
-    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -14039,7 +14053,7 @@
       <c r="Y485" s="1"/>
       <c r="Z485" s="1"/>
     </row>
-    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -14067,7 +14081,7 @@
       <c r="Y486" s="1"/>
       <c r="Z486" s="1"/>
     </row>
-    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -14095,7 +14109,7 @@
       <c r="Y487" s="1"/>
       <c r="Z487" s="1"/>
     </row>
-    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -14123,7 +14137,7 @@
       <c r="Y488" s="1"/>
       <c r="Z488" s="1"/>
     </row>
-    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -14151,7 +14165,7 @@
       <c r="Y489" s="1"/>
       <c r="Z489" s="1"/>
     </row>
-    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -14179,7 +14193,7 @@
       <c r="Y490" s="1"/>
       <c r="Z490" s="1"/>
     </row>
-    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -14207,7 +14221,7 @@
       <c r="Y491" s="1"/>
       <c r="Z491" s="1"/>
     </row>
-    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -14235,7 +14249,7 @@
       <c r="Y492" s="1"/>
       <c r="Z492" s="1"/>
     </row>
-    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -14263,7 +14277,7 @@
       <c r="Y493" s="1"/>
       <c r="Z493" s="1"/>
     </row>
-    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -14291,7 +14305,7 @@
       <c r="Y494" s="1"/>
       <c r="Z494" s="1"/>
     </row>
-    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -14319,7 +14333,7 @@
       <c r="Y495" s="1"/>
       <c r="Z495" s="1"/>
     </row>
-    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -14347,7 +14361,7 @@
       <c r="Y496" s="1"/>
       <c r="Z496" s="1"/>
     </row>
-    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -14375,7 +14389,7 @@
       <c r="Y497" s="1"/>
       <c r="Z497" s="1"/>
     </row>
-    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -14403,7 +14417,7 @@
       <c r="Y498" s="1"/>
       <c r="Z498" s="1"/>
     </row>
-    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -14431,7 +14445,7 @@
       <c r="Y499" s="1"/>
       <c r="Z499" s="1"/>
     </row>
-    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -14459,7 +14473,7 @@
       <c r="Y500" s="1"/>
       <c r="Z500" s="1"/>
     </row>
-    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -14487,7 +14501,7 @@
       <c r="Y501" s="1"/>
       <c r="Z501" s="1"/>
     </row>
-    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -14515,7 +14529,7 @@
       <c r="Y502" s="1"/>
       <c r="Z502" s="1"/>
     </row>
-    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -14543,7 +14557,7 @@
       <c r="Y503" s="1"/>
       <c r="Z503" s="1"/>
     </row>
-    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -14571,7 +14585,7 @@
       <c r="Y504" s="1"/>
       <c r="Z504" s="1"/>
     </row>
-    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -14599,7 +14613,7 @@
       <c r="Y505" s="1"/>
       <c r="Z505" s="1"/>
     </row>
-    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -14627,7 +14641,7 @@
       <c r="Y506" s="1"/>
       <c r="Z506" s="1"/>
     </row>
-    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -14655,7 +14669,7 @@
       <c r="Y507" s="1"/>
       <c r="Z507" s="1"/>
     </row>
-    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -14683,7 +14697,7 @@
       <c r="Y508" s="1"/>
       <c r="Z508" s="1"/>
     </row>
-    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -14711,7 +14725,7 @@
       <c r="Y509" s="1"/>
       <c r="Z509" s="1"/>
     </row>
-    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -14739,7 +14753,7 @@
       <c r="Y510" s="1"/>
       <c r="Z510" s="1"/>
     </row>
-    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -14767,7 +14781,7 @@
       <c r="Y511" s="1"/>
       <c r="Z511" s="1"/>
     </row>
-    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -14795,7 +14809,7 @@
       <c r="Y512" s="1"/>
       <c r="Z512" s="1"/>
     </row>
-    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -14823,7 +14837,7 @@
       <c r="Y513" s="1"/>
       <c r="Z513" s="1"/>
     </row>
-    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -14851,7 +14865,7 @@
       <c r="Y514" s="1"/>
       <c r="Z514" s="1"/>
     </row>
-    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -14879,7 +14893,7 @@
       <c r="Y515" s="1"/>
       <c r="Z515" s="1"/>
     </row>
-    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -14907,7 +14921,7 @@
       <c r="Y516" s="1"/>
       <c r="Z516" s="1"/>
     </row>
-    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -14935,7 +14949,7 @@
       <c r="Y517" s="1"/>
       <c r="Z517" s="1"/>
     </row>
-    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -14963,7 +14977,7 @@
       <c r="Y518" s="1"/>
       <c r="Z518" s="1"/>
     </row>
-    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -14991,7 +15005,7 @@
       <c r="Y519" s="1"/>
       <c r="Z519" s="1"/>
     </row>
-    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -15019,7 +15033,7 @@
       <c r="Y520" s="1"/>
       <c r="Z520" s="1"/>
     </row>
-    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -15047,7 +15061,7 @@
       <c r="Y521" s="1"/>
       <c r="Z521" s="1"/>
     </row>
-    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -15075,7 +15089,7 @@
       <c r="Y522" s="1"/>
       <c r="Z522" s="1"/>
     </row>
-    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -15103,7 +15117,7 @@
       <c r="Y523" s="1"/>
       <c r="Z523" s="1"/>
     </row>
-    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -15131,7 +15145,7 @@
       <c r="Y524" s="1"/>
       <c r="Z524" s="1"/>
     </row>
-    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -15159,7 +15173,7 @@
       <c r="Y525" s="1"/>
       <c r="Z525" s="1"/>
     </row>
-    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -15187,7 +15201,7 @@
       <c r="Y526" s="1"/>
       <c r="Z526" s="1"/>
     </row>
-    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -15215,7 +15229,7 @@
       <c r="Y527" s="1"/>
       <c r="Z527" s="1"/>
     </row>
-    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -15243,7 +15257,7 @@
       <c r="Y528" s="1"/>
       <c r="Z528" s="1"/>
     </row>
-    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -15271,7 +15285,7 @@
       <c r="Y529" s="1"/>
       <c r="Z529" s="1"/>
     </row>
-    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -15299,7 +15313,7 @@
       <c r="Y530" s="1"/>
       <c r="Z530" s="1"/>
     </row>
-    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -15327,7 +15341,7 @@
       <c r="Y531" s="1"/>
       <c r="Z531" s="1"/>
     </row>
-    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -15355,7 +15369,7 @@
       <c r="Y532" s="1"/>
       <c r="Z532" s="1"/>
     </row>
-    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -15383,7 +15397,7 @@
       <c r="Y533" s="1"/>
       <c r="Z533" s="1"/>
     </row>
-    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -15411,7 +15425,7 @@
       <c r="Y534" s="1"/>
       <c r="Z534" s="1"/>
     </row>
-    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -15439,7 +15453,7 @@
       <c r="Y535" s="1"/>
       <c r="Z535" s="1"/>
     </row>
-    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -15467,7 +15481,7 @@
       <c r="Y536" s="1"/>
       <c r="Z536" s="1"/>
     </row>
-    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -15495,7 +15509,7 @@
       <c r="Y537" s="1"/>
       <c r="Z537" s="1"/>
     </row>
-    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -15523,7 +15537,7 @@
       <c r="Y538" s="1"/>
       <c r="Z538" s="1"/>
     </row>
-    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -15551,7 +15565,7 @@
       <c r="Y539" s="1"/>
       <c r="Z539" s="1"/>
     </row>
-    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -15579,7 +15593,7 @@
       <c r="Y540" s="1"/>
       <c r="Z540" s="1"/>
     </row>
-    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -15607,7 +15621,7 @@
       <c r="Y541" s="1"/>
       <c r="Z541" s="1"/>
     </row>
-    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -15635,7 +15649,7 @@
       <c r="Y542" s="1"/>
       <c r="Z542" s="1"/>
     </row>
-    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -15663,7 +15677,7 @@
       <c r="Y543" s="1"/>
       <c r="Z543" s="1"/>
     </row>
-    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -15691,7 +15705,7 @@
       <c r="Y544" s="1"/>
       <c r="Z544" s="1"/>
     </row>
-    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -15719,7 +15733,7 @@
       <c r="Y545" s="1"/>
       <c r="Z545" s="1"/>
     </row>
-    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -15747,7 +15761,7 @@
       <c r="Y546" s="1"/>
       <c r="Z546" s="1"/>
     </row>
-    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -15775,7 +15789,7 @@
       <c r="Y547" s="1"/>
       <c r="Z547" s="1"/>
     </row>
-    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -15803,7 +15817,7 @@
       <c r="Y548" s="1"/>
       <c r="Z548" s="1"/>
     </row>
-    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -15831,7 +15845,7 @@
       <c r="Y549" s="1"/>
       <c r="Z549" s="1"/>
     </row>
-    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -15859,7 +15873,7 @@
       <c r="Y550" s="1"/>
       <c r="Z550" s="1"/>
     </row>
-    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -15887,7 +15901,7 @@
       <c r="Y551" s="1"/>
       <c r="Z551" s="1"/>
     </row>
-    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -15915,7 +15929,7 @@
       <c r="Y552" s="1"/>
       <c r="Z552" s="1"/>
     </row>
-    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -15943,7 +15957,7 @@
       <c r="Y553" s="1"/>
       <c r="Z553" s="1"/>
     </row>
-    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -15971,7 +15985,7 @@
       <c r="Y554" s="1"/>
       <c r="Z554" s="1"/>
     </row>
-    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -15999,7 +16013,7 @@
       <c r="Y555" s="1"/>
       <c r="Z555" s="1"/>
     </row>
-    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -16027,7 +16041,7 @@
       <c r="Y556" s="1"/>
       <c r="Z556" s="1"/>
     </row>
-    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -16055,7 +16069,7 @@
       <c r="Y557" s="1"/>
       <c r="Z557" s="1"/>
     </row>
-    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -16083,7 +16097,7 @@
       <c r="Y558" s="1"/>
       <c r="Z558" s="1"/>
     </row>
-    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -16111,7 +16125,7 @@
       <c r="Y559" s="1"/>
       <c r="Z559" s="1"/>
     </row>
-    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -16139,7 +16153,7 @@
       <c r="Y560" s="1"/>
       <c r="Z560" s="1"/>
     </row>
-    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -16167,7 +16181,7 @@
       <c r="Y561" s="1"/>
       <c r="Z561" s="1"/>
     </row>
-    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -16195,7 +16209,7 @@
       <c r="Y562" s="1"/>
       <c r="Z562" s="1"/>
     </row>
-    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -16223,7 +16237,7 @@
       <c r="Y563" s="1"/>
       <c r="Z563" s="1"/>
     </row>
-    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -16251,7 +16265,7 @@
       <c r="Y564" s="1"/>
       <c r="Z564" s="1"/>
     </row>
-    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -16279,7 +16293,7 @@
       <c r="Y565" s="1"/>
       <c r="Z565" s="1"/>
     </row>
-    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -16307,7 +16321,7 @@
       <c r="Y566" s="1"/>
       <c r="Z566" s="1"/>
     </row>
-    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -16335,7 +16349,7 @@
       <c r="Y567" s="1"/>
       <c r="Z567" s="1"/>
     </row>
-    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -16363,7 +16377,7 @@
       <c r="Y568" s="1"/>
       <c r="Z568" s="1"/>
     </row>
-    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -16391,7 +16405,7 @@
       <c r="Y569" s="1"/>
       <c r="Z569" s="1"/>
     </row>
-    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -16419,7 +16433,7 @@
       <c r="Y570" s="1"/>
       <c r="Z570" s="1"/>
     </row>
-    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -16447,7 +16461,7 @@
       <c r="Y571" s="1"/>
       <c r="Z571" s="1"/>
     </row>
-    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -16475,7 +16489,7 @@
       <c r="Y572" s="1"/>
       <c r="Z572" s="1"/>
     </row>
-    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -16503,7 +16517,7 @@
       <c r="Y573" s="1"/>
       <c r="Z573" s="1"/>
     </row>
-    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -16531,7 +16545,7 @@
       <c r="Y574" s="1"/>
       <c r="Z574" s="1"/>
     </row>
-    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -16559,7 +16573,7 @@
       <c r="Y575" s="1"/>
       <c r="Z575" s="1"/>
     </row>
-    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -16587,7 +16601,7 @@
       <c r="Y576" s="1"/>
       <c r="Z576" s="1"/>
     </row>
-    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -16615,7 +16629,7 @@
       <c r="Y577" s="1"/>
       <c r="Z577" s="1"/>
     </row>
-    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -16643,7 +16657,7 @@
       <c r="Y578" s="1"/>
       <c r="Z578" s="1"/>
     </row>
-    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -16671,7 +16685,7 @@
       <c r="Y579" s="1"/>
       <c r="Z579" s="1"/>
     </row>
-    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -16699,7 +16713,7 @@
       <c r="Y580" s="1"/>
       <c r="Z580" s="1"/>
     </row>
-    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -16727,7 +16741,7 @@
       <c r="Y581" s="1"/>
       <c r="Z581" s="1"/>
     </row>
-    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -16755,7 +16769,7 @@
       <c r="Y582" s="1"/>
       <c r="Z582" s="1"/>
     </row>
-    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -16783,7 +16797,7 @@
       <c r="Y583" s="1"/>
       <c r="Z583" s="1"/>
     </row>
-    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -16811,7 +16825,7 @@
       <c r="Y584" s="1"/>
       <c r="Z584" s="1"/>
     </row>
-    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -16839,7 +16853,7 @@
       <c r="Y585" s="1"/>
       <c r="Z585" s="1"/>
     </row>
-    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -16867,7 +16881,7 @@
       <c r="Y586" s="1"/>
       <c r="Z586" s="1"/>
     </row>
-    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -16895,7 +16909,7 @@
       <c r="Y587" s="1"/>
       <c r="Z587" s="1"/>
     </row>
-    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -16923,7 +16937,7 @@
       <c r="Y588" s="1"/>
       <c r="Z588" s="1"/>
     </row>
-    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -16951,7 +16965,7 @@
       <c r="Y589" s="1"/>
       <c r="Z589" s="1"/>
     </row>
-    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -16979,7 +16993,7 @@
       <c r="Y590" s="1"/>
       <c r="Z590" s="1"/>
     </row>
-    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -17007,7 +17021,7 @@
       <c r="Y591" s="1"/>
       <c r="Z591" s="1"/>
     </row>
-    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -17035,7 +17049,7 @@
       <c r="Y592" s="1"/>
       <c r="Z592" s="1"/>
     </row>
-    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -17063,7 +17077,7 @@
       <c r="Y593" s="1"/>
       <c r="Z593" s="1"/>
     </row>
-    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -17091,7 +17105,7 @@
       <c r="Y594" s="1"/>
       <c r="Z594" s="1"/>
     </row>
-    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -17119,7 +17133,7 @@
       <c r="Y595" s="1"/>
       <c r="Z595" s="1"/>
     </row>
-    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -17147,7 +17161,7 @@
       <c r="Y596" s="1"/>
       <c r="Z596" s="1"/>
     </row>
-    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -17175,7 +17189,7 @@
       <c r="Y597" s="1"/>
       <c r="Z597" s="1"/>
     </row>
-    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -17203,7 +17217,7 @@
       <c r="Y598" s="1"/>
       <c r="Z598" s="1"/>
     </row>
-    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -17231,7 +17245,7 @@
       <c r="Y599" s="1"/>
       <c r="Z599" s="1"/>
     </row>
-    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -17259,7 +17273,7 @@
       <c r="Y600" s="1"/>
       <c r="Z600" s="1"/>
     </row>
-    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -17287,7 +17301,7 @@
       <c r="Y601" s="1"/>
       <c r="Z601" s="1"/>
     </row>
-    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -17315,7 +17329,7 @@
       <c r="Y602" s="1"/>
       <c r="Z602" s="1"/>
     </row>
-    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -17343,7 +17357,7 @@
       <c r="Y603" s="1"/>
       <c r="Z603" s="1"/>
     </row>
-    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -17371,7 +17385,7 @@
       <c r="Y604" s="1"/>
       <c r="Z604" s="1"/>
     </row>
-    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -17399,7 +17413,7 @@
       <c r="Y605" s="1"/>
       <c r="Z605" s="1"/>
     </row>
-    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -17427,7 +17441,7 @@
       <c r="Y606" s="1"/>
       <c r="Z606" s="1"/>
     </row>
-    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -17455,7 +17469,7 @@
       <c r="Y607" s="1"/>
       <c r="Z607" s="1"/>
     </row>
-    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -17483,7 +17497,7 @@
       <c r="Y608" s="1"/>
       <c r="Z608" s="1"/>
     </row>
-    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -17511,7 +17525,7 @@
       <c r="Y609" s="1"/>
       <c r="Z609" s="1"/>
     </row>
-    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -17539,7 +17553,7 @@
       <c r="Y610" s="1"/>
       <c r="Z610" s="1"/>
     </row>
-    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -17567,7 +17581,7 @@
       <c r="Y611" s="1"/>
       <c r="Z611" s="1"/>
     </row>
-    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -17595,7 +17609,7 @@
       <c r="Y612" s="1"/>
       <c r="Z612" s="1"/>
     </row>
-    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -17623,7 +17637,7 @@
       <c r="Y613" s="1"/>
       <c r="Z613" s="1"/>
     </row>
-    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -17651,7 +17665,7 @@
       <c r="Y614" s="1"/>
       <c r="Z614" s="1"/>
     </row>
-    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -17679,7 +17693,7 @@
       <c r="Y615" s="1"/>
       <c r="Z615" s="1"/>
     </row>
-    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -17707,7 +17721,7 @@
       <c r="Y616" s="1"/>
       <c r="Z616" s="1"/>
     </row>
-    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -17735,7 +17749,7 @@
       <c r="Y617" s="1"/>
       <c r="Z617" s="1"/>
     </row>
-    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -17763,7 +17777,7 @@
       <c r="Y618" s="1"/>
       <c r="Z618" s="1"/>
     </row>
-    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -17791,7 +17805,7 @@
       <c r="Y619" s="1"/>
       <c r="Z619" s="1"/>
     </row>
-    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -17819,7 +17833,7 @@
       <c r="Y620" s="1"/>
       <c r="Z620" s="1"/>
     </row>
-    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -17847,7 +17861,7 @@
       <c r="Y621" s="1"/>
       <c r="Z621" s="1"/>
     </row>
-    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -17875,7 +17889,7 @@
       <c r="Y622" s="1"/>
       <c r="Z622" s="1"/>
     </row>
-    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -17903,7 +17917,7 @@
       <c r="Y623" s="1"/>
       <c r="Z623" s="1"/>
     </row>
-    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -17931,7 +17945,7 @@
       <c r="Y624" s="1"/>
       <c r="Z624" s="1"/>
     </row>
-    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -17959,7 +17973,7 @@
       <c r="Y625" s="1"/>
       <c r="Z625" s="1"/>
     </row>
-    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -17987,7 +18001,7 @@
       <c r="Y626" s="1"/>
       <c r="Z626" s="1"/>
     </row>
-    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -18015,7 +18029,7 @@
       <c r="Y627" s="1"/>
       <c r="Z627" s="1"/>
     </row>
-    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -18043,7 +18057,7 @@
       <c r="Y628" s="1"/>
       <c r="Z628" s="1"/>
     </row>
-    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -18071,7 +18085,7 @@
       <c r="Y629" s="1"/>
       <c r="Z629" s="1"/>
     </row>
-    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -18099,7 +18113,7 @@
       <c r="Y630" s="1"/>
       <c r="Z630" s="1"/>
     </row>
-    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -18127,7 +18141,7 @@
       <c r="Y631" s="1"/>
       <c r="Z631" s="1"/>
     </row>
-    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -18155,7 +18169,7 @@
       <c r="Y632" s="1"/>
       <c r="Z632" s="1"/>
     </row>
-    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -18183,7 +18197,7 @@
       <c r="Y633" s="1"/>
       <c r="Z633" s="1"/>
     </row>
-    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -18211,7 +18225,7 @@
       <c r="Y634" s="1"/>
       <c r="Z634" s="1"/>
     </row>
-    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -18239,7 +18253,7 @@
       <c r="Y635" s="1"/>
       <c r="Z635" s="1"/>
     </row>
-    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -18267,7 +18281,7 @@
       <c r="Y636" s="1"/>
       <c r="Z636" s="1"/>
     </row>
-    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -18295,7 +18309,7 @@
       <c r="Y637" s="1"/>
       <c r="Z637" s="1"/>
     </row>
-    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -18323,7 +18337,7 @@
       <c r="Y638" s="1"/>
       <c r="Z638" s="1"/>
     </row>
-    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -18351,7 +18365,7 @@
       <c r="Y639" s="1"/>
       <c r="Z639" s="1"/>
     </row>
-    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -18379,7 +18393,7 @@
       <c r="Y640" s="1"/>
       <c r="Z640" s="1"/>
     </row>
-    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -18407,7 +18421,7 @@
       <c r="Y641" s="1"/>
       <c r="Z641" s="1"/>
     </row>
-    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -18435,7 +18449,7 @@
       <c r="Y642" s="1"/>
       <c r="Z642" s="1"/>
     </row>
-    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -18463,7 +18477,7 @@
       <c r="Y643" s="1"/>
       <c r="Z643" s="1"/>
     </row>
-    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -18491,7 +18505,7 @@
       <c r="Y644" s="1"/>
       <c r="Z644" s="1"/>
     </row>
-    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -18519,7 +18533,7 @@
       <c r="Y645" s="1"/>
       <c r="Z645" s="1"/>
     </row>
-    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -18547,7 +18561,7 @@
       <c r="Y646" s="1"/>
       <c r="Z646" s="1"/>
     </row>
-    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -18575,7 +18589,7 @@
       <c r="Y647" s="1"/>
       <c r="Z647" s="1"/>
     </row>
-    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -18603,7 +18617,7 @@
       <c r="Y648" s="1"/>
       <c r="Z648" s="1"/>
     </row>
-    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -18631,7 +18645,7 @@
       <c r="Y649" s="1"/>
       <c r="Z649" s="1"/>
     </row>
-    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -18659,7 +18673,7 @@
       <c r="Y650" s="1"/>
       <c r="Z650" s="1"/>
     </row>
-    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -18687,7 +18701,7 @@
       <c r="Y651" s="1"/>
       <c r="Z651" s="1"/>
     </row>
-    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -18715,7 +18729,7 @@
       <c r="Y652" s="1"/>
       <c r="Z652" s="1"/>
     </row>
-    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -18743,7 +18757,7 @@
       <c r="Y653" s="1"/>
       <c r="Z653" s="1"/>
     </row>
-    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -18771,7 +18785,7 @@
       <c r="Y654" s="1"/>
       <c r="Z654" s="1"/>
     </row>
-    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -18799,7 +18813,7 @@
       <c r="Y655" s="1"/>
       <c r="Z655" s="1"/>
     </row>
-    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -18827,7 +18841,7 @@
       <c r="Y656" s="1"/>
       <c r="Z656" s="1"/>
     </row>
-    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -18855,7 +18869,7 @@
       <c r="Y657" s="1"/>
       <c r="Z657" s="1"/>
     </row>
-    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -18883,7 +18897,7 @@
       <c r="Y658" s="1"/>
       <c r="Z658" s="1"/>
     </row>
-    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -18911,7 +18925,7 @@
       <c r="Y659" s="1"/>
       <c r="Z659" s="1"/>
     </row>
-    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -18939,7 +18953,7 @@
       <c r="Y660" s="1"/>
       <c r="Z660" s="1"/>
     </row>
-    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -18967,7 +18981,7 @@
       <c r="Y661" s="1"/>
       <c r="Z661" s="1"/>
     </row>
-    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -18995,7 +19009,7 @@
       <c r="Y662" s="1"/>
       <c r="Z662" s="1"/>
     </row>
-    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -19023,7 +19037,7 @@
       <c r="Y663" s="1"/>
       <c r="Z663" s="1"/>
     </row>
-    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -19051,7 +19065,7 @@
       <c r="Y664" s="1"/>
       <c r="Z664" s="1"/>
     </row>
-    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -19079,7 +19093,7 @@
       <c r="Y665" s="1"/>
       <c r="Z665" s="1"/>
     </row>
-    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -19107,7 +19121,7 @@
       <c r="Y666" s="1"/>
       <c r="Z666" s="1"/>
     </row>
-    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -19135,7 +19149,7 @@
       <c r="Y667" s="1"/>
       <c r="Z667" s="1"/>
     </row>
-    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -19163,7 +19177,7 @@
       <c r="Y668" s="1"/>
       <c r="Z668" s="1"/>
     </row>
-    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -19191,7 +19205,7 @@
       <c r="Y669" s="1"/>
       <c r="Z669" s="1"/>
     </row>
-    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -19219,7 +19233,7 @@
       <c r="Y670" s="1"/>
       <c r="Z670" s="1"/>
     </row>
-    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -19247,7 +19261,7 @@
       <c r="Y671" s="1"/>
       <c r="Z671" s="1"/>
     </row>
-    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -19275,7 +19289,7 @@
       <c r="Y672" s="1"/>
       <c r="Z672" s="1"/>
     </row>
-    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -19303,7 +19317,7 @@
       <c r="Y673" s="1"/>
       <c r="Z673" s="1"/>
     </row>
-    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -19331,7 +19345,7 @@
       <c r="Y674" s="1"/>
       <c r="Z674" s="1"/>
     </row>
-    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -19359,7 +19373,7 @@
       <c r="Y675" s="1"/>
       <c r="Z675" s="1"/>
     </row>
-    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -19387,7 +19401,7 @@
       <c r="Y676" s="1"/>
       <c r="Z676" s="1"/>
     </row>
-    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -19415,7 +19429,7 @@
       <c r="Y677" s="1"/>
       <c r="Z677" s="1"/>
     </row>
-    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -19443,7 +19457,7 @@
       <c r="Y678" s="1"/>
       <c r="Z678" s="1"/>
     </row>
-    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -19471,7 +19485,7 @@
       <c r="Y679" s="1"/>
       <c r="Z679" s="1"/>
     </row>
-    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -19499,7 +19513,7 @@
       <c r="Y680" s="1"/>
       <c r="Z680" s="1"/>
     </row>
-    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -19527,7 +19541,7 @@
       <c r="Y681" s="1"/>
       <c r="Z681" s="1"/>
     </row>
-    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -19555,7 +19569,7 @@
       <c r="Y682" s="1"/>
       <c r="Z682" s="1"/>
     </row>
-    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -19583,7 +19597,7 @@
       <c r="Y683" s="1"/>
       <c r="Z683" s="1"/>
     </row>
-    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -19611,7 +19625,7 @@
       <c r="Y684" s="1"/>
       <c r="Z684" s="1"/>
     </row>
-    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -19639,7 +19653,7 @@
       <c r="Y685" s="1"/>
       <c r="Z685" s="1"/>
     </row>
-    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -19667,7 +19681,7 @@
       <c r="Y686" s="1"/>
       <c r="Z686" s="1"/>
     </row>
-    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -19695,7 +19709,7 @@
       <c r="Y687" s="1"/>
       <c r="Z687" s="1"/>
     </row>
-    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -19723,7 +19737,7 @@
       <c r="Y688" s="1"/>
       <c r="Z688" s="1"/>
     </row>
-    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -19751,7 +19765,7 @@
       <c r="Y689" s="1"/>
       <c r="Z689" s="1"/>
     </row>
-    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -19779,7 +19793,7 @@
       <c r="Y690" s="1"/>
       <c r="Z690" s="1"/>
     </row>
-    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -19807,7 +19821,7 @@
       <c r="Y691" s="1"/>
       <c r="Z691" s="1"/>
     </row>
-    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -19835,7 +19849,7 @@
       <c r="Y692" s="1"/>
       <c r="Z692" s="1"/>
     </row>
-    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -19863,7 +19877,7 @@
       <c r="Y693" s="1"/>
       <c r="Z693" s="1"/>
     </row>
-    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -19891,7 +19905,7 @@
       <c r="Y694" s="1"/>
       <c r="Z694" s="1"/>
     </row>
-    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -19919,7 +19933,7 @@
       <c r="Y695" s="1"/>
       <c r="Z695" s="1"/>
     </row>
-    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -19947,7 +19961,7 @@
       <c r="Y696" s="1"/>
       <c r="Z696" s="1"/>
     </row>
-    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -19975,7 +19989,7 @@
       <c r="Y697" s="1"/>
       <c r="Z697" s="1"/>
     </row>
-    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -20003,7 +20017,7 @@
       <c r="Y698" s="1"/>
       <c r="Z698" s="1"/>
     </row>
-    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -20031,7 +20045,7 @@
       <c r="Y699" s="1"/>
       <c r="Z699" s="1"/>
     </row>
-    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -20059,7 +20073,7 @@
       <c r="Y700" s="1"/>
       <c r="Z700" s="1"/>
     </row>
-    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -20087,7 +20101,7 @@
       <c r="Y701" s="1"/>
       <c r="Z701" s="1"/>
     </row>
-    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -20115,7 +20129,7 @@
       <c r="Y702" s="1"/>
       <c r="Z702" s="1"/>
     </row>
-    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -20143,7 +20157,7 @@
       <c r="Y703" s="1"/>
       <c r="Z703" s="1"/>
     </row>
-    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -20171,7 +20185,7 @@
       <c r="Y704" s="1"/>
       <c r="Z704" s="1"/>
     </row>
-    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -20199,7 +20213,7 @@
       <c r="Y705" s="1"/>
       <c r="Z705" s="1"/>
     </row>
-    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -20227,7 +20241,7 @@
       <c r="Y706" s="1"/>
       <c r="Z706" s="1"/>
     </row>
-    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -20255,7 +20269,7 @@
       <c r="Y707" s="1"/>
       <c r="Z707" s="1"/>
     </row>
-    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -20283,7 +20297,7 @@
       <c r="Y708" s="1"/>
       <c r="Z708" s="1"/>
     </row>
-    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -20311,7 +20325,7 @@
       <c r="Y709" s="1"/>
       <c r="Z709" s="1"/>
     </row>
-    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -20339,7 +20353,7 @@
       <c r="Y710" s="1"/>
       <c r="Z710" s="1"/>
     </row>
-    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -20367,7 +20381,7 @@
       <c r="Y711" s="1"/>
       <c r="Z711" s="1"/>
     </row>
-    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -20395,7 +20409,7 @@
       <c r="Y712" s="1"/>
       <c r="Z712" s="1"/>
     </row>
-    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -20423,7 +20437,7 @@
       <c r="Y713" s="1"/>
       <c r="Z713" s="1"/>
     </row>
-    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -20451,7 +20465,7 @@
       <c r="Y714" s="1"/>
       <c r="Z714" s="1"/>
     </row>
-    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -20479,7 +20493,7 @@
       <c r="Y715" s="1"/>
       <c r="Z715" s="1"/>
     </row>
-    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -20507,7 +20521,7 @@
       <c r="Y716" s="1"/>
       <c r="Z716" s="1"/>
     </row>
-    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -20535,7 +20549,7 @@
       <c r="Y717" s="1"/>
       <c r="Z717" s="1"/>
     </row>
-    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -20563,7 +20577,7 @@
       <c r="Y718" s="1"/>
       <c r="Z718" s="1"/>
     </row>
-    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -20591,7 +20605,7 @@
       <c r="Y719" s="1"/>
       <c r="Z719" s="1"/>
     </row>
-    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -20619,7 +20633,7 @@
       <c r="Y720" s="1"/>
       <c r="Z720" s="1"/>
     </row>
-    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -20647,7 +20661,7 @@
       <c r="Y721" s="1"/>
       <c r="Z721" s="1"/>
     </row>
-    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -20675,7 +20689,7 @@
       <c r="Y722" s="1"/>
       <c r="Z722" s="1"/>
     </row>
-    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -20703,7 +20717,7 @@
       <c r="Y723" s="1"/>
       <c r="Z723" s="1"/>
     </row>
-    <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -20731,7 +20745,7 @@
       <c r="Y724" s="1"/>
       <c r="Z724" s="1"/>
     </row>
-    <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -20759,7 +20773,7 @@
       <c r="Y725" s="1"/>
       <c r="Z725" s="1"/>
     </row>
-    <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -20787,7 +20801,7 @@
       <c r="Y726" s="1"/>
       <c r="Z726" s="1"/>
     </row>
-    <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -20815,7 +20829,7 @@
       <c r="Y727" s="1"/>
       <c r="Z727" s="1"/>
     </row>
-    <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -20843,7 +20857,7 @@
       <c r="Y728" s="1"/>
       <c r="Z728" s="1"/>
     </row>
-    <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -20871,7 +20885,7 @@
       <c r="Y729" s="1"/>
       <c r="Z729" s="1"/>
     </row>
-    <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -20899,7 +20913,7 @@
       <c r="Y730" s="1"/>
       <c r="Z730" s="1"/>
     </row>
-    <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -20927,7 +20941,7 @@
       <c r="Y731" s="1"/>
       <c r="Z731" s="1"/>
     </row>
-    <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -20955,7 +20969,7 @@
       <c r="Y732" s="1"/>
       <c r="Z732" s="1"/>
     </row>
-    <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -20983,7 +20997,7 @@
       <c r="Y733" s="1"/>
       <c r="Z733" s="1"/>
     </row>
-    <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -21011,7 +21025,7 @@
       <c r="Y734" s="1"/>
       <c r="Z734" s="1"/>
     </row>
-    <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -21039,7 +21053,7 @@
       <c r="Y735" s="1"/>
       <c r="Z735" s="1"/>
     </row>
-    <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -21067,7 +21081,7 @@
       <c r="Y736" s="1"/>
       <c r="Z736" s="1"/>
     </row>
-    <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -21095,7 +21109,7 @@
       <c r="Y737" s="1"/>
       <c r="Z737" s="1"/>
     </row>
-    <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -21123,7 +21137,7 @@
       <c r="Y738" s="1"/>
       <c r="Z738" s="1"/>
     </row>
-    <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -21151,7 +21165,7 @@
       <c r="Y739" s="1"/>
       <c r="Z739" s="1"/>
     </row>
-    <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -21179,7 +21193,7 @@
       <c r="Y740" s="1"/>
       <c r="Z740" s="1"/>
     </row>
-    <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -21207,7 +21221,7 @@
       <c r="Y741" s="1"/>
       <c r="Z741" s="1"/>
     </row>
-    <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -21235,7 +21249,7 @@
       <c r="Y742" s="1"/>
       <c r="Z742" s="1"/>
     </row>
-    <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -21263,7 +21277,7 @@
       <c r="Y743" s="1"/>
       <c r="Z743" s="1"/>
     </row>
-    <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -21291,7 +21305,7 @@
       <c r="Y744" s="1"/>
       <c r="Z744" s="1"/>
     </row>
-    <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -21319,7 +21333,7 @@
       <c r="Y745" s="1"/>
       <c r="Z745" s="1"/>
     </row>
-    <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -21347,7 +21361,7 @@
       <c r="Y746" s="1"/>
       <c r="Z746" s="1"/>
     </row>
-    <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -21375,7 +21389,7 @@
       <c r="Y747" s="1"/>
       <c r="Z747" s="1"/>
     </row>
-    <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -21403,7 +21417,7 @@
       <c r="Y748" s="1"/>
       <c r="Z748" s="1"/>
     </row>
-    <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -21431,7 +21445,7 @@
       <c r="Y749" s="1"/>
       <c r="Z749" s="1"/>
     </row>
-    <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -21459,7 +21473,7 @@
       <c r="Y750" s="1"/>
       <c r="Z750" s="1"/>
     </row>
-    <row r="751" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -21487,7 +21501,7 @@
       <c r="Y751" s="1"/>
       <c r="Z751" s="1"/>
     </row>
-    <row r="752" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -21515,7 +21529,7 @@
       <c r="Y752" s="1"/>
       <c r="Z752" s="1"/>
     </row>
-    <row r="753" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -21543,7 +21557,7 @@
       <c r="Y753" s="1"/>
       <c r="Z753" s="1"/>
     </row>
-    <row r="754" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -21571,7 +21585,7 @@
       <c r="Y754" s="1"/>
       <c r="Z754" s="1"/>
     </row>
-    <row r="755" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -21599,7 +21613,7 @@
       <c r="Y755" s="1"/>
       <c r="Z755" s="1"/>
     </row>
-    <row r="756" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -21627,7 +21641,7 @@
       <c r="Y756" s="1"/>
       <c r="Z756" s="1"/>
     </row>
-    <row r="757" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -21655,7 +21669,7 @@
       <c r="Y757" s="1"/>
       <c r="Z757" s="1"/>
     </row>
-    <row r="758" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -21683,7 +21697,7 @@
       <c r="Y758" s="1"/>
       <c r="Z758" s="1"/>
     </row>
-    <row r="759" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -21711,7 +21725,7 @@
       <c r="Y759" s="1"/>
       <c r="Z759" s="1"/>
     </row>
-    <row r="760" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -21739,7 +21753,7 @@
       <c r="Y760" s="1"/>
       <c r="Z760" s="1"/>
     </row>
-    <row r="761" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -21767,7 +21781,7 @@
       <c r="Y761" s="1"/>
       <c r="Z761" s="1"/>
     </row>
-    <row r="762" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -21795,7 +21809,7 @@
       <c r="Y762" s="1"/>
       <c r="Z762" s="1"/>
     </row>
-    <row r="763" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -21823,7 +21837,7 @@
       <c r="Y763" s="1"/>
       <c r="Z763" s="1"/>
     </row>
-    <row r="764" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -21851,7 +21865,7 @@
       <c r="Y764" s="1"/>
       <c r="Z764" s="1"/>
     </row>
-    <row r="765" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -21879,7 +21893,7 @@
       <c r="Y765" s="1"/>
       <c r="Z765" s="1"/>
     </row>
-    <row r="766" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -21907,7 +21921,7 @@
       <c r="Y766" s="1"/>
       <c r="Z766" s="1"/>
     </row>
-    <row r="767" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -21935,7 +21949,7 @@
       <c r="Y767" s="1"/>
       <c r="Z767" s="1"/>
     </row>
-    <row r="768" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -21963,7 +21977,7 @@
       <c r="Y768" s="1"/>
       <c r="Z768" s="1"/>
     </row>
-    <row r="769" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -21991,7 +22005,7 @@
       <c r="Y769" s="1"/>
       <c r="Z769" s="1"/>
     </row>
-    <row r="770" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -22019,7 +22033,7 @@
       <c r="Y770" s="1"/>
       <c r="Z770" s="1"/>
     </row>
-    <row r="771" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -22047,7 +22061,7 @@
       <c r="Y771" s="1"/>
       <c r="Z771" s="1"/>
     </row>
-    <row r="772" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -22075,7 +22089,7 @@
       <c r="Y772" s="1"/>
       <c r="Z772" s="1"/>
     </row>
-    <row r="773" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -22103,7 +22117,7 @@
       <c r="Y773" s="1"/>
       <c r="Z773" s="1"/>
     </row>
-    <row r="774" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -22131,7 +22145,7 @@
       <c r="Y774" s="1"/>
       <c r="Z774" s="1"/>
     </row>
-    <row r="775" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -22159,7 +22173,7 @@
       <c r="Y775" s="1"/>
       <c r="Z775" s="1"/>
     </row>
-    <row r="776" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -22187,7 +22201,7 @@
       <c r="Y776" s="1"/>
       <c r="Z776" s="1"/>
     </row>
-    <row r="777" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -22215,7 +22229,7 @@
       <c r="Y777" s="1"/>
       <c r="Z777" s="1"/>
     </row>
-    <row r="778" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -22243,7 +22257,7 @@
       <c r="Y778" s="1"/>
       <c r="Z778" s="1"/>
     </row>
-    <row r="779" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -22271,7 +22285,7 @@
       <c r="Y779" s="1"/>
       <c r="Z779" s="1"/>
     </row>
-    <row r="780" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -22299,7 +22313,7 @@
       <c r="Y780" s="1"/>
       <c r="Z780" s="1"/>
     </row>
-    <row r="781" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -22327,7 +22341,7 @@
       <c r="Y781" s="1"/>
       <c r="Z781" s="1"/>
     </row>
-    <row r="782" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -22355,7 +22369,7 @@
       <c r="Y782" s="1"/>
       <c r="Z782" s="1"/>
     </row>
-    <row r="783" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -22383,7 +22397,7 @@
       <c r="Y783" s="1"/>
       <c r="Z783" s="1"/>
     </row>
-    <row r="784" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -22411,7 +22425,7 @@
       <c r="Y784" s="1"/>
       <c r="Z784" s="1"/>
     </row>
-    <row r="785" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -22439,7 +22453,7 @@
       <c r="Y785" s="1"/>
       <c r="Z785" s="1"/>
     </row>
-    <row r="786" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -22467,7 +22481,7 @@
       <c r="Y786" s="1"/>
       <c r="Z786" s="1"/>
     </row>
-    <row r="787" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -22495,7 +22509,7 @@
       <c r="Y787" s="1"/>
       <c r="Z787" s="1"/>
     </row>
-    <row r="788" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -22523,7 +22537,7 @@
       <c r="Y788" s="1"/>
       <c r="Z788" s="1"/>
     </row>
-    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -22551,7 +22565,7 @@
       <c r="Y789" s="1"/>
       <c r="Z789" s="1"/>
     </row>
-    <row r="790" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -22579,7 +22593,7 @@
       <c r="Y790" s="1"/>
       <c r="Z790" s="1"/>
     </row>
-    <row r="791" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -22607,7 +22621,7 @@
       <c r="Y791" s="1"/>
       <c r="Z791" s="1"/>
     </row>
-    <row r="792" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -22635,7 +22649,7 @@
       <c r="Y792" s="1"/>
       <c r="Z792" s="1"/>
     </row>
-    <row r="793" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -22663,7 +22677,7 @@
       <c r="Y793" s="1"/>
       <c r="Z793" s="1"/>
     </row>
-    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -22691,7 +22705,7 @@
       <c r="Y794" s="1"/>
       <c r="Z794" s="1"/>
     </row>
-    <row r="795" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -22719,7 +22733,7 @@
       <c r="Y795" s="1"/>
       <c r="Z795" s="1"/>
     </row>
-    <row r="796" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -22747,7 +22761,7 @@
       <c r="Y796" s="1"/>
       <c r="Z796" s="1"/>
     </row>
-    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -22775,7 +22789,7 @@
       <c r="Y797" s="1"/>
       <c r="Z797" s="1"/>
     </row>
-    <row r="798" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -22803,7 +22817,7 @@
       <c r="Y798" s="1"/>
       <c r="Z798" s="1"/>
     </row>
-    <row r="799" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -22831,7 +22845,7 @@
       <c r="Y799" s="1"/>
       <c r="Z799" s="1"/>
     </row>
-    <row r="800" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -22859,7 +22873,7 @@
       <c r="Y800" s="1"/>
       <c r="Z800" s="1"/>
     </row>
-    <row r="801" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -22887,7 +22901,7 @@
       <c r="Y801" s="1"/>
       <c r="Z801" s="1"/>
     </row>
-    <row r="802" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -22915,7 +22929,7 @@
       <c r="Y802" s="1"/>
       <c r="Z802" s="1"/>
     </row>
-    <row r="803" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -22943,7 +22957,7 @@
       <c r="Y803" s="1"/>
       <c r="Z803" s="1"/>
     </row>
-    <row r="804" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -22971,7 +22985,7 @@
       <c r="Y804" s="1"/>
       <c r="Z804" s="1"/>
     </row>
-    <row r="805" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -22999,7 +23013,7 @@
       <c r="Y805" s="1"/>
       <c r="Z805" s="1"/>
     </row>
-    <row r="806" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -23027,7 +23041,7 @@
       <c r="Y806" s="1"/>
       <c r="Z806" s="1"/>
     </row>
-    <row r="807" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -23055,7 +23069,7 @@
       <c r="Y807" s="1"/>
       <c r="Z807" s="1"/>
     </row>
-    <row r="808" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -23083,7 +23097,7 @@
       <c r="Y808" s="1"/>
       <c r="Z808" s="1"/>
     </row>
-    <row r="809" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -23111,7 +23125,7 @@
       <c r="Y809" s="1"/>
       <c r="Z809" s="1"/>
     </row>
-    <row r="810" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -23139,7 +23153,7 @@
       <c r="Y810" s="1"/>
       <c r="Z810" s="1"/>
     </row>
-    <row r="811" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -23167,7 +23181,7 @@
       <c r="Y811" s="1"/>
       <c r="Z811" s="1"/>
     </row>
-    <row r="812" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -23195,7 +23209,7 @@
       <c r="Y812" s="1"/>
       <c r="Z812" s="1"/>
     </row>
-    <row r="813" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -23223,7 +23237,7 @@
       <c r="Y813" s="1"/>
       <c r="Z813" s="1"/>
     </row>
-    <row r="814" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -23251,7 +23265,7 @@
       <c r="Y814" s="1"/>
       <c r="Z814" s="1"/>
     </row>
-    <row r="815" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -23279,7 +23293,7 @@
       <c r="Y815" s="1"/>
       <c r="Z815" s="1"/>
     </row>
-    <row r="816" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -23307,7 +23321,7 @@
       <c r="Y816" s="1"/>
       <c r="Z816" s="1"/>
     </row>
-    <row r="817" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -23335,7 +23349,7 @@
       <c r="Y817" s="1"/>
       <c r="Z817" s="1"/>
     </row>
-    <row r="818" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -23363,7 +23377,7 @@
       <c r="Y818" s="1"/>
       <c r="Z818" s="1"/>
     </row>
-    <row r="819" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -23391,7 +23405,7 @@
       <c r="Y819" s="1"/>
       <c r="Z819" s="1"/>
     </row>
-    <row r="820" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -23419,7 +23433,7 @@
       <c r="Y820" s="1"/>
       <c r="Z820" s="1"/>
     </row>
-    <row r="821" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -23447,7 +23461,7 @@
       <c r="Y821" s="1"/>
       <c r="Z821" s="1"/>
     </row>
-    <row r="822" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -23475,7 +23489,7 @@
       <c r="Y822" s="1"/>
       <c r="Z822" s="1"/>
     </row>
-    <row r="823" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -23503,7 +23517,7 @@
       <c r="Y823" s="1"/>
       <c r="Z823" s="1"/>
     </row>
-    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -23531,7 +23545,7 @@
       <c r="Y824" s="1"/>
       <c r="Z824" s="1"/>
     </row>
-    <row r="825" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -23559,7 +23573,7 @@
       <c r="Y825" s="1"/>
       <c r="Z825" s="1"/>
     </row>
-    <row r="826" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -23587,7 +23601,7 @@
       <c r="Y826" s="1"/>
       <c r="Z826" s="1"/>
     </row>
-    <row r="827" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -23615,7 +23629,7 @@
       <c r="Y827" s="1"/>
       <c r="Z827" s="1"/>
     </row>
-    <row r="828" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -23643,7 +23657,7 @@
       <c r="Y828" s="1"/>
       <c r="Z828" s="1"/>
     </row>
-    <row r="829" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -23671,7 +23685,7 @@
       <c r="Y829" s="1"/>
       <c r="Z829" s="1"/>
     </row>
-    <row r="830" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -23699,7 +23713,7 @@
       <c r="Y830" s="1"/>
       <c r="Z830" s="1"/>
     </row>
-    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -23727,7 +23741,7 @@
       <c r="Y831" s="1"/>
       <c r="Z831" s="1"/>
     </row>
-    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -23755,7 +23769,7 @@
       <c r="Y832" s="1"/>
       <c r="Z832" s="1"/>
     </row>
-    <row r="833" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -23783,7 +23797,7 @@
       <c r="Y833" s="1"/>
       <c r="Z833" s="1"/>
     </row>
-    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -23811,7 +23825,7 @@
       <c r="Y834" s="1"/>
       <c r="Z834" s="1"/>
     </row>
-    <row r="835" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -23839,7 +23853,7 @@
       <c r="Y835" s="1"/>
       <c r="Z835" s="1"/>
     </row>
-    <row r="836" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -23867,7 +23881,7 @@
       <c r="Y836" s="1"/>
       <c r="Z836" s="1"/>
     </row>
-    <row r="837" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -23895,7 +23909,7 @@
       <c r="Y837" s="1"/>
       <c r="Z837" s="1"/>
     </row>
-    <row r="838" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -23923,7 +23937,7 @@
       <c r="Y838" s="1"/>
       <c r="Z838" s="1"/>
     </row>
-    <row r="839" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -23951,7 +23965,7 @@
       <c r="Y839" s="1"/>
       <c r="Z839" s="1"/>
     </row>
-    <row r="840" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -23979,7 +23993,7 @@
       <c r="Y840" s="1"/>
       <c r="Z840" s="1"/>
     </row>
-    <row r="841" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -24007,7 +24021,7 @@
       <c r="Y841" s="1"/>
       <c r="Z841" s="1"/>
     </row>
-    <row r="842" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -24035,7 +24049,7 @@
       <c r="Y842" s="1"/>
       <c r="Z842" s="1"/>
     </row>
-    <row r="843" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -24063,7 +24077,7 @@
       <c r="Y843" s="1"/>
       <c r="Z843" s="1"/>
     </row>
-    <row r="844" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -24091,7 +24105,7 @@
       <c r="Y844" s="1"/>
       <c r="Z844" s="1"/>
     </row>
-    <row r="845" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -24119,7 +24133,7 @@
       <c r="Y845" s="1"/>
       <c r="Z845" s="1"/>
     </row>
-    <row r="846" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -24147,7 +24161,7 @@
       <c r="Y846" s="1"/>
       <c r="Z846" s="1"/>
     </row>
-    <row r="847" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -24175,7 +24189,7 @@
       <c r="Y847" s="1"/>
       <c r="Z847" s="1"/>
     </row>
-    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -24203,7 +24217,7 @@
       <c r="Y848" s="1"/>
       <c r="Z848" s="1"/>
     </row>
-    <row r="849" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -24231,7 +24245,7 @@
       <c r="Y849" s="1"/>
       <c r="Z849" s="1"/>
     </row>
-    <row r="850" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -24259,7 +24273,7 @@
       <c r="Y850" s="1"/>
       <c r="Z850" s="1"/>
     </row>
-    <row r="851" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -24287,7 +24301,7 @@
       <c r="Y851" s="1"/>
       <c r="Z851" s="1"/>
     </row>
-    <row r="852" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -24315,7 +24329,7 @@
       <c r="Y852" s="1"/>
       <c r="Z852" s="1"/>
     </row>
-    <row r="853" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -24343,7 +24357,7 @@
       <c r="Y853" s="1"/>
       <c r="Z853" s="1"/>
     </row>
-    <row r="854" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -24371,7 +24385,7 @@
       <c r="Y854" s="1"/>
       <c r="Z854" s="1"/>
     </row>
-    <row r="855" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -24399,7 +24413,7 @@
       <c r="Y855" s="1"/>
       <c r="Z855" s="1"/>
     </row>
-    <row r="856" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -24427,7 +24441,7 @@
       <c r="Y856" s="1"/>
       <c r="Z856" s="1"/>
     </row>
-    <row r="857" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -24455,7 +24469,7 @@
       <c r="Y857" s="1"/>
       <c r="Z857" s="1"/>
     </row>
-    <row r="858" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -24483,7 +24497,7 @@
       <c r="Y858" s="1"/>
       <c r="Z858" s="1"/>
     </row>
-    <row r="859" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -24511,7 +24525,7 @@
       <c r="Y859" s="1"/>
       <c r="Z859" s="1"/>
     </row>
-    <row r="860" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -24539,7 +24553,7 @@
       <c r="Y860" s="1"/>
       <c r="Z860" s="1"/>
     </row>
-    <row r="861" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -24567,7 +24581,7 @@
       <c r="Y861" s="1"/>
       <c r="Z861" s="1"/>
     </row>
-    <row r="862" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -24595,7 +24609,7 @@
       <c r="Y862" s="1"/>
       <c r="Z862" s="1"/>
     </row>
-    <row r="863" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -24623,7 +24637,7 @@
       <c r="Y863" s="1"/>
       <c r="Z863" s="1"/>
     </row>
-    <row r="864" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -24651,7 +24665,7 @@
       <c r="Y864" s="1"/>
       <c r="Z864" s="1"/>
     </row>
-    <row r="865" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -24679,7 +24693,7 @@
       <c r="Y865" s="1"/>
       <c r="Z865" s="1"/>
     </row>
-    <row r="866" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -24707,7 +24721,7 @@
       <c r="Y866" s="1"/>
       <c r="Z866" s="1"/>
     </row>
-    <row r="867" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -24735,7 +24749,7 @@
       <c r="Y867" s="1"/>
       <c r="Z867" s="1"/>
     </row>
-    <row r="868" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -24763,7 +24777,7 @@
       <c r="Y868" s="1"/>
       <c r="Z868" s="1"/>
     </row>
-    <row r="869" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -24791,7 +24805,7 @@
       <c r="Y869" s="1"/>
       <c r="Z869" s="1"/>
     </row>
-    <row r="870" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -24819,7 +24833,7 @@
       <c r="Y870" s="1"/>
       <c r="Z870" s="1"/>
     </row>
-    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -24847,7 +24861,7 @@
       <c r="Y871" s="1"/>
       <c r="Z871" s="1"/>
     </row>
-    <row r="872" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -24875,7 +24889,7 @@
       <c r="Y872" s="1"/>
       <c r="Z872" s="1"/>
     </row>
-    <row r="873" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -24903,7 +24917,7 @@
       <c r="Y873" s="1"/>
       <c r="Z873" s="1"/>
     </row>
-    <row r="874" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -24931,7 +24945,7 @@
       <c r="Y874" s="1"/>
       <c r="Z874" s="1"/>
     </row>
-    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -24959,7 +24973,7 @@
       <c r="Y875" s="1"/>
       <c r="Z875" s="1"/>
     </row>
-    <row r="876" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -24987,7 +25001,7 @@
       <c r="Y876" s="1"/>
       <c r="Z876" s="1"/>
     </row>
-    <row r="877" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -25015,7 +25029,7 @@
       <c r="Y877" s="1"/>
       <c r="Z877" s="1"/>
     </row>
-    <row r="878" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -25043,7 +25057,7 @@
       <c r="Y878" s="1"/>
       <c r="Z878" s="1"/>
     </row>
-    <row r="879" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -25071,7 +25085,7 @@
       <c r="Y879" s="1"/>
       <c r="Z879" s="1"/>
     </row>
-    <row r="880" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -25099,7 +25113,7 @@
       <c r="Y880" s="1"/>
       <c r="Z880" s="1"/>
     </row>
-    <row r="881" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -25127,7 +25141,7 @@
       <c r="Y881" s="1"/>
       <c r="Z881" s="1"/>
     </row>
-    <row r="882" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -25155,7 +25169,7 @@
       <c r="Y882" s="1"/>
       <c r="Z882" s="1"/>
     </row>
-    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -25183,7 +25197,7 @@
       <c r="Y883" s="1"/>
       <c r="Z883" s="1"/>
     </row>
-    <row r="884" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -25211,7 +25225,7 @@
       <c r="Y884" s="1"/>
       <c r="Z884" s="1"/>
     </row>
-    <row r="885" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -25239,7 +25253,7 @@
       <c r="Y885" s="1"/>
       <c r="Z885" s="1"/>
     </row>
-    <row r="886" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -25267,7 +25281,7 @@
       <c r="Y886" s="1"/>
       <c r="Z886" s="1"/>
     </row>
-    <row r="887" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -25295,7 +25309,7 @@
       <c r="Y887" s="1"/>
       <c r="Z887" s="1"/>
     </row>
-    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -25323,7 +25337,7 @@
       <c r="Y888" s="1"/>
       <c r="Z888" s="1"/>
     </row>
-    <row r="889" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -25351,7 +25365,7 @@
       <c r="Y889" s="1"/>
       <c r="Z889" s="1"/>
     </row>
-    <row r="890" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -25379,7 +25393,7 @@
       <c r="Y890" s="1"/>
       <c r="Z890" s="1"/>
     </row>
-    <row r="891" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -25407,7 +25421,7 @@
       <c r="Y891" s="1"/>
       <c r="Z891" s="1"/>
     </row>
-    <row r="892" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -25435,7 +25449,7 @@
       <c r="Y892" s="1"/>
       <c r="Z892" s="1"/>
     </row>
-    <row r="893" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -25463,7 +25477,7 @@
       <c r="Y893" s="1"/>
       <c r="Z893" s="1"/>
     </row>
-    <row r="894" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -25491,7 +25505,7 @@
       <c r="Y894" s="1"/>
       <c r="Z894" s="1"/>
     </row>
-    <row r="895" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -25519,7 +25533,7 @@
       <c r="Y895" s="1"/>
       <c r="Z895" s="1"/>
     </row>
-    <row r="896" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -25547,7 +25561,7 @@
       <c r="Y896" s="1"/>
       <c r="Z896" s="1"/>
     </row>
-    <row r="897" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -25575,7 +25589,7 @@
       <c r="Y897" s="1"/>
       <c r="Z897" s="1"/>
     </row>
-    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -25603,7 +25617,7 @@
       <c r="Y898" s="1"/>
       <c r="Z898" s="1"/>
     </row>
-    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -25631,7 +25645,7 @@
       <c r="Y899" s="1"/>
       <c r="Z899" s="1"/>
     </row>
-    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -25659,7 +25673,7 @@
       <c r="Y900" s="1"/>
       <c r="Z900" s="1"/>
     </row>
-    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -25687,7 +25701,7 @@
       <c r="Y901" s="1"/>
       <c r="Z901" s="1"/>
     </row>
-    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -25715,7 +25729,7 @@
       <c r="Y902" s="1"/>
       <c r="Z902" s="1"/>
     </row>
-    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -25743,7 +25757,7 @@
       <c r="Y903" s="1"/>
       <c r="Z903" s="1"/>
     </row>
-    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -25771,7 +25785,7 @@
       <c r="Y904" s="1"/>
       <c r="Z904" s="1"/>
     </row>
-    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -25799,7 +25813,7 @@
       <c r="Y905" s="1"/>
       <c r="Z905" s="1"/>
     </row>
-    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -25827,7 +25841,7 @@
       <c r="Y906" s="1"/>
       <c r="Z906" s="1"/>
     </row>
-    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -25855,7 +25869,7 @@
       <c r="Y907" s="1"/>
       <c r="Z907" s="1"/>
     </row>
-    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -25883,7 +25897,7 @@
       <c r="Y908" s="1"/>
       <c r="Z908" s="1"/>
     </row>
-    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -25911,7 +25925,7 @@
       <c r="Y909" s="1"/>
       <c r="Z909" s="1"/>
     </row>
-    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -25939,7 +25953,7 @@
       <c r="Y910" s="1"/>
       <c r="Z910" s="1"/>
     </row>
-    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -25967,7 +25981,7 @@
       <c r="Y911" s="1"/>
       <c r="Z911" s="1"/>
     </row>
-    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -25995,7 +26009,7 @@
       <c r="Y912" s="1"/>
       <c r="Z912" s="1"/>
     </row>
-    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -26023,7 +26037,7 @@
       <c r="Y913" s="1"/>
       <c r="Z913" s="1"/>
     </row>
-    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -26051,7 +26065,7 @@
       <c r="Y914" s="1"/>
       <c r="Z914" s="1"/>
     </row>
-    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -26079,7 +26093,7 @@
       <c r="Y915" s="1"/>
       <c r="Z915" s="1"/>
     </row>
-    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -26107,7 +26121,7 @@
       <c r="Y916" s="1"/>
       <c r="Z916" s="1"/>
     </row>
-    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -26135,7 +26149,7 @@
       <c r="Y917" s="1"/>
       <c r="Z917" s="1"/>
     </row>
-    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -26163,7 +26177,7 @@
       <c r="Y918" s="1"/>
       <c r="Z918" s="1"/>
     </row>
-    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -26191,7 +26205,7 @@
       <c r="Y919" s="1"/>
       <c r="Z919" s="1"/>
     </row>
-    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -26219,7 +26233,7 @@
       <c r="Y920" s="1"/>
       <c r="Z920" s="1"/>
     </row>
-    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -26247,7 +26261,7 @@
       <c r="Y921" s="1"/>
       <c r="Z921" s="1"/>
     </row>
-    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -26275,7 +26289,7 @@
       <c r="Y922" s="1"/>
       <c r="Z922" s="1"/>
     </row>
-    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -26303,7 +26317,7 @@
       <c r="Y923" s="1"/>
       <c r="Z923" s="1"/>
     </row>
-    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -26331,7 +26345,7 @@
       <c r="Y924" s="1"/>
       <c r="Z924" s="1"/>
     </row>
-    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -26359,7 +26373,7 @@
       <c r="Y925" s="1"/>
       <c r="Z925" s="1"/>
     </row>
-    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -26387,7 +26401,7 @@
       <c r="Y926" s="1"/>
       <c r="Z926" s="1"/>
     </row>
-    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -26415,7 +26429,7 @@
       <c r="Y927" s="1"/>
       <c r="Z927" s="1"/>
     </row>
-    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -26443,7 +26457,7 @@
       <c r="Y928" s="1"/>
       <c r="Z928" s="1"/>
     </row>
-    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -26471,7 +26485,7 @@
       <c r="Y929" s="1"/>
       <c r="Z929" s="1"/>
     </row>
-    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -26499,7 +26513,7 @@
       <c r="Y930" s="1"/>
       <c r="Z930" s="1"/>
     </row>
-    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -26527,7 +26541,7 @@
       <c r="Y931" s="1"/>
       <c r="Z931" s="1"/>
     </row>
-    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -26555,7 +26569,7 @@
       <c r="Y932" s="1"/>
       <c r="Z932" s="1"/>
     </row>
-    <row r="933" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -26583,7 +26597,7 @@
       <c r="Y933" s="1"/>
       <c r="Z933" s="1"/>
     </row>
-    <row r="934" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -26611,7 +26625,7 @@
       <c r="Y934" s="1"/>
       <c r="Z934" s="1"/>
     </row>
-    <row r="935" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -26639,7 +26653,7 @@
       <c r="Y935" s="1"/>
       <c r="Z935" s="1"/>
     </row>
-    <row r="936" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -26667,7 +26681,7 @@
       <c r="Y936" s="1"/>
       <c r="Z936" s="1"/>
     </row>
-    <row r="937" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -26695,7 +26709,7 @@
       <c r="Y937" s="1"/>
       <c r="Z937" s="1"/>
     </row>
-    <row r="938" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -26723,7 +26737,7 @@
       <c r="Y938" s="1"/>
       <c r="Z938" s="1"/>
     </row>
-    <row r="939" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -26751,7 +26765,7 @@
       <c r="Y939" s="1"/>
       <c r="Z939" s="1"/>
     </row>
-    <row r="940" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -26779,7 +26793,7 @@
       <c r="Y940" s="1"/>
       <c r="Z940" s="1"/>
     </row>
-    <row r="941" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -26807,7 +26821,7 @@
       <c r="Y941" s="1"/>
       <c r="Z941" s="1"/>
     </row>
-    <row r="942" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -26835,7 +26849,7 @@
       <c r="Y942" s="1"/>
       <c r="Z942" s="1"/>
     </row>
-    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -26863,7 +26877,7 @@
       <c r="Y943" s="1"/>
       <c r="Z943" s="1"/>
     </row>
-    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -26891,7 +26905,7 @@
       <c r="Y944" s="1"/>
       <c r="Z944" s="1"/>
     </row>
-    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -26919,7 +26933,7 @@
       <c r="Y945" s="1"/>
       <c r="Z945" s="1"/>
     </row>
-    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -26947,7 +26961,7 @@
       <c r="Y946" s="1"/>
       <c r="Z946" s="1"/>
     </row>
-    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -26975,7 +26989,7 @@
       <c r="Y947" s="1"/>
       <c r="Z947" s="1"/>
     </row>
-    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -27003,7 +27017,7 @@
       <c r="Y948" s="1"/>
       <c r="Z948" s="1"/>
     </row>
-    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -27031,7 +27045,7 @@
       <c r="Y949" s="1"/>
       <c r="Z949" s="1"/>
     </row>
-    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -27059,7 +27073,7 @@
       <c r="Y950" s="1"/>
       <c r="Z950" s="1"/>
     </row>
-    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -27087,7 +27101,7 @@
       <c r="Y951" s="1"/>
       <c r="Z951" s="1"/>
     </row>
-    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -27115,7 +27129,7 @@
       <c r="Y952" s="1"/>
       <c r="Z952" s="1"/>
     </row>
-    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -27143,7 +27157,7 @@
       <c r="Y953" s="1"/>
       <c r="Z953" s="1"/>
     </row>
-    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -27171,7 +27185,7 @@
       <c r="Y954" s="1"/>
       <c r="Z954" s="1"/>
     </row>
-    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -27199,7 +27213,7 @@
       <c r="Y955" s="1"/>
       <c r="Z955" s="1"/>
     </row>
-    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -27227,7 +27241,7 @@
       <c r="Y956" s="1"/>
       <c r="Z956" s="1"/>
     </row>
-    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -27255,7 +27269,7 @@
       <c r="Y957" s="1"/>
       <c r="Z957" s="1"/>
     </row>
-    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -27283,7 +27297,7 @@
       <c r="Y958" s="1"/>
       <c r="Z958" s="1"/>
     </row>
-    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -27311,7 +27325,7 @@
       <c r="Y959" s="1"/>
       <c r="Z959" s="1"/>
     </row>
-    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -27339,7 +27353,7 @@
       <c r="Y960" s="1"/>
       <c r="Z960" s="1"/>
     </row>
-    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -27367,7 +27381,7 @@
       <c r="Y961" s="1"/>
       <c r="Z961" s="1"/>
     </row>
-    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -27395,7 +27409,7 @@
       <c r="Y962" s="1"/>
       <c r="Z962" s="1"/>
     </row>
-    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -27423,7 +27437,7 @@
       <c r="Y963" s="1"/>
       <c r="Z963" s="1"/>
     </row>
-    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -27451,7 +27465,7 @@
       <c r="Y964" s="1"/>
       <c r="Z964" s="1"/>
     </row>
-    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -27479,7 +27493,7 @@
       <c r="Y965" s="1"/>
       <c r="Z965" s="1"/>
     </row>
-    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -27507,7 +27521,7 @@
       <c r="Y966" s="1"/>
       <c r="Z966" s="1"/>
     </row>
-    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -27535,7 +27549,7 @@
       <c r="Y967" s="1"/>
       <c r="Z967" s="1"/>
     </row>
-    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -27563,7 +27577,7 @@
       <c r="Y968" s="1"/>
       <c r="Z968" s="1"/>
     </row>
-    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -27591,7 +27605,7 @@
       <c r="Y969" s="1"/>
       <c r="Z969" s="1"/>
     </row>
-    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -27619,7 +27633,7 @@
       <c r="Y970" s="1"/>
       <c r="Z970" s="1"/>
     </row>
-    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -27647,7 +27661,7 @@
       <c r="Y971" s="1"/>
       <c r="Z971" s="1"/>
     </row>
-    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -27675,7 +27689,7 @@
       <c r="Y972" s="1"/>
       <c r="Z972" s="1"/>
     </row>
-    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -27703,7 +27717,7 @@
       <c r="Y973" s="1"/>
       <c r="Z973" s="1"/>
     </row>
-    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -27731,7 +27745,7 @@
       <c r="Y974" s="1"/>
       <c r="Z974" s="1"/>
     </row>
-    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -27759,7 +27773,7 @@
       <c r="Y975" s="1"/>
       <c r="Z975" s="1"/>
     </row>
-    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -27787,7 +27801,7 @@
       <c r="Y976" s="1"/>
       <c r="Z976" s="1"/>
     </row>
-    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -27815,7 +27829,7 @@
       <c r="Y977" s="1"/>
       <c r="Z977" s="1"/>
     </row>
-    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -27843,7 +27857,7 @@
       <c r="Y978" s="1"/>
       <c r="Z978" s="1"/>
     </row>
-    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -27871,7 +27885,7 @@
       <c r="Y979" s="1"/>
       <c r="Z979" s="1"/>
     </row>
-    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -27899,7 +27913,7 @@
       <c r="Y980" s="1"/>
       <c r="Z980" s="1"/>
     </row>
-    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -27927,7 +27941,7 @@
       <c r="Y981" s="1"/>
       <c r="Z981" s="1"/>
     </row>
-    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -27955,7 +27969,7 @@
       <c r="Y982" s="1"/>
       <c r="Z982" s="1"/>
     </row>
-    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -27983,7 +27997,7 @@
       <c r="Y983" s="1"/>
       <c r="Z983" s="1"/>
     </row>
-    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -28011,7 +28025,7 @@
       <c r="Y984" s="1"/>
       <c r="Z984" s="1"/>
     </row>
-    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -28039,7 +28053,7 @@
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
     </row>
-    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -28067,7 +28081,7 @@
       <c r="Y986" s="1"/>
       <c r="Z986" s="1"/>
     </row>
-    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -28095,7 +28109,7 @@
       <c r="Y987" s="1"/>
       <c r="Z987" s="1"/>
     </row>
-    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -28123,7 +28137,7 @@
       <c r="Y988" s="1"/>
       <c r="Z988" s="1"/>
     </row>
-    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -28151,7 +28165,7 @@
       <c r="Y989" s="1"/>
       <c r="Z989" s="1"/>
     </row>
-    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -28179,7 +28193,7 @@
       <c r="Y990" s="1"/>
       <c r="Z990" s="1"/>
     </row>
-    <row r="991" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -28207,7 +28221,7 @@
       <c r="Y991" s="1"/>
       <c r="Z991" s="1"/>
     </row>
-    <row r="992" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -28235,7 +28249,7 @@
       <c r="Y992" s="1"/>
       <c r="Z992" s="1"/>
     </row>
-    <row r="993" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -28263,7 +28277,7 @@
       <c r="Y993" s="1"/>
       <c r="Z993" s="1"/>
     </row>
-    <row r="994" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -28291,7 +28305,7 @@
       <c r="Y994" s="1"/>
       <c r="Z994" s="1"/>
     </row>
-    <row r="995" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -28319,7 +28333,7 @@
       <c r="Y995" s="1"/>
       <c r="Z995" s="1"/>
     </row>
-    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -28347,7 +28361,7 @@
       <c r="Y996" s="1"/>
       <c r="Z996" s="1"/>
     </row>
-    <row r="997" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -28375,7 +28389,7 @@
       <c r="Y997" s="1"/>
       <c r="Z997" s="1"/>
     </row>
-    <row r="998" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -28403,7 +28417,7 @@
       <c r="Y998" s="1"/>
       <c r="Z998" s="1"/>
     </row>
-    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -28431,7 +28445,7 @@
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
     </row>
-    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\R\darts-statistics\bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC648644-D3B7-43C2-A338-E5BC00A97F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C487E7-83ED-45CF-8AF0-0A65A484F208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Season</t>
   </si>
@@ -113,6 +113,12 @@
   <si>
     <t>105</t>
   </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
 </sst>
 </file>
 
@@ -129,6 +135,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -372,7 +379,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -782,10 +789,18 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\R\darts-statistics\bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C487E7-83ED-45CF-8AF0-0A65A484F208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174254C0-9825-425F-B693-E82027A42D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Season</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>116</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
 </sst>
 </file>
@@ -379,7 +385,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -825,10 +831,18 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\R\darts-statistics\bonus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174254C0-9825-425F-B693-E82027A42D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A862F420-9C5D-334C-AFA4-57CBF1EB703A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -164,9 +164,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,20 +386,20 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="6.125" customWidth="1"/>
-    <col min="5" max="6" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +435,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -444,7 +445,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1"/>
@@ -470,7 +471,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -480,7 +481,7 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1"/>
@@ -506,7 +507,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -516,7 +517,7 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1"/>
@@ -542,7 +543,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -552,7 +553,7 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="1"/>
@@ -578,7 +579,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -588,7 +589,7 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1"/>
@@ -614,7 +615,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -624,7 +625,7 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1"/>
@@ -650,7 +651,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -660,7 +661,7 @@
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1"/>
@@ -686,7 +687,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -696,7 +697,7 @@
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="1"/>
@@ -722,7 +723,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -732,7 +733,7 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1"/>
@@ -758,7 +759,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,7 +769,7 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="1"/>
@@ -794,7 +795,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,7 +805,7 @@
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="1"/>
@@ -830,7 +831,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -840,7 +841,7 @@
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="1"/>
@@ -866,7 +867,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -894,7 +895,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -922,7 +923,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -950,7 +951,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -978,7 +979,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1006,7 +1007,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1034,7 +1035,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1062,7 +1063,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1090,7 +1091,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1118,7 +1119,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1146,7 +1147,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1174,7 +1175,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1202,7 +1203,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1230,7 +1231,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1258,7 +1259,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1286,7 +1287,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1314,7 +1315,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1342,7 +1343,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1370,7 +1371,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1398,7 +1399,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1426,7 +1427,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1454,7 +1455,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1482,7 +1483,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1510,7 +1511,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1538,7 +1539,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1566,7 +1567,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1594,7 +1595,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1622,7 +1623,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1650,7 +1651,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1678,7 +1679,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1706,7 +1707,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1734,7 +1735,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1762,7 +1763,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1790,7 +1791,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1818,7 +1819,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1846,7 +1847,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1874,7 +1875,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1902,7 +1903,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1930,7 +1931,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1958,7 +1959,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1986,7 +1987,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2014,7 +2015,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2042,7 +2043,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2070,7 +2071,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2098,7 +2099,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2126,7 +2127,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2154,7 +2155,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2182,7 +2183,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2210,7 +2211,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2238,7 +2239,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2266,7 +2267,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2294,7 +2295,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2322,7 +2323,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2350,7 +2351,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2378,7 +2379,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2406,7 +2407,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2434,7 +2435,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2462,7 +2463,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2490,7 +2491,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2518,7 +2519,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2546,7 +2547,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2574,7 +2575,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2602,7 +2603,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2630,7 +2631,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2658,7 +2659,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2686,7 +2687,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2714,7 +2715,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2742,7 +2743,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2770,7 +2771,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2798,7 +2799,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2826,7 +2827,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2854,7 +2855,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2882,7 +2883,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2910,7 +2911,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2938,7 +2939,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2966,7 +2967,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2994,7 +2995,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3022,7 +3023,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3050,7 +3051,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3078,7 +3079,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3106,7 +3107,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3134,7 +3135,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3162,7 +3163,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3190,7 +3191,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3218,7 +3219,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3246,7 +3247,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3274,7 +3275,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3302,7 +3303,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3330,7 +3331,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3358,7 +3359,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3386,7 +3387,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3414,7 +3415,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3442,7 +3443,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3470,7 +3471,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3498,7 +3499,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3526,7 +3527,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3554,7 +3555,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3582,7 +3583,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3610,7 +3611,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3638,7 +3639,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3666,7 +3667,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3694,7 +3695,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3722,7 +3723,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3750,7 +3751,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3778,7 +3779,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3806,7 +3807,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3834,7 +3835,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3862,7 +3863,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3890,7 +3891,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3918,7 +3919,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3946,7 +3947,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3974,7 +3975,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4002,7 +4003,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4030,7 +4031,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4058,7 +4059,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4086,7 +4087,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4114,7 +4115,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4142,7 +4143,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4170,7 +4171,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4198,7 +4199,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4226,7 +4227,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4254,7 +4255,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4282,7 +4283,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4310,7 +4311,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4338,7 +4339,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4366,7 +4367,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4394,7 +4395,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4422,7 +4423,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4450,7 +4451,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4478,7 +4479,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4506,7 +4507,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4534,7 +4535,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4562,7 +4563,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4590,7 +4591,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4618,7 +4619,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4646,7 +4647,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4674,7 +4675,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4702,7 +4703,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4730,7 +4731,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4758,7 +4759,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4786,7 +4787,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4814,7 +4815,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4842,7 +4843,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4870,7 +4871,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4898,7 +4899,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4926,7 +4927,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4954,7 +4955,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4982,7 +4983,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5010,7 +5011,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5038,7 +5039,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5066,7 +5067,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5094,7 +5095,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5122,7 +5123,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5150,7 +5151,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5178,7 +5179,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5206,7 +5207,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5234,7 +5235,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5262,7 +5263,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5290,7 +5291,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5318,7 +5319,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5346,7 +5347,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5374,7 +5375,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5402,7 +5403,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5430,7 +5431,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5458,7 +5459,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5486,7 +5487,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5514,7 +5515,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5542,7 +5543,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5570,7 +5571,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5598,7 +5599,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5626,7 +5627,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5654,7 +5655,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5682,7 +5683,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5710,7 +5711,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5738,7 +5739,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5766,7 +5767,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5794,7 +5795,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5822,7 +5823,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5850,7 +5851,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5878,7 +5879,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5906,7 +5907,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5934,7 +5935,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5962,7 +5963,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5990,7 +5991,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6018,7 +6019,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6046,7 +6047,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6074,7 +6075,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6102,7 +6103,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6130,7 +6131,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6158,7 +6159,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6186,7 +6187,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6214,7 +6215,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6242,7 +6243,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6270,7 +6271,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6298,7 +6299,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6326,7 +6327,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6354,7 +6355,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6382,7 +6383,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6410,7 +6411,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6438,7 +6439,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6466,7 +6467,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6494,7 +6495,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6522,7 +6523,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6550,7 +6551,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6578,7 +6579,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6606,7 +6607,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6634,7 +6635,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6662,7 +6663,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6690,7 +6691,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6718,7 +6719,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6746,7 +6747,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6774,7 +6775,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6802,7 +6803,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6830,7 +6831,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6858,7 +6859,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6886,7 +6887,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6914,7 +6915,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6942,7 +6943,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6970,7 +6971,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6998,7 +6999,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7026,7 +7027,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7054,7 +7055,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7082,7 +7083,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7110,7 +7111,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7138,7 +7139,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7166,7 +7167,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7194,7 +7195,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7222,7 +7223,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7250,7 +7251,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7278,7 +7279,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7306,7 +7307,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7334,7 +7335,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7362,7 +7363,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -7390,7 +7391,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -7418,7 +7419,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7446,7 +7447,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -7474,7 +7475,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -7502,7 +7503,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -7530,7 +7531,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -7558,7 +7559,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -7586,7 +7587,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -7614,7 +7615,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -7642,7 +7643,7 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -7670,7 +7671,7 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -7698,7 +7699,7 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -7726,7 +7727,7 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -7754,7 +7755,7 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -7782,7 +7783,7 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -7810,7 +7811,7 @@
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
     </row>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -7838,7 +7839,7 @@
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
     </row>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -7866,7 +7867,7 @@
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
     </row>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -7894,7 +7895,7 @@
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
     </row>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -7922,7 +7923,7 @@
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
     </row>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -7950,7 +7951,7 @@
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
     </row>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -7978,7 +7979,7 @@
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
     </row>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -8006,7 +8007,7 @@
       <c r="Y268" s="1"/>
       <c r="Z268" s="1"/>
     </row>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -8034,7 +8035,7 @@
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
     </row>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -8062,7 +8063,7 @@
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
     </row>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -8090,7 +8091,7 @@
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
     </row>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -8118,7 +8119,7 @@
       <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
     </row>
-    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -8146,7 +8147,7 @@
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
     </row>
-    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -8174,7 +8175,7 @@
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
     </row>
-    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -8202,7 +8203,7 @@
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
     </row>
-    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -8230,7 +8231,7 @@
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
     </row>
-    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -8258,7 +8259,7 @@
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
     </row>
-    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -8286,7 +8287,7 @@
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
     </row>
-    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -8314,7 +8315,7 @@
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
     </row>
-    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -8342,7 +8343,7 @@
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
     </row>
-    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -8370,7 +8371,7 @@
       <c r="Y281" s="1"/>
       <c r="Z281" s="1"/>
     </row>
-    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -8398,7 +8399,7 @@
       <c r="Y282" s="1"/>
       <c r="Z282" s="1"/>
     </row>
-    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -8426,7 +8427,7 @@
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
     </row>
-    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8454,7 +8455,7 @@
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
     </row>
-    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -8482,7 +8483,7 @@
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
     </row>
-    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -8510,7 +8511,7 @@
       <c r="Y286" s="1"/>
       <c r="Z286" s="1"/>
     </row>
-    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -8538,7 +8539,7 @@
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
     </row>
-    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -8566,7 +8567,7 @@
       <c r="Y288" s="1"/>
       <c r="Z288" s="1"/>
     </row>
-    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -8594,7 +8595,7 @@
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
     </row>
-    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -8622,7 +8623,7 @@
       <c r="Y290" s="1"/>
       <c r="Z290" s="1"/>
     </row>
-    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -8650,7 +8651,7 @@
       <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
     </row>
-    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -8678,7 +8679,7 @@
       <c r="Y292" s="1"/>
       <c r="Z292" s="1"/>
     </row>
-    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -8706,7 +8707,7 @@
       <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
     </row>
-    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -8734,7 +8735,7 @@
       <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
     </row>
-    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -8762,7 +8763,7 @@
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
     </row>
-    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -8790,7 +8791,7 @@
       <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
     </row>
-    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -8818,7 +8819,7 @@
       <c r="Y297" s="1"/>
       <c r="Z297" s="1"/>
     </row>
-    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -8846,7 +8847,7 @@
       <c r="Y298" s="1"/>
       <c r="Z298" s="1"/>
     </row>
-    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -8874,7 +8875,7 @@
       <c r="Y299" s="1"/>
       <c r="Z299" s="1"/>
     </row>
-    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -8902,7 +8903,7 @@
       <c r="Y300" s="1"/>
       <c r="Z300" s="1"/>
     </row>
-    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -8930,7 +8931,7 @@
       <c r="Y301" s="1"/>
       <c r="Z301" s="1"/>
     </row>
-    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -8958,7 +8959,7 @@
       <c r="Y302" s="1"/>
       <c r="Z302" s="1"/>
     </row>
-    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -8986,7 +8987,7 @@
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
     </row>
-    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -9014,7 +9015,7 @@
       <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
     </row>
-    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -9042,7 +9043,7 @@
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
     </row>
-    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9070,7 +9071,7 @@
       <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
     </row>
-    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -9098,7 +9099,7 @@
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
     </row>
-    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -9126,7 +9127,7 @@
       <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
     </row>
-    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -9154,7 +9155,7 @@
       <c r="Y309" s="1"/>
       <c r="Z309" s="1"/>
     </row>
-    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -9182,7 +9183,7 @@
       <c r="Y310" s="1"/>
       <c r="Z310" s="1"/>
     </row>
-    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -9210,7 +9211,7 @@
       <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
     </row>
-    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -9238,7 +9239,7 @@
       <c r="Y312" s="1"/>
       <c r="Z312" s="1"/>
     </row>
-    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -9266,7 +9267,7 @@
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
     </row>
-    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -9294,7 +9295,7 @@
       <c r="Y314" s="1"/>
       <c r="Z314" s="1"/>
     </row>
-    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -9322,7 +9323,7 @@
       <c r="Y315" s="1"/>
       <c r="Z315" s="1"/>
     </row>
-    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -9350,7 +9351,7 @@
       <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
     </row>
-    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -9378,7 +9379,7 @@
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
     </row>
-    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -9406,7 +9407,7 @@
       <c r="Y318" s="1"/>
       <c r="Z318" s="1"/>
     </row>
-    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -9434,7 +9435,7 @@
       <c r="Y319" s="1"/>
       <c r="Z319" s="1"/>
     </row>
-    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -9462,7 +9463,7 @@
       <c r="Y320" s="1"/>
       <c r="Z320" s="1"/>
     </row>
-    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9490,7 +9491,7 @@
       <c r="Y321" s="1"/>
       <c r="Z321" s="1"/>
     </row>
-    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9518,7 +9519,7 @@
       <c r="Y322" s="1"/>
       <c r="Z322" s="1"/>
     </row>
-    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9546,7 +9547,7 @@
       <c r="Y323" s="1"/>
       <c r="Z323" s="1"/>
     </row>
-    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9574,7 +9575,7 @@
       <c r="Y324" s="1"/>
       <c r="Z324" s="1"/>
     </row>
-    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -9602,7 +9603,7 @@
       <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
     </row>
-    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -9630,7 +9631,7 @@
       <c r="Y326" s="1"/>
       <c r="Z326" s="1"/>
     </row>
-    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -9658,7 +9659,7 @@
       <c r="Y327" s="1"/>
       <c r="Z327" s="1"/>
     </row>
-    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -9686,7 +9687,7 @@
       <c r="Y328" s="1"/>
       <c r="Z328" s="1"/>
     </row>
-    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -9714,7 +9715,7 @@
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
     </row>
-    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -9742,7 +9743,7 @@
       <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
     </row>
-    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -9770,7 +9771,7 @@
       <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
     </row>
-    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -9798,7 +9799,7 @@
       <c r="Y332" s="1"/>
       <c r="Z332" s="1"/>
     </row>
-    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -9826,7 +9827,7 @@
       <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
     </row>
-    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -9854,7 +9855,7 @@
       <c r="Y334" s="1"/>
       <c r="Z334" s="1"/>
     </row>
-    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -9882,7 +9883,7 @@
       <c r="Y335" s="1"/>
       <c r="Z335" s="1"/>
     </row>
-    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -9910,7 +9911,7 @@
       <c r="Y336" s="1"/>
       <c r="Z336" s="1"/>
     </row>
-    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -9938,7 +9939,7 @@
       <c r="Y337" s="1"/>
       <c r="Z337" s="1"/>
     </row>
-    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -9966,7 +9967,7 @@
       <c r="Y338" s="1"/>
       <c r="Z338" s="1"/>
     </row>
-    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -9994,7 +9995,7 @@
       <c r="Y339" s="1"/>
       <c r="Z339" s="1"/>
     </row>
-    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10022,7 +10023,7 @@
       <c r="Y340" s="1"/>
       <c r="Z340" s="1"/>
     </row>
-    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10050,7 +10051,7 @@
       <c r="Y341" s="1"/>
       <c r="Z341" s="1"/>
     </row>
-    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10078,7 +10079,7 @@
       <c r="Y342" s="1"/>
       <c r="Z342" s="1"/>
     </row>
-    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10106,7 +10107,7 @@
       <c r="Y343" s="1"/>
       <c r="Z343" s="1"/>
     </row>
-    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10134,7 +10135,7 @@
       <c r="Y344" s="1"/>
       <c r="Z344" s="1"/>
     </row>
-    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10162,7 +10163,7 @@
       <c r="Y345" s="1"/>
       <c r="Z345" s="1"/>
     </row>
-    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10190,7 +10191,7 @@
       <c r="Y346" s="1"/>
       <c r="Z346" s="1"/>
     </row>
-    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10218,7 +10219,7 @@
       <c r="Y347" s="1"/>
       <c r="Z347" s="1"/>
     </row>
-    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10246,7 +10247,7 @@
       <c r="Y348" s="1"/>
       <c r="Z348" s="1"/>
     </row>
-    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10274,7 +10275,7 @@
       <c r="Y349" s="1"/>
       <c r="Z349" s="1"/>
     </row>
-    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10302,7 +10303,7 @@
       <c r="Y350" s="1"/>
       <c r="Z350" s="1"/>
     </row>
-    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10330,7 +10331,7 @@
       <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
     </row>
-    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -10358,7 +10359,7 @@
       <c r="Y352" s="1"/>
       <c r="Z352" s="1"/>
     </row>
-    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -10386,7 +10387,7 @@
       <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
     </row>
-    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -10414,7 +10415,7 @@
       <c r="Y354" s="1"/>
       <c r="Z354" s="1"/>
     </row>
-    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -10442,7 +10443,7 @@
       <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
     </row>
-    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -10470,7 +10471,7 @@
       <c r="Y356" s="1"/>
       <c r="Z356" s="1"/>
     </row>
-    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -10498,7 +10499,7 @@
       <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
     </row>
-    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -10526,7 +10527,7 @@
       <c r="Y358" s="1"/>
       <c r="Z358" s="1"/>
     </row>
-    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -10554,7 +10555,7 @@
       <c r="Y359" s="1"/>
       <c r="Z359" s="1"/>
     </row>
-    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -10582,7 +10583,7 @@
       <c r="Y360" s="1"/>
       <c r="Z360" s="1"/>
     </row>
-    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -10610,7 +10611,7 @@
       <c r="Y361" s="1"/>
       <c r="Z361" s="1"/>
     </row>
-    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -10638,7 +10639,7 @@
       <c r="Y362" s="1"/>
       <c r="Z362" s="1"/>
     </row>
-    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -10666,7 +10667,7 @@
       <c r="Y363" s="1"/>
       <c r="Z363" s="1"/>
     </row>
-    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -10694,7 +10695,7 @@
       <c r="Y364" s="1"/>
       <c r="Z364" s="1"/>
     </row>
-    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -10722,7 +10723,7 @@
       <c r="Y365" s="1"/>
       <c r="Z365" s="1"/>
     </row>
-    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -10750,7 +10751,7 @@
       <c r="Y366" s="1"/>
       <c r="Z366" s="1"/>
     </row>
-    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -10778,7 +10779,7 @@
       <c r="Y367" s="1"/>
       <c r="Z367" s="1"/>
     </row>
-    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -10806,7 +10807,7 @@
       <c r="Y368" s="1"/>
       <c r="Z368" s="1"/>
     </row>
-    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -10834,7 +10835,7 @@
       <c r="Y369" s="1"/>
       <c r="Z369" s="1"/>
     </row>
-    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -10862,7 +10863,7 @@
       <c r="Y370" s="1"/>
       <c r="Z370" s="1"/>
     </row>
-    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -10890,7 +10891,7 @@
       <c r="Y371" s="1"/>
       <c r="Z371" s="1"/>
     </row>
-    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -10918,7 +10919,7 @@
       <c r="Y372" s="1"/>
       <c r="Z372" s="1"/>
     </row>
-    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -10946,7 +10947,7 @@
       <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
     </row>
-    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -10974,7 +10975,7 @@
       <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
     </row>
-    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -11002,7 +11003,7 @@
       <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
     </row>
-    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -11030,7 +11031,7 @@
       <c r="Y376" s="1"/>
       <c r="Z376" s="1"/>
     </row>
-    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11058,7 +11059,7 @@
       <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
     </row>
-    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11086,7 +11087,7 @@
       <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
     </row>
-    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11114,7 +11115,7 @@
       <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
     </row>
-    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11142,7 +11143,7 @@
       <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
     </row>
-    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -11170,7 +11171,7 @@
       <c r="Y381" s="1"/>
       <c r="Z381" s="1"/>
     </row>
-    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -11198,7 +11199,7 @@
       <c r="Y382" s="1"/>
       <c r="Z382" s="1"/>
     </row>
-    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -11226,7 +11227,7 @@
       <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
     </row>
-    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -11254,7 +11255,7 @@
       <c r="Y384" s="1"/>
       <c r="Z384" s="1"/>
     </row>
-    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -11282,7 +11283,7 @@
       <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
     </row>
-    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -11310,7 +11311,7 @@
       <c r="Y386" s="1"/>
       <c r="Z386" s="1"/>
     </row>
-    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -11338,7 +11339,7 @@
       <c r="Y387" s="1"/>
       <c r="Z387" s="1"/>
     </row>
-    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -11366,7 +11367,7 @@
       <c r="Y388" s="1"/>
       <c r="Z388" s="1"/>
     </row>
-    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -11394,7 +11395,7 @@
       <c r="Y389" s="1"/>
       <c r="Z389" s="1"/>
     </row>
-    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11422,7 +11423,7 @@
       <c r="Y390" s="1"/>
       <c r="Z390" s="1"/>
     </row>
-    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -11450,7 +11451,7 @@
       <c r="Y391" s="1"/>
       <c r="Z391" s="1"/>
     </row>
-    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -11478,7 +11479,7 @@
       <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
     </row>
-    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -11506,7 +11507,7 @@
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
     </row>
-    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -11534,7 +11535,7 @@
       <c r="Y394" s="1"/>
       <c r="Z394" s="1"/>
     </row>
-    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -11562,7 +11563,7 @@
       <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
     </row>
-    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -11590,7 +11591,7 @@
       <c r="Y396" s="1"/>
       <c r="Z396" s="1"/>
     </row>
-    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -11618,7 +11619,7 @@
       <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
     </row>
-    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -11646,7 +11647,7 @@
       <c r="Y398" s="1"/>
       <c r="Z398" s="1"/>
     </row>
-    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -11674,7 +11675,7 @@
       <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
     </row>
-    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -11702,7 +11703,7 @@
       <c r="Y400" s="1"/>
       <c r="Z400" s="1"/>
     </row>
-    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -11730,7 +11731,7 @@
       <c r="Y401" s="1"/>
       <c r="Z401" s="1"/>
     </row>
-    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -11758,7 +11759,7 @@
       <c r="Y402" s="1"/>
       <c r="Z402" s="1"/>
     </row>
-    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -11786,7 +11787,7 @@
       <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
     </row>
-    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -11814,7 +11815,7 @@
       <c r="Y404" s="1"/>
       <c r="Z404" s="1"/>
     </row>
-    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -11842,7 +11843,7 @@
       <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
     </row>
-    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -11870,7 +11871,7 @@
       <c r="Y406" s="1"/>
       <c r="Z406" s="1"/>
     </row>
-    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -11898,7 +11899,7 @@
       <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
     </row>
-    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -11926,7 +11927,7 @@
       <c r="Y408" s="1"/>
       <c r="Z408" s="1"/>
     </row>
-    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -11954,7 +11955,7 @@
       <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
     </row>
-    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -11982,7 +11983,7 @@
       <c r="Y410" s="1"/>
       <c r="Z410" s="1"/>
     </row>
-    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -12010,7 +12011,7 @@
       <c r="Y411" s="1"/>
       <c r="Z411" s="1"/>
     </row>
-    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -12038,7 +12039,7 @@
       <c r="Y412" s="1"/>
       <c r="Z412" s="1"/>
     </row>
-    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -12066,7 +12067,7 @@
       <c r="Y413" s="1"/>
       <c r="Z413" s="1"/>
     </row>
-    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -12094,7 +12095,7 @@
       <c r="Y414" s="1"/>
       <c r="Z414" s="1"/>
     </row>
-    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -12122,7 +12123,7 @@
       <c r="Y415" s="1"/>
       <c r="Z415" s="1"/>
     </row>
-    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -12150,7 +12151,7 @@
       <c r="Y416" s="1"/>
       <c r="Z416" s="1"/>
     </row>
-    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -12178,7 +12179,7 @@
       <c r="Y417" s="1"/>
       <c r="Z417" s="1"/>
     </row>
-    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -12206,7 +12207,7 @@
       <c r="Y418" s="1"/>
       <c r="Z418" s="1"/>
     </row>
-    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -12234,7 +12235,7 @@
       <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
     </row>
-    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -12262,7 +12263,7 @@
       <c r="Y420" s="1"/>
       <c r="Z420" s="1"/>
     </row>
-    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -12290,7 +12291,7 @@
       <c r="Y421" s="1"/>
       <c r="Z421" s="1"/>
     </row>
-    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -12318,7 +12319,7 @@
       <c r="Y422" s="1"/>
       <c r="Z422" s="1"/>
     </row>
-    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -12346,7 +12347,7 @@
       <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
     </row>
-    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -12374,7 +12375,7 @@
       <c r="Y424" s="1"/>
       <c r="Z424" s="1"/>
     </row>
-    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -12402,7 +12403,7 @@
       <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
     </row>
-    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -12430,7 +12431,7 @@
       <c r="Y426" s="1"/>
       <c r="Z426" s="1"/>
     </row>
-    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -12458,7 +12459,7 @@
       <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
     </row>
-    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -12486,7 +12487,7 @@
       <c r="Y428" s="1"/>
       <c r="Z428" s="1"/>
     </row>
-    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -12514,7 +12515,7 @@
       <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
     </row>
-    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -12542,7 +12543,7 @@
       <c r="Y430" s="1"/>
       <c r="Z430" s="1"/>
     </row>
-    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -12570,7 +12571,7 @@
       <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
     </row>
-    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -12598,7 +12599,7 @@
       <c r="Y432" s="1"/>
       <c r="Z432" s="1"/>
     </row>
-    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -12626,7 +12627,7 @@
       <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
     </row>
-    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -12654,7 +12655,7 @@
       <c r="Y434" s="1"/>
       <c r="Z434" s="1"/>
     </row>
-    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -12682,7 +12683,7 @@
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
     </row>
-    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -12710,7 +12711,7 @@
       <c r="Y436" s="1"/>
       <c r="Z436" s="1"/>
     </row>
-    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -12738,7 +12739,7 @@
       <c r="Y437" s="1"/>
       <c r="Z437" s="1"/>
     </row>
-    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -12766,7 +12767,7 @@
       <c r="Y438" s="1"/>
       <c r="Z438" s="1"/>
     </row>
-    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -12794,7 +12795,7 @@
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
     </row>
-    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -12822,7 +12823,7 @@
       <c r="Y440" s="1"/>
       <c r="Z440" s="1"/>
     </row>
-    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -12850,7 +12851,7 @@
       <c r="Y441" s="1"/>
       <c r="Z441" s="1"/>
     </row>
-    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -12878,7 +12879,7 @@
       <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
     </row>
-    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -12906,7 +12907,7 @@
       <c r="Y443" s="1"/>
       <c r="Z443" s="1"/>
     </row>
-    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -12934,7 +12935,7 @@
       <c r="Y444" s="1"/>
       <c r="Z444" s="1"/>
     </row>
-    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -12962,7 +12963,7 @@
       <c r="Y445" s="1"/>
       <c r="Z445" s="1"/>
     </row>
-    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -12990,7 +12991,7 @@
       <c r="Y446" s="1"/>
       <c r="Z446" s="1"/>
     </row>
-    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -13018,7 +13019,7 @@
       <c r="Y447" s="1"/>
       <c r="Z447" s="1"/>
     </row>
-    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -13046,7 +13047,7 @@
       <c r="Y448" s="1"/>
       <c r="Z448" s="1"/>
     </row>
-    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -13074,7 +13075,7 @@
       <c r="Y449" s="1"/>
       <c r="Z449" s="1"/>
     </row>
-    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -13102,7 +13103,7 @@
       <c r="Y450" s="1"/>
       <c r="Z450" s="1"/>
     </row>
-    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -13130,7 +13131,7 @@
       <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
     </row>
-    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -13158,7 +13159,7 @@
       <c r="Y452" s="1"/>
       <c r="Z452" s="1"/>
     </row>
-    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -13186,7 +13187,7 @@
       <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
     </row>
-    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -13214,7 +13215,7 @@
       <c r="Y454" s="1"/>
       <c r="Z454" s="1"/>
     </row>
-    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -13242,7 +13243,7 @@
       <c r="Y455" s="1"/>
       <c r="Z455" s="1"/>
     </row>
-    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -13270,7 +13271,7 @@
       <c r="Y456" s="1"/>
       <c r="Z456" s="1"/>
     </row>
-    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -13298,7 +13299,7 @@
       <c r="Y457" s="1"/>
       <c r="Z457" s="1"/>
     </row>
-    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -13326,7 +13327,7 @@
       <c r="Y458" s="1"/>
       <c r="Z458" s="1"/>
     </row>
-    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -13354,7 +13355,7 @@
       <c r="Y459" s="1"/>
       <c r="Z459" s="1"/>
     </row>
-    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -13382,7 +13383,7 @@
       <c r="Y460" s="1"/>
       <c r="Z460" s="1"/>
     </row>
-    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -13410,7 +13411,7 @@
       <c r="Y461" s="1"/>
       <c r="Z461" s="1"/>
     </row>
-    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -13438,7 +13439,7 @@
       <c r="Y462" s="1"/>
       <c r="Z462" s="1"/>
     </row>
-    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -13466,7 +13467,7 @@
       <c r="Y463" s="1"/>
       <c r="Z463" s="1"/>
     </row>
-    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -13494,7 +13495,7 @@
       <c r="Y464" s="1"/>
       <c r="Z464" s="1"/>
     </row>
-    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -13522,7 +13523,7 @@
       <c r="Y465" s="1"/>
       <c r="Z465" s="1"/>
     </row>
-    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -13550,7 +13551,7 @@
       <c r="Y466" s="1"/>
       <c r="Z466" s="1"/>
     </row>
-    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -13578,7 +13579,7 @@
       <c r="Y467" s="1"/>
       <c r="Z467" s="1"/>
     </row>
-    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -13606,7 +13607,7 @@
       <c r="Y468" s="1"/>
       <c r="Z468" s="1"/>
     </row>
-    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -13634,7 +13635,7 @@
       <c r="Y469" s="1"/>
       <c r="Z469" s="1"/>
     </row>
-    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -13662,7 +13663,7 @@
       <c r="Y470" s="1"/>
       <c r="Z470" s="1"/>
     </row>
-    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -13690,7 +13691,7 @@
       <c r="Y471" s="1"/>
       <c r="Z471" s="1"/>
     </row>
-    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -13718,7 +13719,7 @@
       <c r="Y472" s="1"/>
       <c r="Z472" s="1"/>
     </row>
-    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -13746,7 +13747,7 @@
       <c r="Y473" s="1"/>
       <c r="Z473" s="1"/>
     </row>
-    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -13774,7 +13775,7 @@
       <c r="Y474" s="1"/>
       <c r="Z474" s="1"/>
     </row>
-    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -13802,7 +13803,7 @@
       <c r="Y475" s="1"/>
       <c r="Z475" s="1"/>
     </row>
-    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -13830,7 +13831,7 @@
       <c r="Y476" s="1"/>
       <c r="Z476" s="1"/>
     </row>
-    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -13858,7 +13859,7 @@
       <c r="Y477" s="1"/>
       <c r="Z477" s="1"/>
     </row>
-    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -13886,7 +13887,7 @@
       <c r="Y478" s="1"/>
       <c r="Z478" s="1"/>
     </row>
-    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -13914,7 +13915,7 @@
       <c r="Y479" s="1"/>
       <c r="Z479" s="1"/>
     </row>
-    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -13942,7 +13943,7 @@
       <c r="Y480" s="1"/>
       <c r="Z480" s="1"/>
     </row>
-    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -13970,7 +13971,7 @@
       <c r="Y481" s="1"/>
       <c r="Z481" s="1"/>
     </row>
-    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -13998,7 +13999,7 @@
       <c r="Y482" s="1"/>
       <c r="Z482" s="1"/>
     </row>
-    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -14026,7 +14027,7 @@
       <c r="Y483" s="1"/>
       <c r="Z483" s="1"/>
     </row>
-    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -14054,7 +14055,7 @@
       <c r="Y484" s="1"/>
       <c r="Z484" s="1"/>
     </row>
-    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -14082,7 +14083,7 @@
       <c r="Y485" s="1"/>
       <c r="Z485" s="1"/>
     </row>
-    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -14110,7 +14111,7 @@
       <c r="Y486" s="1"/>
       <c r="Z486" s="1"/>
     </row>
-    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -14138,7 +14139,7 @@
       <c r="Y487" s="1"/>
       <c r="Z487" s="1"/>
     </row>
-    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -14166,7 +14167,7 @@
       <c r="Y488" s="1"/>
       <c r="Z488" s="1"/>
     </row>
-    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -14194,7 +14195,7 @@
       <c r="Y489" s="1"/>
       <c r="Z489" s="1"/>
     </row>
-    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -14222,7 +14223,7 @@
       <c r="Y490" s="1"/>
       <c r="Z490" s="1"/>
     </row>
-    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -14250,7 +14251,7 @@
       <c r="Y491" s="1"/>
       <c r="Z491" s="1"/>
     </row>
-    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -14278,7 +14279,7 @@
       <c r="Y492" s="1"/>
       <c r="Z492" s="1"/>
     </row>
-    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -14306,7 +14307,7 @@
       <c r="Y493" s="1"/>
       <c r="Z493" s="1"/>
     </row>
-    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -14334,7 +14335,7 @@
       <c r="Y494" s="1"/>
       <c r="Z494" s="1"/>
     </row>
-    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -14362,7 +14363,7 @@
       <c r="Y495" s="1"/>
       <c r="Z495" s="1"/>
     </row>
-    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -14390,7 +14391,7 @@
       <c r="Y496" s="1"/>
       <c r="Z496" s="1"/>
     </row>
-    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -14418,7 +14419,7 @@
       <c r="Y497" s="1"/>
       <c r="Z497" s="1"/>
     </row>
-    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -14446,7 +14447,7 @@
       <c r="Y498" s="1"/>
       <c r="Z498" s="1"/>
     </row>
-    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -14474,7 +14475,7 @@
       <c r="Y499" s="1"/>
       <c r="Z499" s="1"/>
     </row>
-    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -14502,7 +14503,7 @@
       <c r="Y500" s="1"/>
       <c r="Z500" s="1"/>
     </row>
-    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -14530,7 +14531,7 @@
       <c r="Y501" s="1"/>
       <c r="Z501" s="1"/>
     </row>
-    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -14558,7 +14559,7 @@
       <c r="Y502" s="1"/>
       <c r="Z502" s="1"/>
     </row>
-    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -14586,7 +14587,7 @@
       <c r="Y503" s="1"/>
       <c r="Z503" s="1"/>
     </row>
-    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -14614,7 +14615,7 @@
       <c r="Y504" s="1"/>
       <c r="Z504" s="1"/>
     </row>
-    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -14642,7 +14643,7 @@
       <c r="Y505" s="1"/>
       <c r="Z505" s="1"/>
     </row>
-    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -14670,7 +14671,7 @@
       <c r="Y506" s="1"/>
       <c r="Z506" s="1"/>
     </row>
-    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -14698,7 +14699,7 @@
       <c r="Y507" s="1"/>
       <c r="Z507" s="1"/>
     </row>
-    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -14726,7 +14727,7 @@
       <c r="Y508" s="1"/>
       <c r="Z508" s="1"/>
     </row>
-    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -14754,7 +14755,7 @@
       <c r="Y509" s="1"/>
       <c r="Z509" s="1"/>
     </row>
-    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -14782,7 +14783,7 @@
       <c r="Y510" s="1"/>
       <c r="Z510" s="1"/>
     </row>
-    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -14810,7 +14811,7 @@
       <c r="Y511" s="1"/>
       <c r="Z511" s="1"/>
     </row>
-    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -14838,7 +14839,7 @@
       <c r="Y512" s="1"/>
       <c r="Z512" s="1"/>
     </row>
-    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -14866,7 +14867,7 @@
       <c r="Y513" s="1"/>
       <c r="Z513" s="1"/>
     </row>
-    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -14894,7 +14895,7 @@
       <c r="Y514" s="1"/>
       <c r="Z514" s="1"/>
     </row>
-    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -14922,7 +14923,7 @@
       <c r="Y515" s="1"/>
       <c r="Z515" s="1"/>
     </row>
-    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -14950,7 +14951,7 @@
       <c r="Y516" s="1"/>
       <c r="Z516" s="1"/>
     </row>
-    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -14978,7 +14979,7 @@
       <c r="Y517" s="1"/>
       <c r="Z517" s="1"/>
     </row>
-    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -15006,7 +15007,7 @@
       <c r="Y518" s="1"/>
       <c r="Z518" s="1"/>
     </row>
-    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -15034,7 +15035,7 @@
       <c r="Y519" s="1"/>
       <c r="Z519" s="1"/>
     </row>
-    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -15062,7 +15063,7 @@
       <c r="Y520" s="1"/>
       <c r="Z520" s="1"/>
     </row>
-    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -15090,7 +15091,7 @@
       <c r="Y521" s="1"/>
       <c r="Z521" s="1"/>
     </row>
-    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -15118,7 +15119,7 @@
       <c r="Y522" s="1"/>
       <c r="Z522" s="1"/>
     </row>
-    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -15146,7 +15147,7 @@
       <c r="Y523" s="1"/>
       <c r="Z523" s="1"/>
     </row>
-    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -15174,7 +15175,7 @@
       <c r="Y524" s="1"/>
       <c r="Z524" s="1"/>
     </row>
-    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -15202,7 +15203,7 @@
       <c r="Y525" s="1"/>
       <c r="Z525" s="1"/>
     </row>
-    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -15230,7 +15231,7 @@
       <c r="Y526" s="1"/>
       <c r="Z526" s="1"/>
     </row>
-    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -15258,7 +15259,7 @@
       <c r="Y527" s="1"/>
       <c r="Z527" s="1"/>
     </row>
-    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -15286,7 +15287,7 @@
       <c r="Y528" s="1"/>
       <c r="Z528" s="1"/>
     </row>
-    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -15314,7 +15315,7 @@
       <c r="Y529" s="1"/>
       <c r="Z529" s="1"/>
     </row>
-    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -15342,7 +15343,7 @@
       <c r="Y530" s="1"/>
       <c r="Z530" s="1"/>
     </row>
-    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -15370,7 +15371,7 @@
       <c r="Y531" s="1"/>
       <c r="Z531" s="1"/>
     </row>
-    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -15398,7 +15399,7 @@
       <c r="Y532" s="1"/>
       <c r="Z532" s="1"/>
     </row>
-    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -15426,7 +15427,7 @@
       <c r="Y533" s="1"/>
       <c r="Z533" s="1"/>
     </row>
-    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -15454,7 +15455,7 @@
       <c r="Y534" s="1"/>
       <c r="Z534" s="1"/>
     </row>
-    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -15482,7 +15483,7 @@
       <c r="Y535" s="1"/>
       <c r="Z535" s="1"/>
     </row>
-    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -15510,7 +15511,7 @@
       <c r="Y536" s="1"/>
       <c r="Z536" s="1"/>
     </row>
-    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -15538,7 +15539,7 @@
       <c r="Y537" s="1"/>
       <c r="Z537" s="1"/>
     </row>
-    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -15566,7 +15567,7 @@
       <c r="Y538" s="1"/>
       <c r="Z538" s="1"/>
     </row>
-    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -15594,7 +15595,7 @@
       <c r="Y539" s="1"/>
       <c r="Z539" s="1"/>
     </row>
-    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -15622,7 +15623,7 @@
       <c r="Y540" s="1"/>
       <c r="Z540" s="1"/>
     </row>
-    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -15650,7 +15651,7 @@
       <c r="Y541" s="1"/>
       <c r="Z541" s="1"/>
     </row>
-    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -15678,7 +15679,7 @@
       <c r="Y542" s="1"/>
       <c r="Z542" s="1"/>
     </row>
-    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -15706,7 +15707,7 @@
       <c r="Y543" s="1"/>
       <c r="Z543" s="1"/>
     </row>
-    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -15734,7 +15735,7 @@
       <c r="Y544" s="1"/>
       <c r="Z544" s="1"/>
     </row>
-    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -15762,7 +15763,7 @@
       <c r="Y545" s="1"/>
       <c r="Z545" s="1"/>
     </row>
-    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -15790,7 +15791,7 @@
       <c r="Y546" s="1"/>
       <c r="Z546" s="1"/>
     </row>
-    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -15818,7 +15819,7 @@
       <c r="Y547" s="1"/>
       <c r="Z547" s="1"/>
     </row>
-    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -15846,7 +15847,7 @@
       <c r="Y548" s="1"/>
       <c r="Z548" s="1"/>
     </row>
-    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -15874,7 +15875,7 @@
       <c r="Y549" s="1"/>
       <c r="Z549" s="1"/>
     </row>
-    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -15902,7 +15903,7 @@
       <c r="Y550" s="1"/>
       <c r="Z550" s="1"/>
     </row>
-    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -15930,7 +15931,7 @@
       <c r="Y551" s="1"/>
       <c r="Z551" s="1"/>
     </row>
-    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -15958,7 +15959,7 @@
       <c r="Y552" s="1"/>
       <c r="Z552" s="1"/>
     </row>
-    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -15986,7 +15987,7 @@
       <c r="Y553" s="1"/>
       <c r="Z553" s="1"/>
     </row>
-    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -16014,7 +16015,7 @@
       <c r="Y554" s="1"/>
       <c r="Z554" s="1"/>
     </row>
-    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -16042,7 +16043,7 @@
       <c r="Y555" s="1"/>
       <c r="Z555" s="1"/>
     </row>
-    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -16070,7 +16071,7 @@
       <c r="Y556" s="1"/>
       <c r="Z556" s="1"/>
     </row>
-    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -16098,7 +16099,7 @@
       <c r="Y557" s="1"/>
       <c r="Z557" s="1"/>
     </row>
-    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -16126,7 +16127,7 @@
       <c r="Y558" s="1"/>
       <c r="Z558" s="1"/>
     </row>
-    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -16154,7 +16155,7 @@
       <c r="Y559" s="1"/>
       <c r="Z559" s="1"/>
     </row>
-    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -16182,7 +16183,7 @@
       <c r="Y560" s="1"/>
       <c r="Z560" s="1"/>
     </row>
-    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -16210,7 +16211,7 @@
       <c r="Y561" s="1"/>
       <c r="Z561" s="1"/>
     </row>
-    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -16238,7 +16239,7 @@
       <c r="Y562" s="1"/>
       <c r="Z562" s="1"/>
     </row>
-    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -16266,7 +16267,7 @@
       <c r="Y563" s="1"/>
       <c r="Z563" s="1"/>
     </row>
-    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -16294,7 +16295,7 @@
       <c r="Y564" s="1"/>
       <c r="Z564" s="1"/>
     </row>
-    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -16322,7 +16323,7 @@
       <c r="Y565" s="1"/>
       <c r="Z565" s="1"/>
     </row>
-    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -16350,7 +16351,7 @@
       <c r="Y566" s="1"/>
       <c r="Z566" s="1"/>
     </row>
-    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -16378,7 +16379,7 @@
       <c r="Y567" s="1"/>
       <c r="Z567" s="1"/>
     </row>
-    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -16406,7 +16407,7 @@
       <c r="Y568" s="1"/>
       <c r="Z568" s="1"/>
     </row>
-    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -16434,7 +16435,7 @@
       <c r="Y569" s="1"/>
       <c r="Z569" s="1"/>
     </row>
-    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -16462,7 +16463,7 @@
       <c r="Y570" s="1"/>
       <c r="Z570" s="1"/>
     </row>
-    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -16490,7 +16491,7 @@
       <c r="Y571" s="1"/>
       <c r="Z571" s="1"/>
     </row>
-    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -16518,7 +16519,7 @@
       <c r="Y572" s="1"/>
       <c r="Z572" s="1"/>
     </row>
-    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -16546,7 +16547,7 @@
       <c r="Y573" s="1"/>
       <c r="Z573" s="1"/>
     </row>
-    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -16574,7 +16575,7 @@
       <c r="Y574" s="1"/>
       <c r="Z574" s="1"/>
     </row>
-    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -16602,7 +16603,7 @@
       <c r="Y575" s="1"/>
       <c r="Z575" s="1"/>
     </row>
-    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -16630,7 +16631,7 @@
       <c r="Y576" s="1"/>
       <c r="Z576" s="1"/>
     </row>
-    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -16658,7 +16659,7 @@
       <c r="Y577" s="1"/>
       <c r="Z577" s="1"/>
     </row>
-    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -16686,7 +16687,7 @@
       <c r="Y578" s="1"/>
       <c r="Z578" s="1"/>
     </row>
-    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -16714,7 +16715,7 @@
       <c r="Y579" s="1"/>
       <c r="Z579" s="1"/>
     </row>
-    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -16742,7 +16743,7 @@
       <c r="Y580" s="1"/>
       <c r="Z580" s="1"/>
     </row>
-    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -16770,7 +16771,7 @@
       <c r="Y581" s="1"/>
       <c r="Z581" s="1"/>
     </row>
-    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -16798,7 +16799,7 @@
       <c r="Y582" s="1"/>
       <c r="Z582" s="1"/>
     </row>
-    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -16826,7 +16827,7 @@
       <c r="Y583" s="1"/>
       <c r="Z583" s="1"/>
     </row>
-    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -16854,7 +16855,7 @@
       <c r="Y584" s="1"/>
       <c r="Z584" s="1"/>
     </row>
-    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -16882,7 +16883,7 @@
       <c r="Y585" s="1"/>
       <c r="Z585" s="1"/>
     </row>
-    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -16910,7 +16911,7 @@
       <c r="Y586" s="1"/>
       <c r="Z586" s="1"/>
     </row>
-    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -16938,7 +16939,7 @@
       <c r="Y587" s="1"/>
       <c r="Z587" s="1"/>
     </row>
-    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -16966,7 +16967,7 @@
       <c r="Y588" s="1"/>
       <c r="Z588" s="1"/>
     </row>
-    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -16994,7 +16995,7 @@
       <c r="Y589" s="1"/>
       <c r="Z589" s="1"/>
     </row>
-    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -17022,7 +17023,7 @@
       <c r="Y590" s="1"/>
       <c r="Z590" s="1"/>
     </row>
-    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -17050,7 +17051,7 @@
       <c r="Y591" s="1"/>
       <c r="Z591" s="1"/>
     </row>
-    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -17078,7 +17079,7 @@
       <c r="Y592" s="1"/>
       <c r="Z592" s="1"/>
     </row>
-    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -17106,7 +17107,7 @@
       <c r="Y593" s="1"/>
       <c r="Z593" s="1"/>
     </row>
-    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -17134,7 +17135,7 @@
       <c r="Y594" s="1"/>
       <c r="Z594" s="1"/>
     </row>
-    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -17162,7 +17163,7 @@
       <c r="Y595" s="1"/>
       <c r="Z595" s="1"/>
     </row>
-    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -17190,7 +17191,7 @@
       <c r="Y596" s="1"/>
       <c r="Z596" s="1"/>
     </row>
-    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -17218,7 +17219,7 @@
       <c r="Y597" s="1"/>
       <c r="Z597" s="1"/>
     </row>
-    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -17246,7 +17247,7 @@
       <c r="Y598" s="1"/>
       <c r="Z598" s="1"/>
     </row>
-    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -17274,7 +17275,7 @@
       <c r="Y599" s="1"/>
       <c r="Z599" s="1"/>
     </row>
-    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -17302,7 +17303,7 @@
       <c r="Y600" s="1"/>
       <c r="Z600" s="1"/>
     </row>
-    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -17330,7 +17331,7 @@
       <c r="Y601" s="1"/>
       <c r="Z601" s="1"/>
     </row>
-    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -17358,7 +17359,7 @@
       <c r="Y602" s="1"/>
       <c r="Z602" s="1"/>
     </row>
-    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -17386,7 +17387,7 @@
       <c r="Y603" s="1"/>
       <c r="Z603" s="1"/>
     </row>
-    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -17414,7 +17415,7 @@
       <c r="Y604" s="1"/>
       <c r="Z604" s="1"/>
     </row>
-    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -17442,7 +17443,7 @@
       <c r="Y605" s="1"/>
       <c r="Z605" s="1"/>
     </row>
-    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -17470,7 +17471,7 @@
       <c r="Y606" s="1"/>
       <c r="Z606" s="1"/>
     </row>
-    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -17498,7 +17499,7 @@
       <c r="Y607" s="1"/>
       <c r="Z607" s="1"/>
     </row>
-    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -17526,7 +17527,7 @@
       <c r="Y608" s="1"/>
       <c r="Z608" s="1"/>
     </row>
-    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -17554,7 +17555,7 @@
       <c r="Y609" s="1"/>
       <c r="Z609" s="1"/>
     </row>
-    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -17582,7 +17583,7 @@
       <c r="Y610" s="1"/>
       <c r="Z610" s="1"/>
     </row>
-    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -17610,7 +17611,7 @@
       <c r="Y611" s="1"/>
       <c r="Z611" s="1"/>
     </row>
-    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -17638,7 +17639,7 @@
       <c r="Y612" s="1"/>
       <c r="Z612" s="1"/>
     </row>
-    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -17666,7 +17667,7 @@
       <c r="Y613" s="1"/>
       <c r="Z613" s="1"/>
     </row>
-    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -17694,7 +17695,7 @@
       <c r="Y614" s="1"/>
       <c r="Z614" s="1"/>
     </row>
-    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -17722,7 +17723,7 @@
       <c r="Y615" s="1"/>
       <c r="Z615" s="1"/>
     </row>
-    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -17750,7 +17751,7 @@
       <c r="Y616" s="1"/>
       <c r="Z616" s="1"/>
     </row>
-    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -17778,7 +17779,7 @@
       <c r="Y617" s="1"/>
       <c r="Z617" s="1"/>
     </row>
-    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -17806,7 +17807,7 @@
       <c r="Y618" s="1"/>
       <c r="Z618" s="1"/>
     </row>
-    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -17834,7 +17835,7 @@
       <c r="Y619" s="1"/>
       <c r="Z619" s="1"/>
     </row>
-    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -17862,7 +17863,7 @@
       <c r="Y620" s="1"/>
       <c r="Z620" s="1"/>
     </row>
-    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -17890,7 +17891,7 @@
       <c r="Y621" s="1"/>
       <c r="Z621" s="1"/>
     </row>
-    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -17918,7 +17919,7 @@
       <c r="Y622" s="1"/>
       <c r="Z622" s="1"/>
     </row>
-    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -17946,7 +17947,7 @@
       <c r="Y623" s="1"/>
       <c r="Z623" s="1"/>
     </row>
-    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -17974,7 +17975,7 @@
       <c r="Y624" s="1"/>
       <c r="Z624" s="1"/>
     </row>
-    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -18002,7 +18003,7 @@
       <c r="Y625" s="1"/>
       <c r="Z625" s="1"/>
     </row>
-    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -18030,7 +18031,7 @@
       <c r="Y626" s="1"/>
       <c r="Z626" s="1"/>
     </row>
-    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -18058,7 +18059,7 @@
       <c r="Y627" s="1"/>
       <c r="Z627" s="1"/>
     </row>
-    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -18086,7 +18087,7 @@
       <c r="Y628" s="1"/>
       <c r="Z628" s="1"/>
     </row>
-    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -18114,7 +18115,7 @@
       <c r="Y629" s="1"/>
       <c r="Z629" s="1"/>
     </row>
-    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -18142,7 +18143,7 @@
       <c r="Y630" s="1"/>
       <c r="Z630" s="1"/>
     </row>
-    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -18170,7 +18171,7 @@
       <c r="Y631" s="1"/>
       <c r="Z631" s="1"/>
     </row>
-    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -18198,7 +18199,7 @@
       <c r="Y632" s="1"/>
       <c r="Z632" s="1"/>
     </row>
-    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -18226,7 +18227,7 @@
       <c r="Y633" s="1"/>
       <c r="Z633" s="1"/>
     </row>
-    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -18254,7 +18255,7 @@
       <c r="Y634" s="1"/>
       <c r="Z634" s="1"/>
     </row>
-    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -18282,7 +18283,7 @@
       <c r="Y635" s="1"/>
       <c r="Z635" s="1"/>
     </row>
-    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -18310,7 +18311,7 @@
       <c r="Y636" s="1"/>
       <c r="Z636" s="1"/>
     </row>
-    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -18338,7 +18339,7 @@
       <c r="Y637" s="1"/>
       <c r="Z637" s="1"/>
     </row>
-    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -18366,7 +18367,7 @@
       <c r="Y638" s="1"/>
       <c r="Z638" s="1"/>
     </row>
-    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -18394,7 +18395,7 @@
       <c r="Y639" s="1"/>
       <c r="Z639" s="1"/>
     </row>
-    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -18422,7 +18423,7 @@
       <c r="Y640" s="1"/>
       <c r="Z640" s="1"/>
     </row>
-    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -18450,7 +18451,7 @@
       <c r="Y641" s="1"/>
       <c r="Z641" s="1"/>
     </row>
-    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -18478,7 +18479,7 @@
       <c r="Y642" s="1"/>
       <c r="Z642" s="1"/>
     </row>
-    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -18506,7 +18507,7 @@
       <c r="Y643" s="1"/>
       <c r="Z643" s="1"/>
     </row>
-    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -18534,7 +18535,7 @@
       <c r="Y644" s="1"/>
       <c r="Z644" s="1"/>
     </row>
-    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -18562,7 +18563,7 @@
       <c r="Y645" s="1"/>
       <c r="Z645" s="1"/>
     </row>
-    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -18590,7 +18591,7 @@
       <c r="Y646" s="1"/>
       <c r="Z646" s="1"/>
     </row>
-    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -18618,7 +18619,7 @@
       <c r="Y647" s="1"/>
       <c r="Z647" s="1"/>
     </row>
-    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -18646,7 +18647,7 @@
       <c r="Y648" s="1"/>
       <c r="Z648" s="1"/>
     </row>
-    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -18674,7 +18675,7 @@
       <c r="Y649" s="1"/>
       <c r="Z649" s="1"/>
     </row>
-    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -18702,7 +18703,7 @@
       <c r="Y650" s="1"/>
       <c r="Z650" s="1"/>
     </row>
-    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -18730,7 +18731,7 @@
       <c r="Y651" s="1"/>
       <c r="Z651" s="1"/>
     </row>
-    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -18758,7 +18759,7 @@
       <c r="Y652" s="1"/>
       <c r="Z652" s="1"/>
     </row>
-    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -18786,7 +18787,7 @@
       <c r="Y653" s="1"/>
       <c r="Z653" s="1"/>
     </row>
-    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -18814,7 +18815,7 @@
       <c r="Y654" s="1"/>
       <c r="Z654" s="1"/>
     </row>
-    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -18842,7 +18843,7 @@
       <c r="Y655" s="1"/>
       <c r="Z655" s="1"/>
     </row>
-    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -18870,7 +18871,7 @@
       <c r="Y656" s="1"/>
       <c r="Z656" s="1"/>
     </row>
-    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -18898,7 +18899,7 @@
       <c r="Y657" s="1"/>
       <c r="Z657" s="1"/>
     </row>
-    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -18926,7 +18927,7 @@
       <c r="Y658" s="1"/>
       <c r="Z658" s="1"/>
     </row>
-    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -18954,7 +18955,7 @@
       <c r="Y659" s="1"/>
       <c r="Z659" s="1"/>
     </row>
-    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -18982,7 +18983,7 @@
       <c r="Y660" s="1"/>
       <c r="Z660" s="1"/>
     </row>
-    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -19010,7 +19011,7 @@
       <c r="Y661" s="1"/>
       <c r="Z661" s="1"/>
     </row>
-    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -19038,7 +19039,7 @@
       <c r="Y662" s="1"/>
       <c r="Z662" s="1"/>
     </row>
-    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -19066,7 +19067,7 @@
       <c r="Y663" s="1"/>
       <c r="Z663" s="1"/>
     </row>
-    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -19094,7 +19095,7 @@
       <c r="Y664" s="1"/>
       <c r="Z664" s="1"/>
     </row>
-    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -19122,7 +19123,7 @@
       <c r="Y665" s="1"/>
       <c r="Z665" s="1"/>
     </row>
-    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -19150,7 +19151,7 @@
       <c r="Y666" s="1"/>
       <c r="Z666" s="1"/>
     </row>
-    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -19178,7 +19179,7 @@
       <c r="Y667" s="1"/>
       <c r="Z667" s="1"/>
     </row>
-    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -19206,7 +19207,7 @@
       <c r="Y668" s="1"/>
       <c r="Z668" s="1"/>
     </row>
-    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -19234,7 +19235,7 @@
       <c r="Y669" s="1"/>
       <c r="Z669" s="1"/>
     </row>
-    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -19262,7 +19263,7 @@
       <c r="Y670" s="1"/>
       <c r="Z670" s="1"/>
     </row>
-    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -19290,7 +19291,7 @@
       <c r="Y671" s="1"/>
       <c r="Z671" s="1"/>
     </row>
-    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -19318,7 +19319,7 @@
       <c r="Y672" s="1"/>
       <c r="Z672" s="1"/>
     </row>
-    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -19346,7 +19347,7 @@
       <c r="Y673" s="1"/>
       <c r="Z673" s="1"/>
     </row>
-    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -19374,7 +19375,7 @@
       <c r="Y674" s="1"/>
       <c r="Z674" s="1"/>
     </row>
-    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -19402,7 +19403,7 @@
       <c r="Y675" s="1"/>
       <c r="Z675" s="1"/>
     </row>
-    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -19430,7 +19431,7 @@
       <c r="Y676" s="1"/>
       <c r="Z676" s="1"/>
     </row>
-    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -19458,7 +19459,7 @@
       <c r="Y677" s="1"/>
       <c r="Z677" s="1"/>
     </row>
-    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -19486,7 +19487,7 @@
       <c r="Y678" s="1"/>
       <c r="Z678" s="1"/>
     </row>
-    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -19514,7 +19515,7 @@
       <c r="Y679" s="1"/>
       <c r="Z679" s="1"/>
     </row>
-    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -19542,7 +19543,7 @@
       <c r="Y680" s="1"/>
       <c r="Z680" s="1"/>
     </row>
-    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -19570,7 +19571,7 @@
       <c r="Y681" s="1"/>
       <c r="Z681" s="1"/>
     </row>
-    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -19598,7 +19599,7 @@
       <c r="Y682" s="1"/>
       <c r="Z682" s="1"/>
     </row>
-    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -19626,7 +19627,7 @@
       <c r="Y683" s="1"/>
       <c r="Z683" s="1"/>
     </row>
-    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -19654,7 +19655,7 @@
       <c r="Y684" s="1"/>
       <c r="Z684" s="1"/>
     </row>
-    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -19682,7 +19683,7 @@
       <c r="Y685" s="1"/>
       <c r="Z685" s="1"/>
     </row>
-    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -19710,7 +19711,7 @@
       <c r="Y686" s="1"/>
       <c r="Z686" s="1"/>
     </row>
-    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -19738,7 +19739,7 @@
       <c r="Y687" s="1"/>
       <c r="Z687" s="1"/>
     </row>
-    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -19766,7 +19767,7 @@
       <c r="Y688" s="1"/>
       <c r="Z688" s="1"/>
     </row>
-    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -19794,7 +19795,7 @@
       <c r="Y689" s="1"/>
       <c r="Z689" s="1"/>
     </row>
-    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -19822,7 +19823,7 @@
       <c r="Y690" s="1"/>
       <c r="Z690" s="1"/>
     </row>
-    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -19850,7 +19851,7 @@
       <c r="Y691" s="1"/>
       <c r="Z691" s="1"/>
     </row>
-    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -19878,7 +19879,7 @@
       <c r="Y692" s="1"/>
       <c r="Z692" s="1"/>
     </row>
-    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -19906,7 +19907,7 @@
       <c r="Y693" s="1"/>
       <c r="Z693" s="1"/>
     </row>
-    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -19934,7 +19935,7 @@
       <c r="Y694" s="1"/>
       <c r="Z694" s="1"/>
     </row>
-    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -19962,7 +19963,7 @@
       <c r="Y695" s="1"/>
       <c r="Z695" s="1"/>
     </row>
-    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -19990,7 +19991,7 @@
       <c r="Y696" s="1"/>
       <c r="Z696" s="1"/>
     </row>
-    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -20018,7 +20019,7 @@
       <c r="Y697" s="1"/>
       <c r="Z697" s="1"/>
     </row>
-    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -20046,7 +20047,7 @@
       <c r="Y698" s="1"/>
       <c r="Z698" s="1"/>
     </row>
-    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -20074,7 +20075,7 @@
       <c r="Y699" s="1"/>
       <c r="Z699" s="1"/>
     </row>
-    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -20102,7 +20103,7 @@
       <c r="Y700" s="1"/>
       <c r="Z700" s="1"/>
     </row>
-    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -20130,7 +20131,7 @@
       <c r="Y701" s="1"/>
       <c r="Z701" s="1"/>
     </row>
-    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -20158,7 +20159,7 @@
       <c r="Y702" s="1"/>
       <c r="Z702" s="1"/>
     </row>
-    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -20186,7 +20187,7 @@
       <c r="Y703" s="1"/>
       <c r="Z703" s="1"/>
     </row>
-    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -20214,7 +20215,7 @@
       <c r="Y704" s="1"/>
       <c r="Z704" s="1"/>
     </row>
-    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -20242,7 +20243,7 @@
       <c r="Y705" s="1"/>
       <c r="Z705" s="1"/>
     </row>
-    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -20270,7 +20271,7 @@
       <c r="Y706" s="1"/>
       <c r="Z706" s="1"/>
     </row>
-    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -20298,7 +20299,7 @@
       <c r="Y707" s="1"/>
       <c r="Z707" s="1"/>
     </row>
-    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -20326,7 +20327,7 @@
       <c r="Y708" s="1"/>
       <c r="Z708" s="1"/>
     </row>
-    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -20354,7 +20355,7 @@
       <c r="Y709" s="1"/>
       <c r="Z709" s="1"/>
     </row>
-    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -20382,7 +20383,7 @@
       <c r="Y710" s="1"/>
       <c r="Z710" s="1"/>
     </row>
-    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -20410,7 +20411,7 @@
       <c r="Y711" s="1"/>
       <c r="Z711" s="1"/>
     </row>
-    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -20438,7 +20439,7 @@
       <c r="Y712" s="1"/>
       <c r="Z712" s="1"/>
     </row>
-    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -20466,7 +20467,7 @@
       <c r="Y713" s="1"/>
       <c r="Z713" s="1"/>
     </row>
-    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -20494,7 +20495,7 @@
       <c r="Y714" s="1"/>
       <c r="Z714" s="1"/>
     </row>
-    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -20522,7 +20523,7 @@
       <c r="Y715" s="1"/>
       <c r="Z715" s="1"/>
     </row>
-    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -20550,7 +20551,7 @@
       <c r="Y716" s="1"/>
       <c r="Z716" s="1"/>
     </row>
-    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -20578,7 +20579,7 @@
       <c r="Y717" s="1"/>
       <c r="Z717" s="1"/>
     </row>
-    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -20606,7 +20607,7 @@
       <c r="Y718" s="1"/>
       <c r="Z718" s="1"/>
     </row>
-    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -20634,7 +20635,7 @@
       <c r="Y719" s="1"/>
       <c r="Z719" s="1"/>
     </row>
-    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -20662,7 +20663,7 @@
       <c r="Y720" s="1"/>
       <c r="Z720" s="1"/>
     </row>
-    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -20690,7 +20691,7 @@
       <c r="Y721" s="1"/>
       <c r="Z721" s="1"/>
     </row>
-    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -20718,7 +20719,7 @@
       <c r="Y722" s="1"/>
       <c r="Z722" s="1"/>
     </row>
-    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -20746,7 +20747,7 @@
       <c r="Y723" s="1"/>
       <c r="Z723" s="1"/>
     </row>
-    <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -20774,7 +20775,7 @@
       <c r="Y724" s="1"/>
       <c r="Z724" s="1"/>
     </row>
-    <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -20802,7 +20803,7 @@
       <c r="Y725" s="1"/>
       <c r="Z725" s="1"/>
     </row>
-    <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -20830,7 +20831,7 @@
       <c r="Y726" s="1"/>
       <c r="Z726" s="1"/>
     </row>
-    <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -20858,7 +20859,7 @@
       <c r="Y727" s="1"/>
       <c r="Z727" s="1"/>
     </row>
-    <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -20886,7 +20887,7 @@
       <c r="Y728" s="1"/>
       <c r="Z728" s="1"/>
     </row>
-    <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -20914,7 +20915,7 @@
       <c r="Y729" s="1"/>
       <c r="Z729" s="1"/>
     </row>
-    <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -20942,7 +20943,7 @@
       <c r="Y730" s="1"/>
       <c r="Z730" s="1"/>
     </row>
-    <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -20970,7 +20971,7 @@
       <c r="Y731" s="1"/>
       <c r="Z731" s="1"/>
     </row>
-    <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -20998,7 +20999,7 @@
       <c r="Y732" s="1"/>
       <c r="Z732" s="1"/>
     </row>
-    <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -21026,7 +21027,7 @@
       <c r="Y733" s="1"/>
       <c r="Z733" s="1"/>
     </row>
-    <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -21054,7 +21055,7 @@
       <c r="Y734" s="1"/>
       <c r="Z734" s="1"/>
     </row>
-    <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -21082,7 +21083,7 @@
       <c r="Y735" s="1"/>
       <c r="Z735" s="1"/>
     </row>
-    <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -21110,7 +21111,7 @@
       <c r="Y736" s="1"/>
       <c r="Z736" s="1"/>
     </row>
-    <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -21138,7 +21139,7 @@
       <c r="Y737" s="1"/>
       <c r="Z737" s="1"/>
     </row>
-    <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -21166,7 +21167,7 @@
       <c r="Y738" s="1"/>
       <c r="Z738" s="1"/>
     </row>
-    <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -21194,7 +21195,7 @@
       <c r="Y739" s="1"/>
       <c r="Z739" s="1"/>
     </row>
-    <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -21222,7 +21223,7 @@
       <c r="Y740" s="1"/>
       <c r="Z740" s="1"/>
     </row>
-    <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -21250,7 +21251,7 @@
       <c r="Y741" s="1"/>
       <c r="Z741" s="1"/>
     </row>
-    <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -21278,7 +21279,7 @@
       <c r="Y742" s="1"/>
       <c r="Z742" s="1"/>
     </row>
-    <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -21306,7 +21307,7 @@
       <c r="Y743" s="1"/>
       <c r="Z743" s="1"/>
     </row>
-    <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -21334,7 +21335,7 @@
       <c r="Y744" s="1"/>
       <c r="Z744" s="1"/>
     </row>
-    <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -21362,7 +21363,7 @@
       <c r="Y745" s="1"/>
       <c r="Z745" s="1"/>
     </row>
-    <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -21390,7 +21391,7 @@
       <c r="Y746" s="1"/>
       <c r="Z746" s="1"/>
     </row>
-    <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -21418,7 +21419,7 @@
       <c r="Y747" s="1"/>
       <c r="Z747" s="1"/>
     </row>
-    <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -21446,7 +21447,7 @@
       <c r="Y748" s="1"/>
       <c r="Z748" s="1"/>
     </row>
-    <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -21474,7 +21475,7 @@
       <c r="Y749" s="1"/>
       <c r="Z749" s="1"/>
     </row>
-    <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -21502,7 +21503,7 @@
       <c r="Y750" s="1"/>
       <c r="Z750" s="1"/>
     </row>
-    <row r="751" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -21530,7 +21531,7 @@
       <c r="Y751" s="1"/>
       <c r="Z751" s="1"/>
     </row>
-    <row r="752" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -21558,7 +21559,7 @@
       <c r="Y752" s="1"/>
       <c r="Z752" s="1"/>
     </row>
-    <row r="753" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -21586,7 +21587,7 @@
       <c r="Y753" s="1"/>
       <c r="Z753" s="1"/>
     </row>
-    <row r="754" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -21614,7 +21615,7 @@
       <c r="Y754" s="1"/>
       <c r="Z754" s="1"/>
     </row>
-    <row r="755" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -21642,7 +21643,7 @@
       <c r="Y755" s="1"/>
       <c r="Z755" s="1"/>
     </row>
-    <row r="756" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -21670,7 +21671,7 @@
       <c r="Y756" s="1"/>
       <c r="Z756" s="1"/>
     </row>
-    <row r="757" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -21698,7 +21699,7 @@
       <c r="Y757" s="1"/>
       <c r="Z757" s="1"/>
     </row>
-    <row r="758" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -21726,7 +21727,7 @@
       <c r="Y758" s="1"/>
       <c r="Z758" s="1"/>
     </row>
-    <row r="759" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -21754,7 +21755,7 @@
       <c r="Y759" s="1"/>
       <c r="Z759" s="1"/>
     </row>
-    <row r="760" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -21782,7 +21783,7 @@
       <c r="Y760" s="1"/>
       <c r="Z760" s="1"/>
     </row>
-    <row r="761" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -21810,7 +21811,7 @@
       <c r="Y761" s="1"/>
       <c r="Z761" s="1"/>
     </row>
-    <row r="762" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -21838,7 +21839,7 @@
       <c r="Y762" s="1"/>
       <c r="Z762" s="1"/>
     </row>
-    <row r="763" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -21866,7 +21867,7 @@
       <c r="Y763" s="1"/>
       <c r="Z763" s="1"/>
     </row>
-    <row r="764" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -21894,7 +21895,7 @@
       <c r="Y764" s="1"/>
       <c r="Z764" s="1"/>
     </row>
-    <row r="765" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -21922,7 +21923,7 @@
       <c r="Y765" s="1"/>
       <c r="Z765" s="1"/>
     </row>
-    <row r="766" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -21950,7 +21951,7 @@
       <c r="Y766" s="1"/>
       <c r="Z766" s="1"/>
     </row>
-    <row r="767" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -21978,7 +21979,7 @@
       <c r="Y767" s="1"/>
       <c r="Z767" s="1"/>
     </row>
-    <row r="768" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -22006,7 +22007,7 @@
       <c r="Y768" s="1"/>
       <c r="Z768" s="1"/>
     </row>
-    <row r="769" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -22034,7 +22035,7 @@
       <c r="Y769" s="1"/>
       <c r="Z769" s="1"/>
     </row>
-    <row r="770" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -22062,7 +22063,7 @@
       <c r="Y770" s="1"/>
       <c r="Z770" s="1"/>
     </row>
-    <row r="771" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -22090,7 +22091,7 @@
       <c r="Y771" s="1"/>
       <c r="Z771" s="1"/>
     </row>
-    <row r="772" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -22118,7 +22119,7 @@
       <c r="Y772" s="1"/>
       <c r="Z772" s="1"/>
     </row>
-    <row r="773" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -22146,7 +22147,7 @@
       <c r="Y773" s="1"/>
       <c r="Z773" s="1"/>
     </row>
-    <row r="774" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -22174,7 +22175,7 @@
       <c r="Y774" s="1"/>
       <c r="Z774" s="1"/>
     </row>
-    <row r="775" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -22202,7 +22203,7 @@
       <c r="Y775" s="1"/>
       <c r="Z775" s="1"/>
     </row>
-    <row r="776" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -22230,7 +22231,7 @@
       <c r="Y776" s="1"/>
       <c r="Z776" s="1"/>
     </row>
-    <row r="777" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -22258,7 +22259,7 @@
       <c r="Y777" s="1"/>
       <c r="Z777" s="1"/>
     </row>
-    <row r="778" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -22286,7 +22287,7 @@
       <c r="Y778" s="1"/>
       <c r="Z778" s="1"/>
     </row>
-    <row r="779" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -22314,7 +22315,7 @@
       <c r="Y779" s="1"/>
       <c r="Z779" s="1"/>
     </row>
-    <row r="780" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -22342,7 +22343,7 @@
       <c r="Y780" s="1"/>
       <c r="Z780" s="1"/>
     </row>
-    <row r="781" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -22370,7 +22371,7 @@
       <c r="Y781" s="1"/>
       <c r="Z781" s="1"/>
     </row>
-    <row r="782" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -22398,7 +22399,7 @@
       <c r="Y782" s="1"/>
       <c r="Z782" s="1"/>
     </row>
-    <row r="783" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -22426,7 +22427,7 @@
       <c r="Y783" s="1"/>
       <c r="Z783" s="1"/>
     </row>
-    <row r="784" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -22454,7 +22455,7 @@
       <c r="Y784" s="1"/>
       <c r="Z784" s="1"/>
     </row>
-    <row r="785" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -22482,7 +22483,7 @@
       <c r="Y785" s="1"/>
       <c r="Z785" s="1"/>
     </row>
-    <row r="786" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -22510,7 +22511,7 @@
       <c r="Y786" s="1"/>
       <c r="Z786" s="1"/>
     </row>
-    <row r="787" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -22538,7 +22539,7 @@
       <c r="Y787" s="1"/>
       <c r="Z787" s="1"/>
     </row>
-    <row r="788" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -22566,7 +22567,7 @@
       <c r="Y788" s="1"/>
       <c r="Z788" s="1"/>
     </row>
-    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -22594,7 +22595,7 @@
       <c r="Y789" s="1"/>
       <c r="Z789" s="1"/>
     </row>
-    <row r="790" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -22622,7 +22623,7 @@
       <c r="Y790" s="1"/>
       <c r="Z790" s="1"/>
     </row>
-    <row r="791" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -22650,7 +22651,7 @@
       <c r="Y791" s="1"/>
       <c r="Z791" s="1"/>
     </row>
-    <row r="792" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -22678,7 +22679,7 @@
       <c r="Y792" s="1"/>
       <c r="Z792" s="1"/>
     </row>
-    <row r="793" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -22706,7 +22707,7 @@
       <c r="Y793" s="1"/>
       <c r="Z793" s="1"/>
     </row>
-    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -22734,7 +22735,7 @@
       <c r="Y794" s="1"/>
       <c r="Z794" s="1"/>
     </row>
-    <row r="795" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -22762,7 +22763,7 @@
       <c r="Y795" s="1"/>
       <c r="Z795" s="1"/>
     </row>
-    <row r="796" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -22790,7 +22791,7 @@
       <c r="Y796" s="1"/>
       <c r="Z796" s="1"/>
     </row>
-    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -22818,7 +22819,7 @@
       <c r="Y797" s="1"/>
       <c r="Z797" s="1"/>
     </row>
-    <row r="798" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -22846,7 +22847,7 @@
       <c r="Y798" s="1"/>
       <c r="Z798" s="1"/>
     </row>
-    <row r="799" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -22874,7 +22875,7 @@
       <c r="Y799" s="1"/>
       <c r="Z799" s="1"/>
     </row>
-    <row r="800" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -22902,7 +22903,7 @@
       <c r="Y800" s="1"/>
       <c r="Z800" s="1"/>
     </row>
-    <row r="801" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -22930,7 +22931,7 @@
       <c r="Y801" s="1"/>
       <c r="Z801" s="1"/>
     </row>
-    <row r="802" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -22958,7 +22959,7 @@
       <c r="Y802" s="1"/>
       <c r="Z802" s="1"/>
     </row>
-    <row r="803" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -22986,7 +22987,7 @@
       <c r="Y803" s="1"/>
       <c r="Z803" s="1"/>
     </row>
-    <row r="804" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -23014,7 +23015,7 @@
       <c r="Y804" s="1"/>
       <c r="Z804" s="1"/>
     </row>
-    <row r="805" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -23042,7 +23043,7 @@
       <c r="Y805" s="1"/>
       <c r="Z805" s="1"/>
     </row>
-    <row r="806" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -23070,7 +23071,7 @@
       <c r="Y806" s="1"/>
       <c r="Z806" s="1"/>
     </row>
-    <row r="807" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -23098,7 +23099,7 @@
       <c r="Y807" s="1"/>
       <c r="Z807" s="1"/>
     </row>
-    <row r="808" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -23126,7 +23127,7 @@
       <c r="Y808" s="1"/>
       <c r="Z808" s="1"/>
     </row>
-    <row r="809" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -23154,7 +23155,7 @@
       <c r="Y809" s="1"/>
       <c r="Z809" s="1"/>
     </row>
-    <row r="810" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -23182,7 +23183,7 @@
       <c r="Y810" s="1"/>
       <c r="Z810" s="1"/>
     </row>
-    <row r="811" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -23210,7 +23211,7 @@
       <c r="Y811" s="1"/>
       <c r="Z811" s="1"/>
     </row>
-    <row r="812" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -23238,7 +23239,7 @@
       <c r="Y812" s="1"/>
       <c r="Z812" s="1"/>
     </row>
-    <row r="813" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -23266,7 +23267,7 @@
       <c r="Y813" s="1"/>
       <c r="Z813" s="1"/>
     </row>
-    <row r="814" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -23294,7 +23295,7 @@
       <c r="Y814" s="1"/>
       <c r="Z814" s="1"/>
     </row>
-    <row r="815" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -23322,7 +23323,7 @@
       <c r="Y815" s="1"/>
       <c r="Z815" s="1"/>
     </row>
-    <row r="816" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -23350,7 +23351,7 @@
       <c r="Y816" s="1"/>
       <c r="Z816" s="1"/>
     </row>
-    <row r="817" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -23378,7 +23379,7 @@
       <c r="Y817" s="1"/>
       <c r="Z817" s="1"/>
     </row>
-    <row r="818" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -23406,7 +23407,7 @@
       <c r="Y818" s="1"/>
       <c r="Z818" s="1"/>
     </row>
-    <row r="819" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -23434,7 +23435,7 @@
       <c r="Y819" s="1"/>
       <c r="Z819" s="1"/>
     </row>
-    <row r="820" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -23462,7 +23463,7 @@
       <c r="Y820" s="1"/>
       <c r="Z820" s="1"/>
     </row>
-    <row r="821" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -23490,7 +23491,7 @@
       <c r="Y821" s="1"/>
       <c r="Z821" s="1"/>
     </row>
-    <row r="822" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -23518,7 +23519,7 @@
       <c r="Y822" s="1"/>
       <c r="Z822" s="1"/>
     </row>
-    <row r="823" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -23546,7 +23547,7 @@
       <c r="Y823" s="1"/>
       <c r="Z823" s="1"/>
     </row>
-    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -23574,7 +23575,7 @@
       <c r="Y824" s="1"/>
       <c r="Z824" s="1"/>
     </row>
-    <row r="825" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -23602,7 +23603,7 @@
       <c r="Y825" s="1"/>
       <c r="Z825" s="1"/>
     </row>
-    <row r="826" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -23630,7 +23631,7 @@
       <c r="Y826" s="1"/>
       <c r="Z826" s="1"/>
     </row>
-    <row r="827" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -23658,7 +23659,7 @@
       <c r="Y827" s="1"/>
       <c r="Z827" s="1"/>
     </row>
-    <row r="828" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -23686,7 +23687,7 @@
       <c r="Y828" s="1"/>
       <c r="Z828" s="1"/>
     </row>
-    <row r="829" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -23714,7 +23715,7 @@
       <c r="Y829" s="1"/>
       <c r="Z829" s="1"/>
     </row>
-    <row r="830" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -23742,7 +23743,7 @@
       <c r="Y830" s="1"/>
       <c r="Z830" s="1"/>
     </row>
-    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -23770,7 +23771,7 @@
       <c r="Y831" s="1"/>
       <c r="Z831" s="1"/>
     </row>
-    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -23798,7 +23799,7 @@
       <c r="Y832" s="1"/>
       <c r="Z832" s="1"/>
     </row>
-    <row r="833" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -23826,7 +23827,7 @@
       <c r="Y833" s="1"/>
       <c r="Z833" s="1"/>
     </row>
-    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -23854,7 +23855,7 @@
       <c r="Y834" s="1"/>
       <c r="Z834" s="1"/>
     </row>
-    <row r="835" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -23882,7 +23883,7 @@
       <c r="Y835" s="1"/>
       <c r="Z835" s="1"/>
     </row>
-    <row r="836" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -23910,7 +23911,7 @@
       <c r="Y836" s="1"/>
       <c r="Z836" s="1"/>
     </row>
-    <row r="837" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -23938,7 +23939,7 @@
       <c r="Y837" s="1"/>
       <c r="Z837" s="1"/>
     </row>
-    <row r="838" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -23966,7 +23967,7 @@
       <c r="Y838" s="1"/>
       <c r="Z838" s="1"/>
     </row>
-    <row r="839" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -23994,7 +23995,7 @@
       <c r="Y839" s="1"/>
       <c r="Z839" s="1"/>
     </row>
-    <row r="840" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -24022,7 +24023,7 @@
       <c r="Y840" s="1"/>
       <c r="Z840" s="1"/>
     </row>
-    <row r="841" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -24050,7 +24051,7 @@
       <c r="Y841" s="1"/>
       <c r="Z841" s="1"/>
     </row>
-    <row r="842" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -24078,7 +24079,7 @@
       <c r="Y842" s="1"/>
       <c r="Z842" s="1"/>
     </row>
-    <row r="843" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -24106,7 +24107,7 @@
       <c r="Y843" s="1"/>
       <c r="Z843" s="1"/>
     </row>
-    <row r="844" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -24134,7 +24135,7 @@
       <c r="Y844" s="1"/>
       <c r="Z844" s="1"/>
     </row>
-    <row r="845" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -24162,7 +24163,7 @@
       <c r="Y845" s="1"/>
       <c r="Z845" s="1"/>
     </row>
-    <row r="846" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -24190,7 +24191,7 @@
       <c r="Y846" s="1"/>
       <c r="Z846" s="1"/>
     </row>
-    <row r="847" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -24218,7 +24219,7 @@
       <c r="Y847" s="1"/>
       <c r="Z847" s="1"/>
     </row>
-    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -24246,7 +24247,7 @@
       <c r="Y848" s="1"/>
       <c r="Z848" s="1"/>
     </row>
-    <row r="849" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -24274,7 +24275,7 @@
       <c r="Y849" s="1"/>
       <c r="Z849" s="1"/>
     </row>
-    <row r="850" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -24302,7 +24303,7 @@
       <c r="Y850" s="1"/>
       <c r="Z850" s="1"/>
     </row>
-    <row r="851" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -24330,7 +24331,7 @@
       <c r="Y851" s="1"/>
       <c r="Z851" s="1"/>
     </row>
-    <row r="852" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -24358,7 +24359,7 @@
       <c r="Y852" s="1"/>
       <c r="Z852" s="1"/>
     </row>
-    <row r="853" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -24386,7 +24387,7 @@
       <c r="Y853" s="1"/>
       <c r="Z853" s="1"/>
     </row>
-    <row r="854" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -24414,7 +24415,7 @@
       <c r="Y854" s="1"/>
       <c r="Z854" s="1"/>
     </row>
-    <row r="855" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -24442,7 +24443,7 @@
       <c r="Y855" s="1"/>
       <c r="Z855" s="1"/>
     </row>
-    <row r="856" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -24470,7 +24471,7 @@
       <c r="Y856" s="1"/>
       <c r="Z856" s="1"/>
     </row>
-    <row r="857" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -24498,7 +24499,7 @@
       <c r="Y857" s="1"/>
       <c r="Z857" s="1"/>
     </row>
-    <row r="858" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -24526,7 +24527,7 @@
       <c r="Y858" s="1"/>
       <c r="Z858" s="1"/>
     </row>
-    <row r="859" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -24554,7 +24555,7 @@
       <c r="Y859" s="1"/>
       <c r="Z859" s="1"/>
     </row>
-    <row r="860" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -24582,7 +24583,7 @@
       <c r="Y860" s="1"/>
       <c r="Z860" s="1"/>
     </row>
-    <row r="861" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -24610,7 +24611,7 @@
       <c r="Y861" s="1"/>
       <c r="Z861" s="1"/>
     </row>
-    <row r="862" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -24638,7 +24639,7 @@
       <c r="Y862" s="1"/>
       <c r="Z862" s="1"/>
     </row>
-    <row r="863" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -24666,7 +24667,7 @@
       <c r="Y863" s="1"/>
       <c r="Z863" s="1"/>
     </row>
-    <row r="864" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -24694,7 +24695,7 @@
       <c r="Y864" s="1"/>
       <c r="Z864" s="1"/>
     </row>
-    <row r="865" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -24722,7 +24723,7 @@
       <c r="Y865" s="1"/>
       <c r="Z865" s="1"/>
     </row>
-    <row r="866" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -24750,7 +24751,7 @@
       <c r="Y866" s="1"/>
       <c r="Z866" s="1"/>
     </row>
-    <row r="867" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -24778,7 +24779,7 @@
       <c r="Y867" s="1"/>
       <c r="Z867" s="1"/>
     </row>
-    <row r="868" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -24806,7 +24807,7 @@
       <c r="Y868" s="1"/>
       <c r="Z868" s="1"/>
     </row>
-    <row r="869" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -24834,7 +24835,7 @@
       <c r="Y869" s="1"/>
       <c r="Z869" s="1"/>
     </row>
-    <row r="870" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -24862,7 +24863,7 @@
       <c r="Y870" s="1"/>
       <c r="Z870" s="1"/>
     </row>
-    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -24890,7 +24891,7 @@
       <c r="Y871" s="1"/>
       <c r="Z871" s="1"/>
     </row>
-    <row r="872" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -24918,7 +24919,7 @@
       <c r="Y872" s="1"/>
       <c r="Z872" s="1"/>
     </row>
-    <row r="873" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -24946,7 +24947,7 @@
       <c r="Y873" s="1"/>
       <c r="Z873" s="1"/>
     </row>
-    <row r="874" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -24974,7 +24975,7 @@
       <c r="Y874" s="1"/>
       <c r="Z874" s="1"/>
     </row>
-    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -25002,7 +25003,7 @@
       <c r="Y875" s="1"/>
       <c r="Z875" s="1"/>
     </row>
-    <row r="876" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -25030,7 +25031,7 @@
       <c r="Y876" s="1"/>
       <c r="Z876" s="1"/>
     </row>
-    <row r="877" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -25058,7 +25059,7 @@
       <c r="Y877" s="1"/>
       <c r="Z877" s="1"/>
     </row>
-    <row r="878" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -25086,7 +25087,7 @@
       <c r="Y878" s="1"/>
       <c r="Z878" s="1"/>
     </row>
-    <row r="879" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -25114,7 +25115,7 @@
       <c r="Y879" s="1"/>
       <c r="Z879" s="1"/>
     </row>
-    <row r="880" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -25142,7 +25143,7 @@
       <c r="Y880" s="1"/>
       <c r="Z880" s="1"/>
     </row>
-    <row r="881" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -25170,7 +25171,7 @@
       <c r="Y881" s="1"/>
       <c r="Z881" s="1"/>
     </row>
-    <row r="882" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -25198,7 +25199,7 @@
       <c r="Y882" s="1"/>
       <c r="Z882" s="1"/>
     </row>
-    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -25226,7 +25227,7 @@
       <c r="Y883" s="1"/>
       <c r="Z883" s="1"/>
     </row>
-    <row r="884" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -25254,7 +25255,7 @@
       <c r="Y884" s="1"/>
       <c r="Z884" s="1"/>
     </row>
-    <row r="885" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -25282,7 +25283,7 @@
       <c r="Y885" s="1"/>
       <c r="Z885" s="1"/>
     </row>
-    <row r="886" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -25310,7 +25311,7 @@
       <c r="Y886" s="1"/>
       <c r="Z886" s="1"/>
     </row>
-    <row r="887" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -25338,7 +25339,7 @@
       <c r="Y887" s="1"/>
       <c r="Z887" s="1"/>
     </row>
-    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -25366,7 +25367,7 @@
       <c r="Y888" s="1"/>
       <c r="Z888" s="1"/>
     </row>
-    <row r="889" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -25394,7 +25395,7 @@
       <c r="Y889" s="1"/>
       <c r="Z889" s="1"/>
     </row>
-    <row r="890" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -25422,7 +25423,7 @@
       <c r="Y890" s="1"/>
       <c r="Z890" s="1"/>
     </row>
-    <row r="891" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -25450,7 +25451,7 @@
       <c r="Y891" s="1"/>
       <c r="Z891" s="1"/>
     </row>
-    <row r="892" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -25478,7 +25479,7 @@
       <c r="Y892" s="1"/>
       <c r="Z892" s="1"/>
     </row>
-    <row r="893" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -25506,7 +25507,7 @@
       <c r="Y893" s="1"/>
       <c r="Z893" s="1"/>
     </row>
-    <row r="894" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -25534,7 +25535,7 @@
       <c r="Y894" s="1"/>
       <c r="Z894" s="1"/>
     </row>
-    <row r="895" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -25562,7 +25563,7 @@
       <c r="Y895" s="1"/>
       <c r="Z895" s="1"/>
     </row>
-    <row r="896" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -25590,7 +25591,7 @@
       <c r="Y896" s="1"/>
       <c r="Z896" s="1"/>
     </row>
-    <row r="897" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -25618,7 +25619,7 @@
       <c r="Y897" s="1"/>
       <c r="Z897" s="1"/>
     </row>
-    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -25646,7 +25647,7 @@
       <c r="Y898" s="1"/>
       <c r="Z898" s="1"/>
     </row>
-    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -25674,7 +25675,7 @@
       <c r="Y899" s="1"/>
       <c r="Z899" s="1"/>
     </row>
-    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -25702,7 +25703,7 @@
       <c r="Y900" s="1"/>
       <c r="Z900" s="1"/>
     </row>
-    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -25730,7 +25731,7 @@
       <c r="Y901" s="1"/>
       <c r="Z901" s="1"/>
     </row>
-    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -25758,7 +25759,7 @@
       <c r="Y902" s="1"/>
       <c r="Z902" s="1"/>
     </row>
-    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -25786,7 +25787,7 @@
       <c r="Y903" s="1"/>
       <c r="Z903" s="1"/>
     </row>
-    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -25814,7 +25815,7 @@
       <c r="Y904" s="1"/>
       <c r="Z904" s="1"/>
     </row>
-    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -25842,7 +25843,7 @@
       <c r="Y905" s="1"/>
       <c r="Z905" s="1"/>
     </row>
-    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -25870,7 +25871,7 @@
       <c r="Y906" s="1"/>
       <c r="Z906" s="1"/>
     </row>
-    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -25898,7 +25899,7 @@
       <c r="Y907" s="1"/>
       <c r="Z907" s="1"/>
     </row>
-    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -25926,7 +25927,7 @@
       <c r="Y908" s="1"/>
       <c r="Z908" s="1"/>
     </row>
-    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -25954,7 +25955,7 @@
       <c r="Y909" s="1"/>
       <c r="Z909" s="1"/>
     </row>
-    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -25982,7 +25983,7 @@
       <c r="Y910" s="1"/>
       <c r="Z910" s="1"/>
     </row>
-    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -26010,7 +26011,7 @@
       <c r="Y911" s="1"/>
       <c r="Z911" s="1"/>
     </row>
-    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -26038,7 +26039,7 @@
       <c r="Y912" s="1"/>
       <c r="Z912" s="1"/>
     </row>
-    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -26066,7 +26067,7 @@
       <c r="Y913" s="1"/>
       <c r="Z913" s="1"/>
     </row>
-    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -26094,7 +26095,7 @@
       <c r="Y914" s="1"/>
       <c r="Z914" s="1"/>
     </row>
-    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -26122,7 +26123,7 @@
       <c r="Y915" s="1"/>
       <c r="Z915" s="1"/>
     </row>
-    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -26150,7 +26151,7 @@
       <c r="Y916" s="1"/>
       <c r="Z916" s="1"/>
     </row>
-    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -26178,7 +26179,7 @@
       <c r="Y917" s="1"/>
       <c r="Z917" s="1"/>
     </row>
-    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -26206,7 +26207,7 @@
       <c r="Y918" s="1"/>
       <c r="Z918" s="1"/>
     </row>
-    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -26234,7 +26235,7 @@
       <c r="Y919" s="1"/>
       <c r="Z919" s="1"/>
     </row>
-    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -26262,7 +26263,7 @@
       <c r="Y920" s="1"/>
       <c r="Z920" s="1"/>
     </row>
-    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -26290,7 +26291,7 @@
       <c r="Y921" s="1"/>
       <c r="Z921" s="1"/>
     </row>
-    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -26318,7 +26319,7 @@
       <c r="Y922" s="1"/>
       <c r="Z922" s="1"/>
     </row>
-    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -26346,7 +26347,7 @@
       <c r="Y923" s="1"/>
       <c r="Z923" s="1"/>
     </row>
-    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -26374,7 +26375,7 @@
       <c r="Y924" s="1"/>
       <c r="Z924" s="1"/>
     </row>
-    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -26402,7 +26403,7 @@
       <c r="Y925" s="1"/>
       <c r="Z925" s="1"/>
     </row>
-    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -26430,7 +26431,7 @@
       <c r="Y926" s="1"/>
       <c r="Z926" s="1"/>
     </row>
-    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -26458,7 +26459,7 @@
       <c r="Y927" s="1"/>
       <c r="Z927" s="1"/>
     </row>
-    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -26486,7 +26487,7 @@
       <c r="Y928" s="1"/>
       <c r="Z928" s="1"/>
     </row>
-    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -26514,7 +26515,7 @@
       <c r="Y929" s="1"/>
       <c r="Z929" s="1"/>
     </row>
-    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -26542,7 +26543,7 @@
       <c r="Y930" s="1"/>
       <c r="Z930" s="1"/>
     </row>
-    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -26570,7 +26571,7 @@
       <c r="Y931" s="1"/>
       <c r="Z931" s="1"/>
     </row>
-    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -26598,7 +26599,7 @@
       <c r="Y932" s="1"/>
       <c r="Z932" s="1"/>
     </row>
-    <row r="933" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -26626,7 +26627,7 @@
       <c r="Y933" s="1"/>
       <c r="Z933" s="1"/>
     </row>
-    <row r="934" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -26654,7 +26655,7 @@
       <c r="Y934" s="1"/>
       <c r="Z934" s="1"/>
     </row>
-    <row r="935" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -26682,7 +26683,7 @@
       <c r="Y935" s="1"/>
       <c r="Z935" s="1"/>
     </row>
-    <row r="936" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -26710,7 +26711,7 @@
       <c r="Y936" s="1"/>
       <c r="Z936" s="1"/>
     </row>
-    <row r="937" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -26738,7 +26739,7 @@
       <c r="Y937" s="1"/>
       <c r="Z937" s="1"/>
     </row>
-    <row r="938" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -26766,7 +26767,7 @@
       <c r="Y938" s="1"/>
       <c r="Z938" s="1"/>
     </row>
-    <row r="939" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -26794,7 +26795,7 @@
       <c r="Y939" s="1"/>
       <c r="Z939" s="1"/>
     </row>
-    <row r="940" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -26822,7 +26823,7 @@
       <c r="Y940" s="1"/>
       <c r="Z940" s="1"/>
     </row>
-    <row r="941" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -26850,7 +26851,7 @@
       <c r="Y941" s="1"/>
       <c r="Z941" s="1"/>
     </row>
-    <row r="942" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -26878,7 +26879,7 @@
       <c r="Y942" s="1"/>
       <c r="Z942" s="1"/>
     </row>
-    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -26906,7 +26907,7 @@
       <c r="Y943" s="1"/>
       <c r="Z943" s="1"/>
     </row>
-    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -26934,7 +26935,7 @@
       <c r="Y944" s="1"/>
       <c r="Z944" s="1"/>
     </row>
-    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -26962,7 +26963,7 @@
       <c r="Y945" s="1"/>
       <c r="Z945" s="1"/>
     </row>
-    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -26990,7 +26991,7 @@
       <c r="Y946" s="1"/>
       <c r="Z946" s="1"/>
     </row>
-    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -27018,7 +27019,7 @@
       <c r="Y947" s="1"/>
       <c r="Z947" s="1"/>
     </row>
-    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -27046,7 +27047,7 @@
       <c r="Y948" s="1"/>
       <c r="Z948" s="1"/>
     </row>
-    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -27074,7 +27075,7 @@
       <c r="Y949" s="1"/>
       <c r="Z949" s="1"/>
     </row>
-    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -27102,7 +27103,7 @@
       <c r="Y950" s="1"/>
       <c r="Z950" s="1"/>
     </row>
-    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -27130,7 +27131,7 @@
       <c r="Y951" s="1"/>
       <c r="Z951" s="1"/>
     </row>
-    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -27158,7 +27159,7 @@
       <c r="Y952" s="1"/>
       <c r="Z952" s="1"/>
     </row>
-    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -27186,7 +27187,7 @@
       <c r="Y953" s="1"/>
       <c r="Z953" s="1"/>
     </row>
-    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -27214,7 +27215,7 @@
       <c r="Y954" s="1"/>
       <c r="Z954" s="1"/>
     </row>
-    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -27242,7 +27243,7 @@
       <c r="Y955" s="1"/>
       <c r="Z955" s="1"/>
     </row>
-    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -27270,7 +27271,7 @@
       <c r="Y956" s="1"/>
       <c r="Z956" s="1"/>
     </row>
-    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -27298,7 +27299,7 @@
       <c r="Y957" s="1"/>
       <c r="Z957" s="1"/>
     </row>
-    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -27326,7 +27327,7 @@
       <c r="Y958" s="1"/>
       <c r="Z958" s="1"/>
     </row>
-    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -27354,7 +27355,7 @@
       <c r="Y959" s="1"/>
       <c r="Z959" s="1"/>
     </row>
-    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -27382,7 +27383,7 @@
       <c r="Y960" s="1"/>
       <c r="Z960" s="1"/>
     </row>
-    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -27410,7 +27411,7 @@
       <c r="Y961" s="1"/>
       <c r="Z961" s="1"/>
     </row>
-    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -27438,7 +27439,7 @@
       <c r="Y962" s="1"/>
       <c r="Z962" s="1"/>
     </row>
-    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -27466,7 +27467,7 @@
       <c r="Y963" s="1"/>
       <c r="Z963" s="1"/>
     </row>
-    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -27494,7 +27495,7 @@
       <c r="Y964" s="1"/>
       <c r="Z964" s="1"/>
     </row>
-    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -27522,7 +27523,7 @@
       <c r="Y965" s="1"/>
       <c r="Z965" s="1"/>
     </row>
-    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -27550,7 +27551,7 @@
       <c r="Y966" s="1"/>
       <c r="Z966" s="1"/>
     </row>
-    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -27578,7 +27579,7 @@
       <c r="Y967" s="1"/>
       <c r="Z967" s="1"/>
     </row>
-    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -27606,7 +27607,7 @@
       <c r="Y968" s="1"/>
       <c r="Z968" s="1"/>
     </row>
-    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -27634,7 +27635,7 @@
       <c r="Y969" s="1"/>
       <c r="Z969" s="1"/>
     </row>
-    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -27662,7 +27663,7 @@
       <c r="Y970" s="1"/>
       <c r="Z970" s="1"/>
     </row>
-    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -27690,7 +27691,7 @@
       <c r="Y971" s="1"/>
       <c r="Z971" s="1"/>
     </row>
-    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -27718,7 +27719,7 @@
       <c r="Y972" s="1"/>
       <c r="Z972" s="1"/>
     </row>
-    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -27746,7 +27747,7 @@
       <c r="Y973" s="1"/>
       <c r="Z973" s="1"/>
     </row>
-    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -27774,7 +27775,7 @@
       <c r="Y974" s="1"/>
       <c r="Z974" s="1"/>
     </row>
-    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -27802,7 +27803,7 @@
       <c r="Y975" s="1"/>
       <c r="Z975" s="1"/>
     </row>
-    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -27830,7 +27831,7 @@
       <c r="Y976" s="1"/>
       <c r="Z976" s="1"/>
     </row>
-    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -27858,7 +27859,7 @@
       <c r="Y977" s="1"/>
       <c r="Z977" s="1"/>
     </row>
-    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -27886,7 +27887,7 @@
       <c r="Y978" s="1"/>
       <c r="Z978" s="1"/>
     </row>
-    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -27914,7 +27915,7 @@
       <c r="Y979" s="1"/>
       <c r="Z979" s="1"/>
     </row>
-    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -27942,7 +27943,7 @@
       <c r="Y980" s="1"/>
       <c r="Z980" s="1"/>
     </row>
-    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -27970,7 +27971,7 @@
       <c r="Y981" s="1"/>
       <c r="Z981" s="1"/>
     </row>
-    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -27998,7 +27999,7 @@
       <c r="Y982" s="1"/>
       <c r="Z982" s="1"/>
     </row>
-    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -28026,7 +28027,7 @@
       <c r="Y983" s="1"/>
       <c r="Z983" s="1"/>
     </row>
-    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -28054,7 +28055,7 @@
       <c r="Y984" s="1"/>
       <c r="Z984" s="1"/>
     </row>
-    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -28082,7 +28083,7 @@
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
     </row>
-    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -28110,7 +28111,7 @@
       <c r="Y986" s="1"/>
       <c r="Z986" s="1"/>
     </row>
-    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -28138,7 +28139,7 @@
       <c r="Y987" s="1"/>
       <c r="Z987" s="1"/>
     </row>
-    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -28166,7 +28167,7 @@
       <c r="Y988" s="1"/>
       <c r="Z988" s="1"/>
     </row>
-    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -28194,7 +28195,7 @@
       <c r="Y989" s="1"/>
       <c r="Z989" s="1"/>
     </row>
-    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -28222,7 +28223,7 @@
       <c r="Y990" s="1"/>
       <c r="Z990" s="1"/>
     </row>
-    <row r="991" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -28250,7 +28251,7 @@
       <c r="Y991" s="1"/>
       <c r="Z991" s="1"/>
     </row>
-    <row r="992" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -28278,7 +28279,7 @@
       <c r="Y992" s="1"/>
       <c r="Z992" s="1"/>
     </row>
-    <row r="993" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -28306,7 +28307,7 @@
       <c r="Y993" s="1"/>
       <c r="Z993" s="1"/>
     </row>
-    <row r="994" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -28334,7 +28335,7 @@
       <c r="Y994" s="1"/>
       <c r="Z994" s="1"/>
     </row>
-    <row r="995" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -28362,7 +28363,7 @@
       <c r="Y995" s="1"/>
       <c r="Z995" s="1"/>
     </row>
-    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -28390,7 +28391,7 @@
       <c r="Y996" s="1"/>
       <c r="Z996" s="1"/>
     </row>
-    <row r="997" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -28418,7 +28419,7 @@
       <c r="Y997" s="1"/>
       <c r="Z997" s="1"/>
     </row>
-    <row r="998" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -28446,7 +28447,7 @@
       <c r="Y998" s="1"/>
       <c r="Z998" s="1"/>
     </row>
-    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -28474,7 +28475,7 @@
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
     </row>
-    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A862F420-9C5D-334C-AFA4-57CBF1EB703A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08961968-A3E6-7143-B1D9-17EA62EF982B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Season</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>90</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Geri Vass</t>
+  </si>
+  <si>
+    <t>87</t>
   </si>
 </sst>
 </file>
@@ -386,7 +395,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -868,10 +877,18 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -896,10 +913,18 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08961968-A3E6-7143-B1D9-17EA62EF982B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25DACA8-2D74-BC4D-BE68-FCD42E1B93A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>Season</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>87</t>
+  </si>
+  <si>
+    <t>Balázs Pápai</t>
+  </si>
+  <si>
+    <t>96</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -949,10 +955,18 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25DACA8-2D74-BC4D-BE68-FCD42E1B93A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D07CB5-3AE1-F441-99F8-AE6A1B150FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>Season</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>96</t>
+  </si>
+  <si>
+    <t>Tomi Csánk</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Laci Ferenczi</t>
   </si>
 </sst>
 </file>
@@ -401,7 +410,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -991,10 +1000,18 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1019,10 +1036,18 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D07CB5-3AE1-F441-99F8-AE6A1B150FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97319E0C-5F65-1049-A9A7-2F7B7C90BA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Season</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Laci Ferenczi</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1075,18 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97319E0C-5F65-1049-A9A7-2F7B7C90BA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D39977-7560-9C41-90A5-8DF72A08F011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>Season</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>111</t>
+  </si>
+  <si>
+    <t>109</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1111,10 +1114,18 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D39977-7560-9C41-90A5-8DF72A08F011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BEC9C2-9A48-834D-869D-F7CEC9AFE850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>Season</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>109</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1150,10 +1153,18 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1178,10 +1189,18 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BEC9C2-9A48-834D-869D-F7CEC9AFE850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6BAC6B-CCA1-B34B-ADF4-2A73920F0922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>Season</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>125</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1225,10 +1228,18 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6BAC6B-CCA1-B34B-ADF4-2A73920F0922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4CCCD2-9816-FF4D-8B68-0A691B9907A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>Season</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>125</t>
+  </si>
+  <si>
+    <t>Ármin Szücs</t>
+  </si>
+  <si>
+    <t>Dani Pusztai</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1264,10 +1270,18 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1292,10 +1306,18 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4CCCD2-9816-FF4D-8B68-0A691B9907A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA7D17D-E978-4C4A-BDB8-94A0878DC968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
   <si>
     <t>Season</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Dani Pusztai</t>
+  </si>
+  <si>
+    <t>143</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1342,10 +1345,18 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA7D17D-E978-4C4A-BDB8-94A0878DC968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8992BC2-F881-1546-AF51-15DCC43B750F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>Season</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>143</t>
+  </si>
+  <si>
+    <t>82</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1381,10 +1384,18 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1409,10 +1420,18 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>

--- a/bonus/bonus_points.xlsx
+++ b/bonus/bonus_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Programming/R/darts-statistics/bonus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8992BC2-F881-1546-AF51-15DCC43B750F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A69CD6-FD7F-0545-A4AB-FAB597F8521D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
   <si>
     <t>Season</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>82</t>
+  </si>
+  <si>
+    <t>2026</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1456,10 +1459,18 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
